--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -46,19 +46,25 @@
     <t>אחוז מכרמלה</t>
   </si>
   <si>
-    <t>אבוקדו בשל (מארז 3 יחידות)</t>
+    <t>אגס</t>
   </si>
   <si>
     <t>ק"ג</t>
   </si>
   <si>
-    <t>27.90</t>
-  </si>
-  <si>
-    <t>בטטה</t>
-  </si>
-  <si>
-    <t>15.50</t>
+    <t>17.90</t>
+  </si>
+  <si>
+    <t>אגס ירוק</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">19.9</t>
+    </r>
+  </si>
+  <si>
+    <t>אגס אירופאי (אדום)</t>
   </si>
   <si>
     <r>
@@ -67,122 +73,298 @@
     </r>
   </si>
   <si>
+    <t>19.90</t>
+  </si>
+  <si>
+    <t>אננס</t>
+  </si>
+  <si>
+    <t>37.90</t>
+  </si>
+  <si>
+    <t>אננס ישראלי טרי</t>
+  </si>
+  <si>
+    <t>יחידה</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">44.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">יח׳</t>
+    </r>
+  </si>
+  <si>
+    <t>39.90</t>
+  </si>
+  <si>
+    <t>אפרסק</t>
+  </si>
+  <si>
+    <t>18.90</t>
+  </si>
+  <si>
+    <t>בננה</t>
+  </si>
+  <si>
+    <t>12.90</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">14.9</t>
+    </r>
+  </si>
+  <si>
+    <t>13.90</t>
+  </si>
+  <si>
+    <t>חצי אבטיח</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">6.9</t>
+    </r>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>ליים</t>
+  </si>
+  <si>
+    <t>14.90</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>ליים אמיתי</t>
+  </si>
+  <si>
     <t>15.90</t>
   </si>
   <si>
+    <t>מארז תמר מג'הול (בונבון) - 400 גרם</t>
+  </si>
+  <si>
+    <t>24.90</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>מארז תמר מג'הול סופר עסיסי
+'בונבון'
+400 גרם</t>
+  </si>
+  <si>
+    <t>מלון כתום</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">9.9</t>
+    </r>
+  </si>
+  <si>
+    <t>מלון כתום דבש</t>
+  </si>
+  <si>
+    <t>מלון ספרדי מתוק</t>
+  </si>
+  <si>
+    <t>6.90</t>
+  </si>
+  <si>
+    <t>מלון ספרדי</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>7.90</t>
+  </si>
+  <si>
+    <t>מנגו</t>
+  </si>
+  <si>
+    <t>27.90</t>
+  </si>
+  <si>
+    <t>מנגו ׳מאיה׳</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">29.9</t>
+    </r>
+  </si>
+  <si>
+    <t>מנגו 'מאיה'</t>
+  </si>
+  <si>
+    <t>29.90</t>
+  </si>
+  <si>
+    <t>נקטרינה</t>
+  </si>
+  <si>
+    <t>ענבים אדומים</t>
+  </si>
+  <si>
+    <t>23.90</t>
+  </si>
+  <si>
+    <t>ענבים אדומים 'טלי'
+(מארז כ- 1.6 ק"ג)</t>
+  </si>
+  <si>
+    <t>ענבים ירוקים</t>
+  </si>
+  <si>
+    <t>32.90</t>
+  </si>
+  <si>
+    <t>ענבים ירוקים - ישראלי (כ-1.3 ק״ג)</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">34.9</t>
+    </r>
+  </si>
+  <si>
+    <t>ענבים ירוקים 'טלי- אוטום קריספ'
+(מארז כ - 1.5 ק"ג)
+</t>
+  </si>
+  <si>
+    <t>ענבים שחורים</t>
+  </si>
+  <si>
+    <t>33.90</t>
+  </si>
+  <si>
+    <t>ענבים שחורים 'סייבל- טלי'
+(מארז כ- 1.3 ק"ג)</t>
+  </si>
+  <si>
+    <t>35.90</t>
+  </si>
+  <si>
+    <t>קיווי צהוב</t>
+  </si>
+  <si>
+    <t>34.90</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">38.9</t>
+    </r>
+  </si>
+  <si>
+    <t>קלמנטינה</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>11.90</t>
+  </si>
+  <si>
+    <t>שזיף אדום</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>שזיף צהוב</t>
+  </si>
+  <si>
+    <t>שזיף צהוב - סאן גולד</t>
+  </si>
+  <si>
+    <t>תפוז למיץ</t>
+  </si>
+  <si>
+    <t>8.90</t>
+  </si>
+  <si>
+    <t>תפוח חרמון</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">13.9</t>
+    </r>
+  </si>
+  <si>
+    <t>תפוח סמית</t>
+  </si>
+  <si>
+    <t>תפוח פינק ליידי</t>
+  </si>
+  <si>
+    <t>תפוח פינק</t>
+  </si>
+  <si>
+    <t>בטטה</t>
+  </si>
+  <si>
+    <t>15.50</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">ק"ג</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">17.9</t>
+    </r>
+  </si>
+  <si>
     <t>בצל</t>
   </si>
   <si>
     <t>4.50</t>
   </si>
   <si>
-    <t>5.90</t>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">5.9</t>
+    </r>
   </si>
   <si>
     <t>בצל סגול</t>
   </si>
   <si>
-    <t>6.90</t>
-  </si>
-  <si>
-    <t>7.90</t>
-  </si>
-  <si>
-    <t>גזר</t>
-  </si>
-  <si>
-    <t>גזר תפזורת</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <t>דואט פטריות (מארז)</t>
-  </si>
-  <si>
-    <t>16.90</t>
-  </si>
-  <si>
-    <t>חציל</t>
-  </si>
-  <si>
-    <t>חציל חממה</t>
-  </si>
-  <si>
-    <t>8.90</t>
-  </si>
-  <si>
-    <t>כרוב לבן</t>
-  </si>
-  <si>
-    <t>כרוב סגול</t>
-  </si>
-  <si>
-    <t>לימון</t>
-  </si>
-  <si>
-    <t>14.90</t>
-  </si>
-  <si>
-    <t>מיקס פטריות (מארז)</t>
-  </si>
-  <si>
-    <t>18.90</t>
-  </si>
-  <si>
-    <t>מלפפון מובחר</t>
-  </si>
-  <si>
-    <t>12.90</t>
-  </si>
-  <si>
-    <t>מלפפון מיני (מארז)</t>
-  </si>
-  <si>
-    <t>9.90</t>
-  </si>
-  <si>
-    <t>סלק אדום</t>
-  </si>
-  <si>
-    <t>סלק בוואקום (מארז)</t>
-  </si>
-  <si>
-    <t>עגבניה מובחרת</t>
-  </si>
-  <si>
-    <t>עגבניות מיובשות</t>
-  </si>
-  <si>
-    <t>פטריות פורטובלו (מארז)</t>
-  </si>
-  <si>
-    <t>פלפל אדום</t>
-  </si>
-  <si>
-    <t>13.90</t>
-  </si>
-  <si>
-    <t>פלפל ירוק</t>
-  </si>
-  <si>
-    <t>פלפל ירוק חריף</t>
-  </si>
-  <si>
-    <t>פלפל צ'ילי (מארז)</t>
-  </si>
-  <si>
-    <t>פלפל צהוב</t>
-  </si>
-  <si>
-    <t>פלפלונים מתוקים - טינקרבל (מארז)</t>
-  </si>
-  <si>
-    <t>צנונית</t>
-  </si>
-  <si>
-    <t>צנונית (מארז)
-450 גרם</t>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">7.9</t>
+    </r>
+  </si>
+  <si>
+    <t>בצלצלי שאלוט (מארז)</t>
+  </si>
+  <si>
+    <t>בצלצלי שאלוט</t>
   </si>
   <si>
     <r>
@@ -191,67 +373,102 @@
     </r>
   </si>
   <si>
+    <t>גזר</t>
+  </si>
+  <si>
+    <t>גזר בתפזורת</t>
+  </si>
+  <si>
+    <t>גזר צבעוני (מארז)</t>
+  </si>
+  <si>
+    <t>9.90</t>
+  </si>
+  <si>
+    <t>חציל</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">10.9</t>
+    </r>
+  </si>
+  <si>
+    <t>חציל בייבי (מארז)
+500 גרם</t>
+  </si>
+  <si>
+    <t>כרוב לבן</t>
+  </si>
+  <si>
+    <t>כרוב סגול</t>
+  </si>
+  <si>
+    <t>מלפפון מובחר</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">12.9</t>
+    </r>
+  </si>
+  <si>
+    <t>עגבניה מובחרת</t>
+  </si>
+  <si>
+    <t>פלפל אדום</t>
+  </si>
+  <si>
+    <t>פלפל ירוק</t>
+  </si>
+  <si>
+    <t>פלפל ירוק חריף</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">11.9</t>
+    </r>
+  </si>
+  <si>
+    <t>פלפל צהוב</t>
+  </si>
+  <si>
+    <t>צנונית</t>
+  </si>
+  <si>
+    <t>צנונית (מארז)
+450 גרם</t>
+  </si>
+  <si>
     <t>קולורבי</t>
   </si>
   <si>
     <t>קישוא</t>
   </si>
   <si>
-    <t>11.90</t>
-  </si>
-  <si>
-    <t>ראש שום</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>שום ארוז</t>
-  </si>
-  <si>
-    <t>שום קלוף (מארז)</t>
+    <t>10.90</t>
   </si>
   <si>
     <t>שומר</t>
   </si>
   <si>
-    <t>שומר (נקבה)</t>
-  </si>
-  <si>
-    <t>17.90</t>
-  </si>
-  <si>
-    <t>שמפניון (מארז)</t>
-  </si>
-  <si>
     <t>שעועית ירוקה</t>
   </si>
   <si>
-    <t>23.90</t>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">24.9</t>
+    </r>
   </si>
   <si>
     <t>25.90</t>
   </si>
   <si>
-    <t>שרי אדום (מארז)</t>
-  </si>
-  <si>
-    <t>שרי טריפל (מארז)</t>
-  </si>
-  <si>
-    <t>שרי צהוב (מארז)</t>
-  </si>
-  <si>
-    <t>10.90</t>
-  </si>
-  <si>
-    <t>שרי שוקו (מארז)</t>
-  </si>
-  <si>
-    <t>תירס (מארז)</t>
-  </si>
-  <si>
     <t>תפוח אדמה אדום</t>
+  </si>
+  <si>
+    <t>תפוח אדמה אדום בתפזורת</t>
   </si>
   <si>
     <t>תפוח אדמה לבן</t>
@@ -271,22 +488,15 @@
     <t>מארז</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">יח׳</t>
-    </r>
+    <t>אספרגוס</t>
+  </si>
+  <si>
+    <t>אספרגוס לבן
+(מארז)
+400 גרם</t>
   </si>
   <si>
     <t>בזיליקום</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">7.9</t>
-    </r>
   </si>
   <si>
     <t>בזיליקום אדום</t>
@@ -301,31 +511,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">6.9</t>
-    </r>
-  </si>
-  <si>
     <t>ברוקולי</t>
   </si>
   <si>
-    <t>24.90</t>
-  </si>
-  <si>
     <t>ג'ינג'ר</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">ק"ג</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">29.9</t>
-    </r>
   </si>
   <si>
     <t>חסה סלנובה</t>
@@ -337,10 +526,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">13.9</t>
-    </r>
+    <t>חסה סלנובה מסולסלת (באן) - מארז צמד</t>
   </si>
   <si>
     <t>כוסברה</t>
@@ -370,12 +556,6 @@
     <t>לבבות חסה</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">11.9</t>
-    </r>
-  </si>
-  <si>
     <t>מרווה</t>
   </si>
   <si>
@@ -394,12 +574,6 @@
     <r>
       <rPr/>
       <t xml:space="preserve">חבילה</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">14.9</t>
     </r>
   </si>
   <si>
@@ -484,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -552,6 +726,24 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J2" s="1">
         <f>C2 - F2</f>
       </c>
@@ -567,22 +759,31 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1">
         <f>C3 - F3</f>
@@ -599,22 +800,31 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J4" s="1">
         <f>C4 - F4</f>
@@ -631,22 +841,31 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1">
         <f>C5 - F5</f>
@@ -663,22 +882,31 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1">
         <f>C6 - F6</f>
@@ -695,13 +923,31 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="J7" s="1">
         <f>C7 - F7</f>
@@ -718,22 +964,31 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1">
         <f>C8 - F8</f>
@@ -750,22 +1005,31 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1">
         <f>C9 - F9</f>
@@ -782,22 +1046,31 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1">
         <f>C10 - F10</f>
@@ -814,13 +1087,31 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J11" s="1">
         <f>C11 - F11</f>
@@ -837,13 +1128,31 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J12" s="1">
         <f>C12 - F12</f>
@@ -860,22 +1169,31 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1">
         <f>C13 - F13</f>
@@ -892,13 +1210,31 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J14" s="1">
         <f>C14 - F14</f>
@@ -915,22 +1251,31 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="J15" s="1">
         <f>C15 - F15</f>
@@ -947,13 +1292,31 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="J16" s="1">
         <f>C16 - F16</f>
@@ -970,22 +1333,31 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>77</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="J17" s="1">
         <f>C17 - F17</f>
@@ -1002,13 +1374,31 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J18" s="1">
         <f>C18 - F18</f>
@@ -1025,13 +1415,31 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J19" s="1">
         <f>C19 - F19</f>
@@ -1048,22 +1456,31 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="J20" s="1">
         <f>C20 - F20</f>
@@ -1080,22 +1497,31 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J21" s="1">
         <f>C21 - F21</f>
@@ -1112,22 +1538,31 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="J22" s="1">
         <f>C22 - F22</f>
@@ -1144,13 +1579,31 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J23" s="1">
         <f>C23 - F23</f>
@@ -1167,22 +1620,31 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>91</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J24" s="1">
         <f>C24 - F24</f>
@@ -1199,13 +1661,31 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="J25" s="1">
         <f>C25 - F25</f>
@@ -1222,22 +1702,31 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J26" s="1">
         <f>C26 - F26</f>
@@ -1254,22 +1743,31 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J27" s="1">
         <f>C27 - F27</f>
@@ -1286,22 +1784,31 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>95</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="J28" s="1">
         <f>C28 - F28</f>
@@ -1318,13 +1825,31 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="J29" s="1">
         <f>C29 - F29</f>
@@ -1341,13 +1866,31 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="J30" s="1">
         <f>C30 - F30</f>
@@ -1364,13 +1907,31 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="J31" s="1">
         <f>C31 - F31</f>
@@ -1387,22 +1948,31 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>17</v>
+        <v>105</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="J32" s="1">
         <f>C32 - F32</f>
@@ -1419,13 +1989,31 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="J33" s="1">
         <f>C33 - F33</f>
@@ -1442,22 +2030,31 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>31</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="J34" s="1">
         <f>C34 - F34</f>
@@ -1474,13 +2071,31 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="J35" s="1">
         <f>C35 - F35</f>
@@ -1497,13 +2112,31 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="J36" s="1">
         <f>C36 - F36</f>
@@ -1520,13 +2153,31 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>31</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J37" s="1">
         <f>C37 - F37</f>
@@ -1543,13 +2194,31 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="J38" s="1">
         <f>C38 - F38</f>
@@ -1566,13 +2235,31 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="J39" s="1">
         <f>C39 - F39</f>
@@ -1589,22 +2276,31 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="J40" s="1">
         <f>C40 - F40</f>
@@ -1621,22 +2317,31 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="J41" s="1">
         <f>C41 - F41</f>
@@ -1653,31 +2358,31 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="J42" s="1">
         <f>C42 - F42</f>
@@ -1694,31 +2399,31 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J43" s="1">
         <f>C43 - F43</f>
@@ -1735,31 +2440,31 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="J44" s="1">
         <f>C44 - F44</f>
@@ -1776,31 +2481,31 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="J45" s="1">
         <f>C45 - F45</f>
@@ -1817,31 +2522,31 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="J46" s="1">
         <f>C46 - F46</f>
@@ -1858,31 +2563,31 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="J47" s="1">
         <f>C47 - F47</f>
@@ -1899,31 +2604,31 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="J48" s="1">
         <f>C48 - F48</f>
@@ -1940,31 +2645,31 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="J49" s="1">
         <f>C49 - F49</f>
@@ -1981,31 +2686,31 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="J50" s="1">
         <f>C50 - F50</f>
@@ -2022,31 +2727,31 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J51" s="1">
         <f>C51 - F51</f>
@@ -2063,31 +2768,31 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="J52" s="1">
         <f>C52 - F52</f>
@@ -2104,31 +2809,31 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="J53" s="1">
         <f>C53 - F53</f>
@@ -2145,31 +2850,31 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="J54" s="1">
         <f>C54 - F54</f>
@@ -2186,31 +2891,31 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J55" s="1">
         <f>C55 - F55</f>
@@ -2227,31 +2932,31 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="J56" s="1">
         <f>C56 - F56</f>
@@ -2268,31 +2973,31 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="J57" s="1">
         <f>C57 - F57</f>
@@ -2309,31 +3014,31 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="J58" s="1">
         <f>C58 - F58</f>
@@ -2350,31 +3055,31 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="J59" s="1">
         <f>C59 - F59</f>
@@ -2387,6 +3092,170 @@
       </c>
       <c r="M59" s="1">
         <f>C59 / I59 * 100</f>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J60" s="1">
+        <f>C60 - F60</f>
+      </c>
+      <c r="K60" s="1">
+        <f>C60 - I60</f>
+      </c>
+      <c r="L60" s="1">
+        <f>C60 / F60 * 100</f>
+      </c>
+      <c r="M60" s="1">
+        <f>C60 / I60 * 100</f>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="1">
+        <f>C61 - F61</f>
+      </c>
+      <c r="K61" s="1">
+        <f>C61 - I61</f>
+      </c>
+      <c r="L61" s="1">
+        <f>C61 / F61 * 100</f>
+      </c>
+      <c r="M61" s="1">
+        <f>C61 / I61 * 100</f>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J62" s="1">
+        <f>C62 - F62</f>
+      </c>
+      <c r="K62" s="1">
+        <f>C62 - I62</f>
+      </c>
+      <c r="L62" s="1">
+        <f>C62 / F62 * 100</f>
+      </c>
+      <c r="M62" s="1">
+        <f>C62 / I62 * 100</f>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J63" s="1">
+        <f>C63 - F63</f>
+      </c>
+      <c r="K63" s="1">
+        <f>C63 - I63</f>
+      </c>
+      <c r="L63" s="1">
+        <f>C63 / F63 * 100</f>
+      </c>
+      <c r="M63" s="1">
+        <f>C63 / I63 * 100</f>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -235,9 +235,6 @@
     <t>ענבים ירוקים</t>
   </si>
   <si>
-    <t>32.90</t>
-  </si>
-  <si>
     <t>ענבים ירוקים - ישראלי (כ-1.3 ק״ג)</t>
   </si>
   <si>
@@ -292,12 +289,6 @@
     <t>19.9</t>
   </si>
   <si>
-    <t>שזיף צהוב</t>
-  </si>
-  <si>
-    <t>שזיף צהוב - סאן גולד</t>
-  </si>
-  <si>
     <t>תפוז למיץ</t>
   </si>
   <si>
@@ -451,6 +442,12 @@
   </si>
   <si>
     <t>שומר</t>
+  </si>
+  <si>
+    <t>שומר (נקבה)</t>
+  </si>
+  <si>
+    <t>16.90</t>
   </si>
   <si>
     <t>שעועית ירוקה</t>
@@ -658,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1216,19 +1213,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>17</v>
@@ -1251,31 +1248,31 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="J15" s="1">
         <f>C15 - F15</f>
@@ -1292,22 +1289,22 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>43</v>
@@ -1333,31 +1330,31 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J17" s="1">
         <f>C17 - F17</f>
@@ -1374,7 +1371,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
@@ -1383,16 +1380,16 @@
         <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>17</v>
@@ -1415,31 +1412,31 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="J19" s="1">
         <f>C19 - F19</f>
@@ -1456,31 +1453,31 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J20" s="1">
         <f>C20 - F20</f>
@@ -1497,31 +1494,31 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="J21" s="1">
         <f>C21 - F21</f>
@@ -1538,31 +1535,31 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="H22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1">
         <f>C22 - F22</f>
@@ -1579,31 +1576,31 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J23" s="1">
         <f>C23 - F23</f>
@@ -1620,31 +1617,31 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J24" s="1">
         <f>C24 - F24</f>
@@ -1667,16 +1664,16 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>94</v>
@@ -1685,7 +1682,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="J25" s="1">
         <f>C25 - F25</f>
@@ -1702,31 +1699,31 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J26" s="1">
         <f>C26 - F26</f>
@@ -1749,25 +1746,25 @@
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="J27" s="1">
         <f>C27 - F27</f>
@@ -1784,31 +1781,31 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="J28" s="1">
         <f>C28 - F28</f>
@@ -1831,25 +1828,25 @@
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J29" s="1">
         <f>C29 - F29</f>
@@ -1866,31 +1863,31 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J30" s="1">
         <f>C30 - F30</f>
@@ -1907,31 +1904,31 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J31" s="1">
         <f>C31 - F31</f>
@@ -1948,25 +1945,25 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>17</v>
@@ -1989,31 +1986,31 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J33" s="1">
         <f>C33 - F33</f>
@@ -2030,31 +2027,31 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="J34" s="1">
         <f>C34 - F34</f>
@@ -2071,31 +2068,31 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J35" s="1">
         <f>C35 - F35</f>
@@ -2112,22 +2109,22 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>115</v>
@@ -2136,7 +2133,7 @@
         <v>17</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="J36" s="1">
         <f>C36 - F36</f>
@@ -2153,31 +2150,31 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J37" s="1">
         <f>C37 - F37</f>
@@ -2194,31 +2191,31 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J38" s="1">
         <f>C38 - F38</f>
@@ -2235,31 +2232,31 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="J39" s="1">
         <f>C39 - F39</f>
@@ -2276,22 +2273,22 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>122</v>
@@ -2300,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="J40" s="1">
         <f>C40 - F40</f>
@@ -2323,25 +2320,25 @@
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="J41" s="1">
         <f>C41 - F41</f>
@@ -2358,31 +2355,31 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="J42" s="1">
         <f>C42 - F42</f>
@@ -2399,7 +2396,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
@@ -2408,22 +2405,22 @@
         <v>35</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I43" s="1" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="J43" s="1">
         <f>C43 - F43</f>
@@ -2440,13 +2437,13 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>43</v>
@@ -2458,13 +2455,13 @@
         <v>43</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="J44" s="1">
         <f>C44 - F44</f>
@@ -2481,13 +2478,13 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>43</v>
@@ -2499,13 +2496,13 @@
         <v>43</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J45" s="1">
         <f>C45 - F45</f>
@@ -2522,31 +2519,31 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J46" s="1">
         <f>C46 - F46</f>
@@ -2563,22 +2560,22 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>138</v>
@@ -2587,7 +2584,7 @@
         <v>24</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J47" s="1">
         <f>C47 - F47</f>
@@ -2604,31 +2601,31 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J48" s="1">
         <f>C48 - F48</f>
@@ -2648,28 +2645,28 @@
         <v>141</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J49" s="1">
         <f>C49 - F49</f>
@@ -2689,28 +2686,28 @@
         <v>142</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J50" s="1">
         <f>C50 - F50</f>
@@ -2727,31 +2724,31 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>145</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="J51" s="1">
         <f>C51 - F51</f>
@@ -2768,31 +2765,31 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="J52" s="1">
         <f>C52 - F52</f>
@@ -2809,22 +2806,22 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>43</v>
@@ -2853,28 +2850,28 @@
         <v>152</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J54" s="1">
         <f>C54 - F54</f>
@@ -2894,19 +2891,19 @@
         <v>153</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>153</v>
@@ -2915,7 +2912,7 @@
         <v>24</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="J55" s="1">
         <f>C55 - F55</f>
@@ -2935,19 +2932,19 @@
         <v>154</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>154</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>154</v>
@@ -2956,7 +2953,7 @@
         <v>24</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="J56" s="1">
         <f>C56 - F56</f>
@@ -2976,19 +2973,19 @@
         <v>155</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>155</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>155</v>
@@ -2997,7 +2994,7 @@
         <v>24</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="J57" s="1">
         <f>C57 - F57</f>
@@ -3017,28 +3014,28 @@
         <v>156</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="J58" s="1">
         <f>C58 - F58</f>
@@ -3055,31 +3052,31 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>159</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J59" s="1">
         <f>C59 - F59</f>
@@ -3099,28 +3096,28 @@
         <v>160</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="J60" s="1">
         <f>C60 - F60</f>
@@ -3137,10 +3134,10 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>46</v>
@@ -3161,7 +3158,7 @@
         <v>24</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J61" s="1">
         <f>C61 - F61</f>
@@ -3181,19 +3178,19 @@
         <v>163</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>163</v>
@@ -3202,7 +3199,7 @@
         <v>24</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="J62" s="1">
         <f>C62 - F62</f>
@@ -3215,47 +3212,6 @@
       </c>
       <c r="M62" s="1">
         <f>C62 / I62 * 100</f>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J63" s="1">
-        <f>C63 - F63</f>
-      </c>
-      <c r="K63" s="1">
-        <f>C63 - I63</f>
-      </c>
-      <c r="L63" s="1">
-        <f>C63 / F63 * 100</f>
-      </c>
-      <c r="M63" s="1">
-        <f>C63 / I63 * 100</f>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -277,7 +278,7 @@
     <t>קלמנטינה</t>
   </si>
   <si>
-    <t/>
+    <t>0</t>
   </si>
   <si>
     <t>11.90</t>
@@ -3217,4 +3218,2570 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M62"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1">
+        <f>C2 - F2</f>
+      </c>
+      <c r="K2" s="1">
+        <f>C2 - I2</f>
+      </c>
+      <c r="L2" s="1">
+        <f>C2 / F2 * 100</f>
+      </c>
+      <c r="M2" s="1">
+        <f>C2 / I2 * 100</f>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1">
+        <f>C3 - F3</f>
+      </c>
+      <c r="K3" s="1">
+        <f>C3 - I3</f>
+      </c>
+      <c r="L3" s="1">
+        <f>C3 / F3 * 100</f>
+      </c>
+      <c r="M3" s="1">
+        <f>C3 / I3 * 100</f>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1">
+        <f>C4 - F4</f>
+      </c>
+      <c r="K4" s="1">
+        <f>C4 - I4</f>
+      </c>
+      <c r="L4" s="1">
+        <f>C4 / F4 * 100</f>
+      </c>
+      <c r="M4" s="1">
+        <f>C4 / I4 * 100</f>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1">
+        <f>C5 - F5</f>
+      </c>
+      <c r="K5" s="1">
+        <f>C5 - I5</f>
+      </c>
+      <c r="L5" s="1">
+        <f>C5 / F5 * 100</f>
+      </c>
+      <c r="M5" s="1">
+        <f>C5 / I5 * 100</f>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1">
+        <f>C6 - F6</f>
+      </c>
+      <c r="K6" s="1">
+        <f>C6 - I6</f>
+      </c>
+      <c r="L6" s="1">
+        <f>C6 / F6 * 100</f>
+      </c>
+      <c r="M6" s="1">
+        <f>C6 / I6 * 100</f>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="1">
+        <f>C7 - F7</f>
+      </c>
+      <c r="K7" s="1">
+        <f>C7 - I7</f>
+      </c>
+      <c r="L7" s="1">
+        <f>C7 / F7 * 100</f>
+      </c>
+      <c r="M7" s="1">
+        <f>C7 / I7 * 100</f>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="1">
+        <f>C8 - F8</f>
+      </c>
+      <c r="K8" s="1">
+        <f>C8 - I8</f>
+      </c>
+      <c r="L8" s="1">
+        <f>C8 / F8 * 100</f>
+      </c>
+      <c r="M8" s="1">
+        <f>C8 / I8 * 100</f>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1">
+        <f>C9 - F9</f>
+      </c>
+      <c r="K9" s="1">
+        <f>C9 - I9</f>
+      </c>
+      <c r="L9" s="1">
+        <f>C9 / F9 * 100</f>
+      </c>
+      <c r="M9" s="1">
+        <f>C9 / I9 * 100</f>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="1">
+        <f>C10 - F10</f>
+      </c>
+      <c r="K10" s="1">
+        <f>C10 - I10</f>
+      </c>
+      <c r="L10" s="1">
+        <f>C10 / F10 * 100</f>
+      </c>
+      <c r="M10" s="1">
+        <f>C10 / I10 * 100</f>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="1">
+        <f>C11 - F11</f>
+      </c>
+      <c r="K11" s="1">
+        <f>C11 - I11</f>
+      </c>
+      <c r="L11" s="1">
+        <f>C11 / F11 * 100</f>
+      </c>
+      <c r="M11" s="1">
+        <f>C11 / I11 * 100</f>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1">
+        <f>C12 - F12</f>
+      </c>
+      <c r="K12" s="1">
+        <f>C12 - I12</f>
+      </c>
+      <c r="L12" s="1">
+        <f>C12 / F12 * 100</f>
+      </c>
+      <c r="M12" s="1">
+        <f>C12 / I12 * 100</f>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="1">
+        <f>C13 - F13</f>
+      </c>
+      <c r="K13" s="1">
+        <f>C13 - I13</f>
+      </c>
+      <c r="L13" s="1">
+        <f>C13 / F13 * 100</f>
+      </c>
+      <c r="M13" s="1">
+        <f>C13 / I13 * 100</f>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1">
+        <f>C14 - F14</f>
+      </c>
+      <c r="K14" s="1">
+        <f>C14 - I14</f>
+      </c>
+      <c r="L14" s="1">
+        <f>C14 / F14 * 100</f>
+      </c>
+      <c r="M14" s="1">
+        <f>C14 / I14 * 100</f>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="1">
+        <f>C15 - F15</f>
+      </c>
+      <c r="K15" s="1">
+        <f>C15 - I15</f>
+      </c>
+      <c r="L15" s="1">
+        <f>C15 / F15 * 100</f>
+      </c>
+      <c r="M15" s="1">
+        <f>C15 / I15 * 100</f>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="1">
+        <f>C16 - F16</f>
+      </c>
+      <c r="K16" s="1">
+        <f>C16 - I16</f>
+      </c>
+      <c r="L16" s="1">
+        <f>C16 / F16 * 100</f>
+      </c>
+      <c r="M16" s="1">
+        <f>C16 / I16 * 100</f>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="1">
+        <f>C17 - F17</f>
+      </c>
+      <c r="K17" s="1">
+        <f>C17 - I17</f>
+      </c>
+      <c r="L17" s="1">
+        <f>C17 / F17 * 100</f>
+      </c>
+      <c r="M17" s="1">
+        <f>C17 / I17 * 100</f>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="1">
+        <f>C18 - F18</f>
+      </c>
+      <c r="K18" s="1">
+        <f>C18 - I18</f>
+      </c>
+      <c r="L18" s="1">
+        <f>C18 / F18 * 100</f>
+      </c>
+      <c r="M18" s="1">
+        <f>C18 / I18 * 100</f>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="1">
+        <f>C19 - F19</f>
+      </c>
+      <c r="K19" s="1">
+        <f>C19 - I19</f>
+      </c>
+      <c r="L19" s="1">
+        <f>C19 / F19 * 100</f>
+      </c>
+      <c r="M19" s="1">
+        <f>C19 / I19 * 100</f>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="1">
+        <f>C20 - F20</f>
+      </c>
+      <c r="K20" s="1">
+        <f>C20 - I20</f>
+      </c>
+      <c r="L20" s="1">
+        <f>C20 / F20 * 100</f>
+      </c>
+      <c r="M20" s="1">
+        <f>C20 / I20 * 100</f>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="1">
+        <f>C21 - F21</f>
+      </c>
+      <c r="K21" s="1">
+        <f>C21 - I21</f>
+      </c>
+      <c r="L21" s="1">
+        <f>C21 / F21 * 100</f>
+      </c>
+      <c r="M21" s="1">
+        <f>C21 / I21 * 100</f>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="1">
+        <f>C22 - F22</f>
+      </c>
+      <c r="K22" s="1">
+        <f>C22 - I22</f>
+      </c>
+      <c r="L22" s="1">
+        <f>C22 / F22 * 100</f>
+      </c>
+      <c r="M22" s="1">
+        <f>C22 / I22 * 100</f>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="1">
+        <f>C23 - F23</f>
+      </c>
+      <c r="K23" s="1">
+        <f>C23 - I23</f>
+      </c>
+      <c r="L23" s="1">
+        <f>C23 / F23 * 100</f>
+      </c>
+      <c r="M23" s="1">
+        <f>C23 / I23 * 100</f>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="1">
+        <f>C24 - F24</f>
+      </c>
+      <c r="K24" s="1">
+        <f>C24 - I24</f>
+      </c>
+      <c r="L24" s="1">
+        <f>C24 / F24 * 100</f>
+      </c>
+      <c r="M24" s="1">
+        <f>C24 / I24 * 100</f>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="1">
+        <f>C25 - F25</f>
+      </c>
+      <c r="K25" s="1">
+        <f>C25 - I25</f>
+      </c>
+      <c r="L25" s="1">
+        <f>C25 / F25 * 100</f>
+      </c>
+      <c r="M25" s="1">
+        <f>C25 / I25 * 100</f>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="1">
+        <f>C26 - F26</f>
+      </c>
+      <c r="K26" s="1">
+        <f>C26 - I26</f>
+      </c>
+      <c r="L26" s="1">
+        <f>C26 / F26 * 100</f>
+      </c>
+      <c r="M26" s="1">
+        <f>C26 / I26 * 100</f>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="1">
+        <f>C27 - F27</f>
+      </c>
+      <c r="K27" s="1">
+        <f>C27 - I27</f>
+      </c>
+      <c r="L27" s="1">
+        <f>C27 / F27 * 100</f>
+      </c>
+      <c r="M27" s="1">
+        <f>C27 / I27 * 100</f>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="1">
+        <f>C28 - F28</f>
+      </c>
+      <c r="K28" s="1">
+        <f>C28 - I28</f>
+      </c>
+      <c r="L28" s="1">
+        <f>C28 / F28 * 100</f>
+      </c>
+      <c r="M28" s="1">
+        <f>C28 / I28 * 100</f>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="1">
+        <f>C29 - F29</f>
+      </c>
+      <c r="K29" s="1">
+        <f>C29 - I29</f>
+      </c>
+      <c r="L29" s="1">
+        <f>C29 / F29 * 100</f>
+      </c>
+      <c r="M29" s="1">
+        <f>C29 / I29 * 100</f>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="1">
+        <f>C30 - F30</f>
+      </c>
+      <c r="K30" s="1">
+        <f>C30 - I30</f>
+      </c>
+      <c r="L30" s="1">
+        <f>C30 / F30 * 100</f>
+      </c>
+      <c r="M30" s="1">
+        <f>C30 / I30 * 100</f>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="1">
+        <f>C31 - F31</f>
+      </c>
+      <c r="K31" s="1">
+        <f>C31 - I31</f>
+      </c>
+      <c r="L31" s="1">
+        <f>C31 / F31 * 100</f>
+      </c>
+      <c r="M31" s="1">
+        <f>C31 / I31 * 100</f>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="1">
+        <f>C32 - F32</f>
+      </c>
+      <c r="K32" s="1">
+        <f>C32 - I32</f>
+      </c>
+      <c r="L32" s="1">
+        <f>C32 / F32 * 100</f>
+      </c>
+      <c r="M32" s="1">
+        <f>C32 / I32 * 100</f>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="1">
+        <f>C33 - F33</f>
+      </c>
+      <c r="K33" s="1">
+        <f>C33 - I33</f>
+      </c>
+      <c r="L33" s="1">
+        <f>C33 / F33 * 100</f>
+      </c>
+      <c r="M33" s="1">
+        <f>C33 / I33 * 100</f>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J34" s="1">
+        <f>C34 - F34</f>
+      </c>
+      <c r="K34" s="1">
+        <f>C34 - I34</f>
+      </c>
+      <c r="L34" s="1">
+        <f>C34 / F34 * 100</f>
+      </c>
+      <c r="M34" s="1">
+        <f>C34 / I34 * 100</f>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" s="1">
+        <f>C35 - F35</f>
+      </c>
+      <c r="K35" s="1">
+        <f>C35 - I35</f>
+      </c>
+      <c r="L35" s="1">
+        <f>C35 / F35 * 100</f>
+      </c>
+      <c r="M35" s="1">
+        <f>C35 / I35 * 100</f>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="1">
+        <f>C36 - F36</f>
+      </c>
+      <c r="K36" s="1">
+        <f>C36 - I36</f>
+      </c>
+      <c r="L36" s="1">
+        <f>C36 / F36 * 100</f>
+      </c>
+      <c r="M36" s="1">
+        <f>C36 / I36 * 100</f>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="1">
+        <f>C37 - F37</f>
+      </c>
+      <c r="K37" s="1">
+        <f>C37 - I37</f>
+      </c>
+      <c r="L37" s="1">
+        <f>C37 / F37 * 100</f>
+      </c>
+      <c r="M37" s="1">
+        <f>C37 / I37 * 100</f>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="1">
+        <f>C38 - F38</f>
+      </c>
+      <c r="K38" s="1">
+        <f>C38 - I38</f>
+      </c>
+      <c r="L38" s="1">
+        <f>C38 / F38 * 100</f>
+      </c>
+      <c r="M38" s="1">
+        <f>C38 / I38 * 100</f>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39" s="1">
+        <f>C39 - F39</f>
+      </c>
+      <c r="K39" s="1">
+        <f>C39 - I39</f>
+      </c>
+      <c r="L39" s="1">
+        <f>C39 / F39 * 100</f>
+      </c>
+      <c r="M39" s="1">
+        <f>C39 / I39 * 100</f>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J40" s="1">
+        <f>C40 - F40</f>
+      </c>
+      <c r="K40" s="1">
+        <f>C40 - I40</f>
+      </c>
+      <c r="L40" s="1">
+        <f>C40 / F40 * 100</f>
+      </c>
+      <c r="M40" s="1">
+        <f>C40 / I40 * 100</f>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J41" s="1">
+        <f>C41 - F41</f>
+      </c>
+      <c r="K41" s="1">
+        <f>C41 - I41</f>
+      </c>
+      <c r="L41" s="1">
+        <f>C41 / F41 * 100</f>
+      </c>
+      <c r="M41" s="1">
+        <f>C41 / I41 * 100</f>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="1">
+        <f>C42 - F42</f>
+      </c>
+      <c r="K42" s="1">
+        <f>C42 - I42</f>
+      </c>
+      <c r="L42" s="1">
+        <f>C42 / F42 * 100</f>
+      </c>
+      <c r="M42" s="1">
+        <f>C42 / I42 * 100</f>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J43" s="1">
+        <f>C43 - F43</f>
+      </c>
+      <c r="K43" s="1">
+        <f>C43 - I43</f>
+      </c>
+      <c r="L43" s="1">
+        <f>C43 / F43 * 100</f>
+      </c>
+      <c r="M43" s="1">
+        <f>C43 / I43 * 100</f>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44" s="1">
+        <f>C44 - F44</f>
+      </c>
+      <c r="K44" s="1">
+        <f>C44 - I44</f>
+      </c>
+      <c r="L44" s="1">
+        <f>C44 / F44 * 100</f>
+      </c>
+      <c r="M44" s="1">
+        <f>C44 / I44 * 100</f>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J45" s="1">
+        <f>C45 - F45</f>
+      </c>
+      <c r="K45" s="1">
+        <f>C45 - I45</f>
+      </c>
+      <c r="L45" s="1">
+        <f>C45 / F45 * 100</f>
+      </c>
+      <c r="M45" s="1">
+        <f>C45 / I45 * 100</f>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J46" s="1">
+        <f>C46 - F46</f>
+      </c>
+      <c r="K46" s="1">
+        <f>C46 - I46</f>
+      </c>
+      <c r="L46" s="1">
+        <f>C46 / F46 * 100</f>
+      </c>
+      <c r="M46" s="1">
+        <f>C46 / I46 * 100</f>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47" s="1">
+        <f>C47 - F47</f>
+      </c>
+      <c r="K47" s="1">
+        <f>C47 - I47</f>
+      </c>
+      <c r="L47" s="1">
+        <f>C47 / F47 * 100</f>
+      </c>
+      <c r="M47" s="1">
+        <f>C47 / I47 * 100</f>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" s="1">
+        <f>C48 - F48</f>
+      </c>
+      <c r="K48" s="1">
+        <f>C48 - I48</f>
+      </c>
+      <c r="L48" s="1">
+        <f>C48 / F48 * 100</f>
+      </c>
+      <c r="M48" s="1">
+        <f>C48 / I48 * 100</f>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" s="1">
+        <f>C49 - F49</f>
+      </c>
+      <c r="K49" s="1">
+        <f>C49 - I49</f>
+      </c>
+      <c r="L49" s="1">
+        <f>C49 / F49 * 100</f>
+      </c>
+      <c r="M49" s="1">
+        <f>C49 / I49 * 100</f>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="1">
+        <f>C50 - F50</f>
+      </c>
+      <c r="K50" s="1">
+        <f>C50 - I50</f>
+      </c>
+      <c r="L50" s="1">
+        <f>C50 / F50 * 100</f>
+      </c>
+      <c r="M50" s="1">
+        <f>C50 / I50 * 100</f>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J51" s="1">
+        <f>C51 - F51</f>
+      </c>
+      <c r="K51" s="1">
+        <f>C51 - I51</f>
+      </c>
+      <c r="L51" s="1">
+        <f>C51 / F51 * 100</f>
+      </c>
+      <c r="M51" s="1">
+        <f>C51 / I51 * 100</f>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J52" s="1">
+        <f>C52 - F52</f>
+      </c>
+      <c r="K52" s="1">
+        <f>C52 - I52</f>
+      </c>
+      <c r="L52" s="1">
+        <f>C52 / F52 * 100</f>
+      </c>
+      <c r="M52" s="1">
+        <f>C52 / I52 * 100</f>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53" s="1">
+        <f>C53 - F53</f>
+      </c>
+      <c r="K53" s="1">
+        <f>C53 - I53</f>
+      </c>
+      <c r="L53" s="1">
+        <f>C53 / F53 * 100</f>
+      </c>
+      <c r="M53" s="1">
+        <f>C53 / I53 * 100</f>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J54" s="1">
+        <f>C54 - F54</f>
+      </c>
+      <c r="K54" s="1">
+        <f>C54 - I54</f>
+      </c>
+      <c r="L54" s="1">
+        <f>C54 / F54 * 100</f>
+      </c>
+      <c r="M54" s="1">
+        <f>C54 / I54 * 100</f>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J55" s="1">
+        <f>C55 - F55</f>
+      </c>
+      <c r="K55" s="1">
+        <f>C55 - I55</f>
+      </c>
+      <c r="L55" s="1">
+        <f>C55 / F55 * 100</f>
+      </c>
+      <c r="M55" s="1">
+        <f>C55 / I55 * 100</f>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" s="1">
+        <f>C56 - F56</f>
+      </c>
+      <c r="K56" s="1">
+        <f>C56 - I56</f>
+      </c>
+      <c r="L56" s="1">
+        <f>C56 / F56 * 100</f>
+      </c>
+      <c r="M56" s="1">
+        <f>C56 / I56 * 100</f>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J57" s="1">
+        <f>C57 - F57</f>
+      </c>
+      <c r="K57" s="1">
+        <f>C57 - I57</f>
+      </c>
+      <c r="L57" s="1">
+        <f>C57 / F57 * 100</f>
+      </c>
+      <c r="M57" s="1">
+        <f>C57 / I57 * 100</f>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J58" s="1">
+        <f>C58 - F58</f>
+      </c>
+      <c r="K58" s="1">
+        <f>C58 - I58</f>
+      </c>
+      <c r="L58" s="1">
+        <f>C58 / F58 * 100</f>
+      </c>
+      <c r="M58" s="1">
+        <f>C58 / I58 * 100</f>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J59" s="1">
+        <f>C59 - F59</f>
+      </c>
+      <c r="K59" s="1">
+        <f>C59 - I59</f>
+      </c>
+      <c r="L59" s="1">
+        <f>C59 / F59 * 100</f>
+      </c>
+      <c r="M59" s="1">
+        <f>C59 / I59 * 100</f>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="1">
+        <f>C60 - F60</f>
+      </c>
+      <c r="K60" s="1">
+        <f>C60 - I60</f>
+      </c>
+      <c r="L60" s="1">
+        <f>C60 / F60 * 100</f>
+      </c>
+      <c r="M60" s="1">
+        <f>C60 / I60 * 100</f>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61" s="1">
+        <f>C61 - F61</f>
+      </c>
+      <c r="K61" s="1">
+        <f>C61 - I61</f>
+      </c>
+      <c r="L61" s="1">
+        <f>C61 / F61 * 100</f>
+      </c>
+      <c r="M61" s="1">
+        <f>C61 / I61 * 100</f>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J62" s="1">
+        <f>C62 - F62</f>
+      </c>
+      <c r="K62" s="1">
+        <f>C62 - I62</f>
+      </c>
+      <c r="L62" s="1">
+        <f>C62 / F62 * 100</f>
+      </c>
+      <c r="M62" s="1">
+        <f>C62 / I62 * 100</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -6,13 +6,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet 1" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -230,7 +229,7 @@
   </si>
   <si>
     <t>ענבים אדומים 'טלי'
-(מארז כ- 1.6 ק"ג)</t>
+(מארז כ- 1.2 ק"ג)</t>
   </si>
   <si>
     <t>ענבים ירוקים</t>
@@ -246,7 +245,7 @@
   </si>
   <si>
     <t>ענבים ירוקים 'טלי- אוטום קריספ'
-(מארז כ - 1.5 ק"ג)
+(מארז כ - 1.2 ק"ג)
 </t>
   </si>
   <si>
@@ -257,7 +256,7 @@
   </si>
   <si>
     <t>ענבים שחורים 'סייבל- טלי'
-(מארז כ- 1.3 ק"ג)</t>
+(מארז כ- 1.5 ק"ג)</t>
   </si>
   <si>
     <t>35.90</t>
@@ -509,9 +508,6 @@
     </r>
   </si>
   <si>
-    <t>ברוקולי</t>
-  </si>
-  <si>
     <t>ג'ינג'ר</t>
   </si>
   <si>
@@ -522,9 +518,6 @@
       <rPr/>
       <t xml:space="preserve">יחידה</t>
     </r>
-  </si>
-  <si>
-    <t>חסה סלנובה מסולסלת (באן) - מארז צמד</t>
   </si>
   <si>
     <t>כוסברה</t>
@@ -656,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -2052,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="J34" s="1">
         <f>C34 - F34</f>
@@ -2093,7 +2086,7 @@
         <v>17</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="J35" s="1">
         <f>C35 - F35</f>
@@ -2257,7 +2250,7 @@
         <v>17</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="J39" s="1">
         <f>C39 - F39</f>
@@ -2608,25 +2601,25 @@
         <v>133</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J48" s="1">
         <f>C48 - F48</f>
@@ -2649,16 +2642,16 @@
         <v>133</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>43</v>
@@ -2684,31 +2677,31 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="J50" s="1">
         <f>C50 - F50</f>
@@ -2725,31 +2718,31 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="J51" s="1">
         <f>C51 - F51</f>
@@ -2772,7 +2765,7 @@
         <v>133</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>149</v>
@@ -2781,7 +2774,7 @@
         <v>98</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>43</v>
@@ -2807,31 +2800,31 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J53" s="1">
         <f>C53 - F53</f>
@@ -2848,31 +2841,31 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="J54" s="1">
         <f>C54 - F54</f>
@@ -2889,31 +2882,31 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="J55" s="1">
         <f>C55 - F55</f>
@@ -2930,31 +2923,31 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="J56" s="1">
         <f>C56 - F56</f>
@@ -2971,31 +2964,31 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="J57" s="1">
         <f>C57 - F57</f>
@@ -3012,31 +3005,31 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="H58" s="1" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J58" s="1">
         <f>C58 - F58</f>
@@ -3053,7 +3046,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>133</v>
@@ -3062,13 +3055,13 @@
         <v>46</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>159</v>
@@ -3077,7 +3070,7 @@
         <v>24</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="J59" s="1">
         <f>C59 - F59</f>
@@ -3112,13 +3105,13 @@
         <v>43</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J60" s="1">
         <f>C60 - F60</f>
@@ -3135,31 +3128,31 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="J61" s="1">
         <f>C61 - F61</f>
@@ -3172,2613 +3165,6 @@
       </c>
       <c r="M61" s="1">
         <f>C61 / I61 * 100</f>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J62" s="1">
-        <f>C62 - F62</f>
-      </c>
-      <c r="K62" s="1">
-        <f>C62 - I62</f>
-      </c>
-      <c r="L62" s="1">
-        <f>C62 / F62 * 100</f>
-      </c>
-      <c r="M62" s="1">
-        <f>C62 / I62 * 100</f>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
-  <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1">
-        <f>C2 - F2</f>
-      </c>
-      <c r="K2" s="1">
-        <f>C2 - I2</f>
-      </c>
-      <c r="L2" s="1">
-        <f>C2 / F2 * 100</f>
-      </c>
-      <c r="M2" s="1">
-        <f>C2 / I2 * 100</f>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1">
-        <f>C3 - F3</f>
-      </c>
-      <c r="K3" s="1">
-        <f>C3 - I3</f>
-      </c>
-      <c r="L3" s="1">
-        <f>C3 / F3 * 100</f>
-      </c>
-      <c r="M3" s="1">
-        <f>C3 / I3 * 100</f>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1">
-        <f>C4 - F4</f>
-      </c>
-      <c r="K4" s="1">
-        <f>C4 - I4</f>
-      </c>
-      <c r="L4" s="1">
-        <f>C4 / F4 * 100</f>
-      </c>
-      <c r="M4" s="1">
-        <f>C4 / I4 * 100</f>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1">
-        <f>C5 - F5</f>
-      </c>
-      <c r="K5" s="1">
-        <f>C5 - I5</f>
-      </c>
-      <c r="L5" s="1">
-        <f>C5 / F5 * 100</f>
-      </c>
-      <c r="M5" s="1">
-        <f>C5 / I5 * 100</f>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="1">
-        <f>C6 - F6</f>
-      </c>
-      <c r="K6" s="1">
-        <f>C6 - I6</f>
-      </c>
-      <c r="L6" s="1">
-        <f>C6 / F6 * 100</f>
-      </c>
-      <c r="M6" s="1">
-        <f>C6 / I6 * 100</f>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="1">
-        <f>C7 - F7</f>
-      </c>
-      <c r="K7" s="1">
-        <f>C7 - I7</f>
-      </c>
-      <c r="L7" s="1">
-        <f>C7 / F7 * 100</f>
-      </c>
-      <c r="M7" s="1">
-        <f>C7 / I7 * 100</f>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="1">
-        <f>C8 - F8</f>
-      </c>
-      <c r="K8" s="1">
-        <f>C8 - I8</f>
-      </c>
-      <c r="L8" s="1">
-        <f>C8 / F8 * 100</f>
-      </c>
-      <c r="M8" s="1">
-        <f>C8 / I8 * 100</f>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="1">
-        <f>C9 - F9</f>
-      </c>
-      <c r="K9" s="1">
-        <f>C9 - I9</f>
-      </c>
-      <c r="L9" s="1">
-        <f>C9 / F9 * 100</f>
-      </c>
-      <c r="M9" s="1">
-        <f>C9 / I9 * 100</f>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="1">
-        <f>C10 - F10</f>
-      </c>
-      <c r="K10" s="1">
-        <f>C10 - I10</f>
-      </c>
-      <c r="L10" s="1">
-        <f>C10 / F10 * 100</f>
-      </c>
-      <c r="M10" s="1">
-        <f>C10 / I10 * 100</f>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="1">
-        <f>C11 - F11</f>
-      </c>
-      <c r="K11" s="1">
-        <f>C11 - I11</f>
-      </c>
-      <c r="L11" s="1">
-        <f>C11 / F11 * 100</f>
-      </c>
-      <c r="M11" s="1">
-        <f>C11 / I11 * 100</f>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="1">
-        <f>C12 - F12</f>
-      </c>
-      <c r="K12" s="1">
-        <f>C12 - I12</f>
-      </c>
-      <c r="L12" s="1">
-        <f>C12 / F12 * 100</f>
-      </c>
-      <c r="M12" s="1">
-        <f>C12 / I12 * 100</f>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="1">
-        <f>C13 - F13</f>
-      </c>
-      <c r="K13" s="1">
-        <f>C13 - I13</f>
-      </c>
-      <c r="L13" s="1">
-        <f>C13 / F13 * 100</f>
-      </c>
-      <c r="M13" s="1">
-        <f>C13 / I13 * 100</f>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="1">
-        <f>C14 - F14</f>
-      </c>
-      <c r="K14" s="1">
-        <f>C14 - I14</f>
-      </c>
-      <c r="L14" s="1">
-        <f>C14 / F14 * 100</f>
-      </c>
-      <c r="M14" s="1">
-        <f>C14 / I14 * 100</f>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="1">
-        <f>C15 - F15</f>
-      </c>
-      <c r="K15" s="1">
-        <f>C15 - I15</f>
-      </c>
-      <c r="L15" s="1">
-        <f>C15 / F15 * 100</f>
-      </c>
-      <c r="M15" s="1">
-        <f>C15 / I15 * 100</f>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="1">
-        <f>C16 - F16</f>
-      </c>
-      <c r="K16" s="1">
-        <f>C16 - I16</f>
-      </c>
-      <c r="L16" s="1">
-        <f>C16 / F16 * 100</f>
-      </c>
-      <c r="M16" s="1">
-        <f>C16 / I16 * 100</f>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="1">
-        <f>C17 - F17</f>
-      </c>
-      <c r="K17" s="1">
-        <f>C17 - I17</f>
-      </c>
-      <c r="L17" s="1">
-        <f>C17 / F17 * 100</f>
-      </c>
-      <c r="M17" s="1">
-        <f>C17 / I17 * 100</f>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="1">
-        <f>C18 - F18</f>
-      </c>
-      <c r="K18" s="1">
-        <f>C18 - I18</f>
-      </c>
-      <c r="L18" s="1">
-        <f>C18 / F18 * 100</f>
-      </c>
-      <c r="M18" s="1">
-        <f>C18 / I18 * 100</f>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="1">
-        <f>C19 - F19</f>
-      </c>
-      <c r="K19" s="1">
-        <f>C19 - I19</f>
-      </c>
-      <c r="L19" s="1">
-        <f>C19 / F19 * 100</f>
-      </c>
-      <c r="M19" s="1">
-        <f>C19 / I19 * 100</f>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="1">
-        <f>C20 - F20</f>
-      </c>
-      <c r="K20" s="1">
-        <f>C20 - I20</f>
-      </c>
-      <c r="L20" s="1">
-        <f>C20 / F20 * 100</f>
-      </c>
-      <c r="M20" s="1">
-        <f>C20 / I20 * 100</f>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="1">
-        <f>C21 - F21</f>
-      </c>
-      <c r="K21" s="1">
-        <f>C21 - I21</f>
-      </c>
-      <c r="L21" s="1">
-        <f>C21 / F21 * 100</f>
-      </c>
-      <c r="M21" s="1">
-        <f>C21 / I21 * 100</f>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="1">
-        <f>C22 - F22</f>
-      </c>
-      <c r="K22" s="1">
-        <f>C22 - I22</f>
-      </c>
-      <c r="L22" s="1">
-        <f>C22 / F22 * 100</f>
-      </c>
-      <c r="M22" s="1">
-        <f>C22 / I22 * 100</f>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="1">
-        <f>C23 - F23</f>
-      </c>
-      <c r="K23" s="1">
-        <f>C23 - I23</f>
-      </c>
-      <c r="L23" s="1">
-        <f>C23 / F23 * 100</f>
-      </c>
-      <c r="M23" s="1">
-        <f>C23 / I23 * 100</f>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="1">
-        <f>C24 - F24</f>
-      </c>
-      <c r="K24" s="1">
-        <f>C24 - I24</f>
-      </c>
-      <c r="L24" s="1">
-        <f>C24 / F24 * 100</f>
-      </c>
-      <c r="M24" s="1">
-        <f>C24 / I24 * 100</f>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="1">
-        <f>C25 - F25</f>
-      </c>
-      <c r="K25" s="1">
-        <f>C25 - I25</f>
-      </c>
-      <c r="L25" s="1">
-        <f>C25 / F25 * 100</f>
-      </c>
-      <c r="M25" s="1">
-        <f>C25 / I25 * 100</f>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="1">
-        <f>C26 - F26</f>
-      </c>
-      <c r="K26" s="1">
-        <f>C26 - I26</f>
-      </c>
-      <c r="L26" s="1">
-        <f>C26 / F26 * 100</f>
-      </c>
-      <c r="M26" s="1">
-        <f>C26 / I26 * 100</f>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J27" s="1">
-        <f>C27 - F27</f>
-      </c>
-      <c r="K27" s="1">
-        <f>C27 - I27</f>
-      </c>
-      <c r="L27" s="1">
-        <f>C27 / F27 * 100</f>
-      </c>
-      <c r="M27" s="1">
-        <f>C27 / I27 * 100</f>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="1">
-        <f>C28 - F28</f>
-      </c>
-      <c r="K28" s="1">
-        <f>C28 - I28</f>
-      </c>
-      <c r="L28" s="1">
-        <f>C28 / F28 * 100</f>
-      </c>
-      <c r="M28" s="1">
-        <f>C28 / I28 * 100</f>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="1">
-        <f>C29 - F29</f>
-      </c>
-      <c r="K29" s="1">
-        <f>C29 - I29</f>
-      </c>
-      <c r="L29" s="1">
-        <f>C29 / F29 * 100</f>
-      </c>
-      <c r="M29" s="1">
-        <f>C29 / I29 * 100</f>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" s="1">
-        <f>C30 - F30</f>
-      </c>
-      <c r="K30" s="1">
-        <f>C30 - I30</f>
-      </c>
-      <c r="L30" s="1">
-        <f>C30 / F30 * 100</f>
-      </c>
-      <c r="M30" s="1">
-        <f>C30 / I30 * 100</f>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="1">
-        <f>C31 - F31</f>
-      </c>
-      <c r="K31" s="1">
-        <f>C31 - I31</f>
-      </c>
-      <c r="L31" s="1">
-        <f>C31 / F31 * 100</f>
-      </c>
-      <c r="M31" s="1">
-        <f>C31 / I31 * 100</f>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="1">
-        <f>C32 - F32</f>
-      </c>
-      <c r="K32" s="1">
-        <f>C32 - I32</f>
-      </c>
-      <c r="L32" s="1">
-        <f>C32 / F32 * 100</f>
-      </c>
-      <c r="M32" s="1">
-        <f>C32 / I32 * 100</f>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J33" s="1">
-        <f>C33 - F33</f>
-      </c>
-      <c r="K33" s="1">
-        <f>C33 - I33</f>
-      </c>
-      <c r="L33" s="1">
-        <f>C33 / F33 * 100</f>
-      </c>
-      <c r="M33" s="1">
-        <f>C33 / I33 * 100</f>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J34" s="1">
-        <f>C34 - F34</f>
-      </c>
-      <c r="K34" s="1">
-        <f>C34 - I34</f>
-      </c>
-      <c r="L34" s="1">
-        <f>C34 / F34 * 100</f>
-      </c>
-      <c r="M34" s="1">
-        <f>C34 / I34 * 100</f>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J35" s="1">
-        <f>C35 - F35</f>
-      </c>
-      <c r="K35" s="1">
-        <f>C35 - I35</f>
-      </c>
-      <c r="L35" s="1">
-        <f>C35 / F35 * 100</f>
-      </c>
-      <c r="M35" s="1">
-        <f>C35 / I35 * 100</f>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J36" s="1">
-        <f>C36 - F36</f>
-      </c>
-      <c r="K36" s="1">
-        <f>C36 - I36</f>
-      </c>
-      <c r="L36" s="1">
-        <f>C36 / F36 * 100</f>
-      </c>
-      <c r="M36" s="1">
-        <f>C36 / I36 * 100</f>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J37" s="1">
-        <f>C37 - F37</f>
-      </c>
-      <c r="K37" s="1">
-        <f>C37 - I37</f>
-      </c>
-      <c r="L37" s="1">
-        <f>C37 / F37 * 100</f>
-      </c>
-      <c r="M37" s="1">
-        <f>C37 / I37 * 100</f>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J38" s="1">
-        <f>C38 - F38</f>
-      </c>
-      <c r="K38" s="1">
-        <f>C38 - I38</f>
-      </c>
-      <c r="L38" s="1">
-        <f>C38 / F38 * 100</f>
-      </c>
-      <c r="M38" s="1">
-        <f>C38 / I38 * 100</f>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J39" s="1">
-        <f>C39 - F39</f>
-      </c>
-      <c r="K39" s="1">
-        <f>C39 - I39</f>
-      </c>
-      <c r="L39" s="1">
-        <f>C39 / F39 * 100</f>
-      </c>
-      <c r="M39" s="1">
-        <f>C39 / I39 * 100</f>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J40" s="1">
-        <f>C40 - F40</f>
-      </c>
-      <c r="K40" s="1">
-        <f>C40 - I40</f>
-      </c>
-      <c r="L40" s="1">
-        <f>C40 / F40 * 100</f>
-      </c>
-      <c r="M40" s="1">
-        <f>C40 / I40 * 100</f>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J41" s="1">
-        <f>C41 - F41</f>
-      </c>
-      <c r="K41" s="1">
-        <f>C41 - I41</f>
-      </c>
-      <c r="L41" s="1">
-        <f>C41 / F41 * 100</f>
-      </c>
-      <c r="M41" s="1">
-        <f>C41 / I41 * 100</f>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J42" s="1">
-        <f>C42 - F42</f>
-      </c>
-      <c r="K42" s="1">
-        <f>C42 - I42</f>
-      </c>
-      <c r="L42" s="1">
-        <f>C42 / F42 * 100</f>
-      </c>
-      <c r="M42" s="1">
-        <f>C42 / I42 * 100</f>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J43" s="1">
-        <f>C43 - F43</f>
-      </c>
-      <c r="K43" s="1">
-        <f>C43 - I43</f>
-      </c>
-      <c r="L43" s="1">
-        <f>C43 / F43 * 100</f>
-      </c>
-      <c r="M43" s="1">
-        <f>C43 / I43 * 100</f>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J44" s="1">
-        <f>C44 - F44</f>
-      </c>
-      <c r="K44" s="1">
-        <f>C44 - I44</f>
-      </c>
-      <c r="L44" s="1">
-        <f>C44 / F44 * 100</f>
-      </c>
-      <c r="M44" s="1">
-        <f>C44 / I44 * 100</f>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J45" s="1">
-        <f>C45 - F45</f>
-      </c>
-      <c r="K45" s="1">
-        <f>C45 - I45</f>
-      </c>
-      <c r="L45" s="1">
-        <f>C45 / F45 * 100</f>
-      </c>
-      <c r="M45" s="1">
-        <f>C45 / I45 * 100</f>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J46" s="1">
-        <f>C46 - F46</f>
-      </c>
-      <c r="K46" s="1">
-        <f>C46 - I46</f>
-      </c>
-      <c r="L46" s="1">
-        <f>C46 / F46 * 100</f>
-      </c>
-      <c r="M46" s="1">
-        <f>C46 / I46 * 100</f>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J47" s="1">
-        <f>C47 - F47</f>
-      </c>
-      <c r="K47" s="1">
-        <f>C47 - I47</f>
-      </c>
-      <c r="L47" s="1">
-        <f>C47 / F47 * 100</f>
-      </c>
-      <c r="M47" s="1">
-        <f>C47 / I47 * 100</f>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J48" s="1">
-        <f>C48 - F48</f>
-      </c>
-      <c r="K48" s="1">
-        <f>C48 - I48</f>
-      </c>
-      <c r="L48" s="1">
-        <f>C48 / F48 * 100</f>
-      </c>
-      <c r="M48" s="1">
-        <f>C48 / I48 * 100</f>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J49" s="1">
-        <f>C49 - F49</f>
-      </c>
-      <c r="K49" s="1">
-        <f>C49 - I49</f>
-      </c>
-      <c r="L49" s="1">
-        <f>C49 / F49 * 100</f>
-      </c>
-      <c r="M49" s="1">
-        <f>C49 / I49 * 100</f>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J50" s="1">
-        <f>C50 - F50</f>
-      </c>
-      <c r="K50" s="1">
-        <f>C50 - I50</f>
-      </c>
-      <c r="L50" s="1">
-        <f>C50 / F50 * 100</f>
-      </c>
-      <c r="M50" s="1">
-        <f>C50 / I50 * 100</f>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J51" s="1">
-        <f>C51 - F51</f>
-      </c>
-      <c r="K51" s="1">
-        <f>C51 - I51</f>
-      </c>
-      <c r="L51" s="1">
-        <f>C51 / F51 * 100</f>
-      </c>
-      <c r="M51" s="1">
-        <f>C51 / I51 * 100</f>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J52" s="1">
-        <f>C52 - F52</f>
-      </c>
-      <c r="K52" s="1">
-        <f>C52 - I52</f>
-      </c>
-      <c r="L52" s="1">
-        <f>C52 / F52 * 100</f>
-      </c>
-      <c r="M52" s="1">
-        <f>C52 / I52 * 100</f>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J53" s="1">
-        <f>C53 - F53</f>
-      </c>
-      <c r="K53" s="1">
-        <f>C53 - I53</f>
-      </c>
-      <c r="L53" s="1">
-        <f>C53 / F53 * 100</f>
-      </c>
-      <c r="M53" s="1">
-        <f>C53 / I53 * 100</f>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J54" s="1">
-        <f>C54 - F54</f>
-      </c>
-      <c r="K54" s="1">
-        <f>C54 - I54</f>
-      </c>
-      <c r="L54" s="1">
-        <f>C54 / F54 * 100</f>
-      </c>
-      <c r="M54" s="1">
-        <f>C54 / I54 * 100</f>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J55" s="1">
-        <f>C55 - F55</f>
-      </c>
-      <c r="K55" s="1">
-        <f>C55 - I55</f>
-      </c>
-      <c r="L55" s="1">
-        <f>C55 / F55 * 100</f>
-      </c>
-      <c r="M55" s="1">
-        <f>C55 / I55 * 100</f>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J56" s="1">
-        <f>C56 - F56</f>
-      </c>
-      <c r="K56" s="1">
-        <f>C56 - I56</f>
-      </c>
-      <c r="L56" s="1">
-        <f>C56 / F56 * 100</f>
-      </c>
-      <c r="M56" s="1">
-        <f>C56 / I56 * 100</f>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J57" s="1">
-        <f>C57 - F57</f>
-      </c>
-      <c r="K57" s="1">
-        <f>C57 - I57</f>
-      </c>
-      <c r="L57" s="1">
-        <f>C57 / F57 * 100</f>
-      </c>
-      <c r="M57" s="1">
-        <f>C57 / I57 * 100</f>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J58" s="1">
-        <f>C58 - F58</f>
-      </c>
-      <c r="K58" s="1">
-        <f>C58 - I58</f>
-      </c>
-      <c r="L58" s="1">
-        <f>C58 / F58 * 100</f>
-      </c>
-      <c r="M58" s="1">
-        <f>C58 / I58 * 100</f>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J59" s="1">
-        <f>C59 - F59</f>
-      </c>
-      <c r="K59" s="1">
-        <f>C59 - I59</f>
-      </c>
-      <c r="L59" s="1">
-        <f>C59 / F59 * 100</f>
-      </c>
-      <c r="M59" s="1">
-        <f>C59 / I59 * 100</f>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J60" s="1">
-        <f>C60 - F60</f>
-      </c>
-      <c r="K60" s="1">
-        <f>C60 - I60</f>
-      </c>
-      <c r="L60" s="1">
-        <f>C60 / F60 * 100</f>
-      </c>
-      <c r="M60" s="1">
-        <f>C60 / I60 * 100</f>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J61" s="1">
-        <f>C61 - F61</f>
-      </c>
-      <c r="K61" s="1">
-        <f>C61 - I61</f>
-      </c>
-      <c r="L61" s="1">
-        <f>C61 / F61 * 100</f>
-      </c>
-      <c r="M61" s="1">
-        <f>C61 / I61 * 100</f>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J62" s="1">
-        <f>C62 - F62</f>
-      </c>
-      <c r="K62" s="1">
-        <f>C62 - I62</f>
-      </c>
-      <c r="L62" s="1">
-        <f>C62 / F62 * 100</f>
-      </c>
-      <c r="M62" s="1">
-        <f>C62 / I62 * 100</f>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -518,6 +518,9 @@
       <rPr/>
       <t xml:space="preserve">יחידה</t>
     </r>
+  </si>
+  <si>
+    <t>חסה סלנובה מסולסלת (באן) - מארז צמד</t>
   </si>
   <si>
     <t>כוסברה</t>
@@ -2654,13 +2657,13 @@
         <v>83</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J49" s="1">
         <f>C49 - F49</f>
@@ -2677,31 +2680,31 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J50" s="1">
         <f>C50 - F50</f>
@@ -2718,7 +2721,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>133</v>
@@ -2727,13 +2730,13 @@
         <v>37</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>43</v>
@@ -2759,7 +2762,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>133</v>
@@ -2768,7 +2771,7 @@
         <v>102</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>98</v>
@@ -2800,7 +2803,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>133</v>
@@ -2809,7 +2812,7 @@
         <v>46</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>139</v>
@@ -2818,7 +2821,7 @@
         <v>95</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>24</v>
@@ -2841,31 +2844,31 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J54" s="1">
         <f>C54 - F54</f>
@@ -2882,7 +2885,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>133</v>
@@ -2891,7 +2894,7 @@
         <v>46</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>139</v>
@@ -2900,7 +2903,7 @@
         <v>34</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>24</v>
@@ -2923,31 +2926,31 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J56" s="1">
         <f>C56 - F56</f>
@@ -2964,7 +2967,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>133</v>
@@ -2973,16 +2976,16 @@
         <v>77</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>98</v>
@@ -3005,7 +3008,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>133</v>
@@ -3014,7 +3017,7 @@
         <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>139</v>
@@ -3023,7 +3026,7 @@
         <v>34</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>24</v>
@@ -3046,7 +3049,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>133</v>
@@ -3064,7 +3067,7 @@
         <v>43</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>24</v>
@@ -3087,7 +3090,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>133</v>
@@ -3105,7 +3108,7 @@
         <v>43</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>24</v>
@@ -3128,31 +3131,31 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J61" s="1">
         <f>C61 - F61</f>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -518,9 +518,6 @@
       <rPr/>
       <t xml:space="preserve">יחידה</t>
     </r>
-  </si>
-  <si>
-    <t>חסה סלנובה מסולסלת (באן) - מארז צמד</t>
   </si>
   <si>
     <t>כוסברה</t>
@@ -2657,13 +2654,13 @@
         <v>83</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J49" s="1">
         <f>C49 - F49</f>
@@ -2680,31 +2677,31 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J50" s="1">
         <f>C50 - F50</f>
@@ -2721,7 +2718,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>133</v>
@@ -2730,13 +2727,13 @@
         <v>37</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>43</v>
@@ -2762,7 +2759,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>133</v>
@@ -2771,7 +2768,7 @@
         <v>102</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>98</v>
@@ -2803,7 +2800,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>133</v>
@@ -2812,7 +2809,7 @@
         <v>46</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>139</v>
@@ -2821,7 +2818,7 @@
         <v>95</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>24</v>
@@ -2844,31 +2841,31 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J54" s="1">
         <f>C54 - F54</f>
@@ -2885,7 +2882,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>133</v>
@@ -2894,7 +2891,7 @@
         <v>46</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>139</v>
@@ -2903,7 +2900,7 @@
         <v>34</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>24</v>
@@ -2926,31 +2923,31 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J56" s="1">
         <f>C56 - F56</f>
@@ -2967,7 +2964,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>133</v>
@@ -2976,16 +2973,16 @@
         <v>77</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>98</v>
@@ -3008,7 +3005,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>133</v>
@@ -3017,7 +3014,7 @@
         <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>139</v>
@@ -3026,7 +3023,7 @@
         <v>34</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>24</v>
@@ -3049,7 +3046,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>133</v>
@@ -3067,7 +3064,7 @@
         <v>43</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>24</v>
@@ -3090,7 +3087,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>133</v>
@@ -3108,7 +3105,7 @@
         <v>43</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>24</v>
@@ -3131,31 +3128,31 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J61" s="1">
         <f>C61 - F61</f>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -348,7 +348,7 @@
   <si>
     <r>
       <rPr/>
-      <t xml:space="preserve">7.9</t>
+      <t xml:space="preserve">8.9</t>
     </r>
   </si>
   <si>
@@ -395,6 +395,12 @@
     <t>כרוב סגול</t>
   </si>
   <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">7.9</t>
+    </r>
+  </si>
+  <si>
     <t>מלפפון מובחר</t>
   </si>
   <si>
@@ -408,6 +414,12 @@
   </si>
   <si>
     <t>פלפל אדום</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">15.9</t>
+    </r>
   </si>
   <si>
     <t>פלפל ירוק</t>
@@ -1872,7 +1884,7 @@
         <v>89</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>107</v>
@@ -1898,7 +1910,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
@@ -1907,16 +1919,16 @@
         <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>17</v>
@@ -1939,7 +1951,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
@@ -1948,16 +1960,16 @@
         <v>81</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>17</v>
@@ -1980,7 +1992,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
@@ -1989,16 +2001,16 @@
         <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>17</v>
@@ -2021,7 +2033,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
@@ -2030,16 +2042,16 @@
         <v>50</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>17</v>
@@ -2062,7 +2074,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>12</v>
@@ -2071,16 +2083,16 @@
         <v>81</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>17</v>
@@ -2103,7 +2115,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>12</v>
@@ -2112,16 +2124,16 @@
         <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>17</v>
@@ -2144,7 +2156,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
@@ -2153,16 +2165,16 @@
         <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>98</v>
@@ -2185,7 +2197,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>12</v>
@@ -2194,16 +2206,16 @@
         <v>29</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>17</v>
@@ -2226,25 +2238,25 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>17</v>
@@ -2267,7 +2279,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>12</v>
@@ -2276,7 +2288,7 @@
         <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>89</v>
@@ -2285,13 +2297,13 @@
         <v>90</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J40" s="1">
         <f>C40 - F40</f>
@@ -2308,7 +2320,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>12</v>
@@ -2317,22 +2329,22 @@
         <v>62</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J41" s="1">
         <f>C41 - F41</f>
@@ -2349,7 +2361,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>12</v>
@@ -2358,16 +2370,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>17</v>
@@ -2390,7 +2402,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
@@ -2408,13 +2420,13 @@
         <v>43</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J43" s="1">
         <f>C43 - F43</f>
@@ -2431,10 +2443,10 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>92</v>
@@ -2449,7 +2461,7 @@
         <v>43</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>24</v>
@@ -2472,10 +2484,10 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>18</v>
@@ -2490,7 +2502,7 @@
         <v>43</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>98</v>
@@ -2513,25 +2525,25 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>24</v>
@@ -2554,25 +2566,25 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>24</v>
@@ -2595,16 +2607,16 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>89</v>
@@ -2636,19 +2648,19 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>83</v>
@@ -2677,31 +2689,31 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J50" s="1">
         <f>C50 - F50</f>
@@ -2718,22 +2730,22 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>43</v>
@@ -2759,22 +2771,22 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>43</v>
@@ -2800,25 +2812,25 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>24</v>
@@ -2841,31 +2853,31 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J54" s="1">
         <f>C54 - F54</f>
@@ -2882,25 +2894,25 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>24</v>
@@ -2923,31 +2935,31 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J56" s="1">
         <f>C56 - F56</f>
@@ -2964,25 +2976,25 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>98</v>
@@ -3005,25 +3017,25 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>24</v>
@@ -3046,10 +3058,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>46</v>
@@ -3064,7 +3076,7 @@
         <v>43</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>24</v>
@@ -3087,10 +3099,10 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>46</v>
@@ -3105,7 +3117,7 @@
         <v>43</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>24</v>
@@ -3128,31 +3140,31 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J61" s="1">
         <f>C61 - F61</f>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -313,6 +313,12 @@
     <t>תפוח פינק</t>
   </si>
   <si>
+    <t>אבוקדו בשל (מארז 3 יחידות)</t>
+  </si>
+  <si>
+    <t>אבוקדו בשל</t>
+  </si>
+  <si>
     <t>בטטה</t>
   </si>
   <si>
@@ -376,6 +382,12 @@
     <t>9.90</t>
   </si>
   <si>
+    <t>דואט פטריות (מארז)</t>
+  </si>
+  <si>
+    <t>16.90</t>
+  </si>
+  <si>
     <t>חציל</t>
   </si>
   <si>
@@ -401,6 +413,12 @@
     </r>
   </si>
   <si>
+    <t>מיקס פטריות (מארז)</t>
+  </si>
+  <si>
+    <t>19.95</t>
+  </si>
+  <si>
     <t>מלפפון מובחר</t>
   </si>
   <si>
@@ -459,7 +477,7 @@
     <t>שומר (נקבה)</t>
   </si>
   <si>
-    <t>16.90</t>
+    <t>שמפניון (מארז)</t>
   </si>
   <si>
     <t>שעועית ירוקה</t>
@@ -474,6 +492,9 @@
     <t>25.90</t>
   </si>
   <si>
+    <t>תירס (מארז)</t>
+  </si>
+  <si>
     <t>תפוח אדמה אדום</t>
   </si>
   <si>
@@ -530,6 +551,9 @@
       <rPr/>
       <t xml:space="preserve">יחידה</t>
     </r>
+  </si>
+  <si>
+    <t>חסה סלנובה מסולסלת (באן) - מארז צמד</t>
   </si>
   <si>
     <t>כוסברה</t>
@@ -661,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1588,25 +1612,25 @@
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="H23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1">
         <f>C23 - F23</f>
@@ -1623,31 +1647,31 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="H24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J24" s="1">
         <f>C24 - F24</f>
@@ -1664,31 +1688,31 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="J25" s="1">
         <f>C25 - F25</f>
@@ -1711,25 +1735,25 @@
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J26" s="1">
         <f>C26 - F26</f>
@@ -1746,31 +1770,31 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="J27" s="1">
         <f>C27 - F27</f>
@@ -1787,31 +1811,31 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="J28" s="1">
         <f>C28 - F28</f>
@@ -1828,31 +1852,31 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1">
         <f>C29 - F29</f>
@@ -1875,22 +1899,22 @@
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>108</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>50</v>
@@ -1910,31 +1934,31 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="H31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="J31" s="1">
         <f>C31 - F31</f>
@@ -1957,16 +1981,16 @@
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>111</v>
@@ -1975,7 +1999,7 @@
         <v>17</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J32" s="1">
         <f>C32 - F32</f>
@@ -1992,31 +2016,31 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="J33" s="1">
         <f>C33 - F33</f>
@@ -2033,31 +2057,31 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="J34" s="1">
         <f>C34 - F34</f>
@@ -2074,7 +2098,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>12</v>
@@ -2083,22 +2107,22 @@
         <v>81</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="J35" s="1">
         <f>C35 - F35</f>
@@ -2115,7 +2139,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>12</v>
@@ -2124,16 +2148,16 @@
         <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>17</v>
@@ -2156,31 +2180,31 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="J37" s="1">
         <f>C37 - F37</f>
@@ -2197,22 +2221,22 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>120</v>
@@ -2221,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="J38" s="1">
         <f>C38 - F38</f>
@@ -2238,31 +2262,31 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="J39" s="1">
         <f>C39 - F39</f>
@@ -2279,31 +2303,31 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="J40" s="1">
         <f>C40 - F40</f>
@@ -2326,16 +2350,16 @@
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>126</v>
@@ -2344,7 +2368,7 @@
         <v>17</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="J41" s="1">
         <f>C41 - F41</f>
@@ -2361,31 +2385,31 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="J42" s="1">
         <f>C42 - F42</f>
@@ -2402,31 +2426,31 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="J43" s="1">
         <f>C43 - F43</f>
@@ -2443,31 +2467,31 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J44" s="1">
         <f>C44 - F44</f>
@@ -2484,31 +2508,31 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="J45" s="1">
         <f>C45 - F45</f>
@@ -2525,31 +2549,31 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J46" s="1">
         <f>C46 - F46</f>
@@ -2566,31 +2590,31 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J47" s="1">
         <f>C47 - F47</f>
@@ -2607,31 +2631,31 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="J48" s="1">
         <f>C48 - F48</f>
@@ -2648,31 +2672,31 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J49" s="1">
         <f>C49 - F49</f>
@@ -2689,31 +2713,31 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="J50" s="1">
         <f>C50 - F50</f>
@@ -2730,31 +2754,31 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J51" s="1">
         <f>C51 - F51</f>
@@ -2771,31 +2795,31 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J52" s="1">
         <f>C52 - F52</f>
@@ -2812,31 +2836,31 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J53" s="1">
         <f>C53 - F53</f>
@@ -2853,31 +2877,31 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="J54" s="1">
         <f>C54 - F54</f>
@@ -2894,31 +2918,31 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="J55" s="1">
         <f>C55 - F55</f>
@@ -2935,31 +2959,31 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="J56" s="1">
         <f>C56 - F56</f>
@@ -2976,31 +3000,31 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J57" s="1">
         <f>C57 - F57</f>
@@ -3017,25 +3041,25 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>24</v>
@@ -3058,22 +3082,22 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>161</v>
@@ -3082,7 +3106,7 @@
         <v>24</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="J59" s="1">
         <f>C59 - F59</f>
@@ -3102,19 +3126,19 @@
         <v>162</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>162</v>
@@ -3123,7 +3147,7 @@
         <v>24</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J60" s="1">
         <f>C60 - F60</f>
@@ -3143,19 +3167,19 @@
         <v>163</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>163</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>163</v>
@@ -3164,7 +3188,7 @@
         <v>24</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="J61" s="1">
         <f>C61 - F61</f>
@@ -3177,6 +3201,211 @@
       </c>
       <c r="M61" s="1">
         <f>C61 / I61 * 100</f>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" s="1">
+        <f>C62 - F62</f>
+      </c>
+      <c r="K62" s="1">
+        <f>C62 - I62</f>
+      </c>
+      <c r="L62" s="1">
+        <f>C62 / F62 * 100</f>
+      </c>
+      <c r="M62" s="1">
+        <f>C62 / I62 * 100</f>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J63" s="1">
+        <f>C63 - F63</f>
+      </c>
+      <c r="K63" s="1">
+        <f>C63 - I63</f>
+      </c>
+      <c r="L63" s="1">
+        <f>C63 / F63 * 100</f>
+      </c>
+      <c r="M63" s="1">
+        <f>C63 / I63 * 100</f>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="1">
+        <f>C64 - F64</f>
+      </c>
+      <c r="K64" s="1">
+        <f>C64 - I64</f>
+      </c>
+      <c r="L64" s="1">
+        <f>C64 / F64 * 100</f>
+      </c>
+      <c r="M64" s="1">
+        <f>C64 / I64 * 100</f>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J65" s="1">
+        <f>C65 - F65</f>
+      </c>
+      <c r="K65" s="1">
+        <f>C65 - I65</f>
+      </c>
+      <c r="L65" s="1">
+        <f>C65 / F65 * 100</f>
+      </c>
+      <c r="M65" s="1">
+        <f>C65 / I65 * 100</f>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J66" s="1">
+        <f>C66 - F66</f>
+      </c>
+      <c r="K66" s="1">
+        <f>C66 - I66</f>
+      </c>
+      <c r="L66" s="1">
+        <f>C66 / F66 * 100</f>
+      </c>
+      <c r="M66" s="1">
+        <f>C66 / I66 * 100</f>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -183,6 +183,9 @@
     <t>מלון כתום דבש</t>
   </si>
   <si>
+    <t>7.90</t>
+  </si>
+  <si>
     <t>מלון ספרדי מתוק</t>
   </si>
   <si>
@@ -193,9 +196,6 @@
   </si>
   <si>
     <t>8.9</t>
-  </si>
-  <si>
-    <t>7.90</t>
   </si>
   <si>
     <t>מנגו</t>
@@ -376,12 +376,6 @@
     <t>גזר בתפזורת</t>
   </si>
   <si>
-    <t>גזר צבעוני (מארז)</t>
-  </si>
-  <si>
-    <t>9.90</t>
-  </si>
-  <si>
     <t>דואט פטריות (מארז)</t>
   </si>
   <si>
@@ -422,12 +416,24 @@
     <t>מלפפון מובחר</t>
   </si>
   <si>
+    <t>9.90</t>
+  </si>
+  <si>
     <r>
       <rPr/>
       <t xml:space="preserve">12.9</t>
     </r>
   </si>
   <si>
+    <t>סלק אדום</t>
+  </si>
+  <si>
+    <t>סלק בוואקום (מארז)</t>
+  </si>
+  <si>
+    <t>עגבניה מגי (מארז)</t>
+  </si>
+  <si>
     <t>עגבניה מובחרת</t>
   </si>
   <si>
@@ -471,6 +477,15 @@
     <t>10.90</t>
   </si>
   <si>
+    <t>ראש שום</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>2.475</t>
+  </si>
+  <si>
     <t>שומר</t>
   </si>
   <si>
@@ -529,6 +544,9 @@
     <t>בזיליקום</t>
   </si>
   <si>
+    <t>7.9</t>
+  </si>
+  <si>
     <t>בזיליקום אדום</t>
   </si>
   <si>
@@ -541,7 +559,13 @@
     </r>
   </si>
   <si>
+    <t>6.9</t>
+  </si>
+  <si>
     <t>ג'ינג'ר</t>
+  </si>
+  <si>
+    <t>29.9</t>
   </si>
   <si>
     <t>חסה סלנובה</t>
@@ -553,6 +577,9 @@
     </r>
   </si>
   <si>
+    <t>13.9</t>
+  </si>
+  <si>
     <t>חסה סלנובה מסולסלת (באן) - מארז צמד</t>
   </si>
   <si>
@@ -562,25 +589,16 @@
     <t>3.90</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">4.9</t>
-    </r>
+    <t>4.9</t>
   </si>
   <si>
     <t>2.90</t>
   </si>
   <si>
-    <t>כורכום טרי</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">18.6</t>
-    </r>
-  </si>
-  <si>
     <t>לבבות חסה</t>
+  </si>
+  <si>
+    <t>11.9</t>
   </si>
   <si>
     <t>מרווה</t>
@@ -604,6 +622,9 @@
     </r>
   </si>
   <si>
+    <t>14.9</t>
+  </si>
+  <si>
     <t>קייל - מסולסל</t>
   </si>
   <si>
@@ -623,7 +644,7 @@
     <t>שמיר</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -685,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1056,7 +1077,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1">
         <f>C9 - F9</f>
@@ -1073,31 +1094,31 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="J10" s="1">
         <f>C10 - F10</f>
@@ -1466,7 +1487,7 @@
         <v>17</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J19" s="1">
         <f>C19 - F19</f>
@@ -1604,34 +1625,7 @@
         <f>C22 / I22 * 100</f>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="23" spans="10:13">
       <c r="J23" s="1">
         <f>C23 - F23</f>
       </c>
@@ -1647,31 +1641,31 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J24" s="1">
         <f>C24 - F24</f>
@@ -1688,31 +1682,31 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J25" s="1">
         <f>C25 - F25</f>
@@ -1729,31 +1723,31 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="J26" s="1">
         <f>C26 - F26</f>
@@ -1770,31 +1764,31 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J27" s="1">
         <f>C27 - F27</f>
@@ -1811,31 +1805,31 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="J28" s="1">
         <f>C28 - F28</f>
@@ -1852,31 +1846,31 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="J29" s="1">
         <f>C29 - F29</f>
@@ -1893,31 +1887,31 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J30" s="1">
         <f>C30 - F30</f>
@@ -1934,31 +1928,31 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J31" s="1">
         <f>C31 - F31</f>
@@ -1975,31 +1969,31 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J32" s="1">
         <f>C32 - F32</f>
@@ -2016,31 +2010,31 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="J33" s="1">
         <f>C33 - F33</f>
@@ -2057,31 +2051,31 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="J34" s="1">
         <f>C34 - F34</f>
@@ -2098,31 +2092,31 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="J35" s="1">
         <f>C35 - F35</f>
@@ -2139,31 +2133,31 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J36" s="1">
         <f>C36 - F36</f>
@@ -2180,31 +2174,31 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J37" s="1">
         <f>C37 - F37</f>
@@ -2221,31 +2215,31 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J38" s="1">
         <f>C38 - F38</f>
@@ -2262,31 +2256,31 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="H39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J39" s="1">
         <f>C39 - F39</f>
@@ -2303,31 +2297,31 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J40" s="1">
         <f>C40 - F40</f>
@@ -2344,31 +2338,31 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="J41" s="1">
         <f>C41 - F41</f>
@@ -2385,31 +2379,31 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="J42" s="1">
         <f>C42 - F42</f>
@@ -2426,31 +2420,31 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="J43" s="1">
         <f>C43 - F43</f>
@@ -2467,31 +2461,31 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J44" s="1">
         <f>C44 - F44</f>
@@ -2508,31 +2502,31 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="J45" s="1">
         <f>C45 - F45</f>
@@ -2549,31 +2543,31 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="J46" s="1">
         <f>C46 - F46</f>
@@ -2590,31 +2584,31 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="J47" s="1">
         <f>C47 - F47</f>
@@ -2631,13 +2625,13 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>43</v>
@@ -2649,13 +2643,13 @@
         <v>43</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="J48" s="1">
         <f>C48 - F48</f>
@@ -2672,31 +2666,31 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="J49" s="1">
         <f>C49 - F49</f>
@@ -2713,31 +2707,31 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="J50" s="1">
         <f>C50 - F50</f>
@@ -2754,31 +2748,31 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J51" s="1">
         <f>C51 - F51</f>
@@ -2795,31 +2789,31 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J52" s="1">
         <f>C52 - F52</f>
@@ -2836,31 +2830,31 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="J53" s="1">
         <f>C53 - F53</f>
@@ -2875,34 +2869,7 @@
         <f>C53 / I53 * 100</f>
       </c>
     </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="54" spans="10:13">
       <c r="J54" s="1">
         <f>C54 - F54</f>
       </c>
@@ -2918,31 +2885,31 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="J55" s="1">
         <f>C55 - F55</f>
@@ -2959,31 +2926,31 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="J56" s="1">
         <f>C56 - F56</f>
@@ -3000,31 +2967,31 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J57" s="1">
         <f>C57 - F57</f>
@@ -3041,25 +3008,25 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>24</v>
@@ -3082,31 +3049,31 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="J59" s="1">
         <f>C59 - F59</f>
@@ -3123,31 +3090,31 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J60" s="1">
         <f>C60 - F60</f>
@@ -3164,31 +3131,31 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J61" s="1">
         <f>C61 - F61</f>
@@ -3205,31 +3172,31 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J62" s="1">
         <f>C62 - F62</f>
@@ -3246,25 +3213,25 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>24</v>
@@ -3287,22 +3254,22 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>169</v>
@@ -3311,7 +3278,7 @@
         <v>24</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="J64" s="1">
         <f>C64 - F64</f>
@@ -3331,19 +3298,19 @@
         <v>170</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>170</v>
@@ -3352,7 +3319,7 @@
         <v>24</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J65" s="1">
         <f>C65 - F65</f>
@@ -3372,19 +3339,19 @@
         <v>171</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>171</v>
@@ -3393,7 +3360,7 @@
         <v>24</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J66" s="1">
         <f>C66 - F66</f>
@@ -3406,6 +3373,187 @@
       </c>
       <c r="M66" s="1">
         <f>C66 / I66 * 100</f>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J67" s="1">
+        <f>C67 - F67</f>
+      </c>
+      <c r="K67" s="1">
+        <f>C67 - I67</f>
+      </c>
+      <c r="L67" s="1">
+        <f>C67 / F67 * 100</f>
+      </c>
+      <c r="M67" s="1">
+        <f>C67 / I67 * 100</f>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J68" s="1">
+        <f>C68 - F68</f>
+      </c>
+      <c r="K68" s="1">
+        <f>C68 - I68</f>
+      </c>
+      <c r="L68" s="1">
+        <f>C68 / F68 * 100</f>
+      </c>
+      <c r="M68" s="1">
+        <f>C68 / I68 * 100</f>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="1">
+        <f>C69 - F69</f>
+      </c>
+      <c r="K69" s="1">
+        <f>C69 - I69</f>
+      </c>
+      <c r="L69" s="1">
+        <f>C69 / F69 * 100</f>
+      </c>
+      <c r="M69" s="1">
+        <f>C69 / I69 * 100</f>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -6,12 +6,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -82,16 +83,7 @@
     <t>37.90</t>
   </si>
   <si>
-    <t>אננס ישראלי טרי</t>
-  </si>
-  <si>
-    <t>יחידה</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">44.9</t>
-    </r>
+    <t>-</t>
   </si>
   <si>
     <r>
@@ -130,252 +122,249 @@
     <t>5.50</t>
   </si>
   <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>ליים</t>
+  </si>
+  <si>
+    <t>14.90</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>ליים אמיתי</t>
+  </si>
+  <si>
+    <t>15.90</t>
+  </si>
+  <si>
+    <t>מארז תמר מג'הול (בונבון) - 400 גרם</t>
+  </si>
+  <si>
+    <t>24.90</t>
+  </si>
+  <si>
+    <t>מארז תמר מג'הול סופר עסיסי
+'בונבון'
+400 גרם</t>
+  </si>
+  <si>
+    <t>מלון כתום</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">9.9</t>
+    </r>
+  </si>
+  <si>
+    <t>מלון כתום דבש</t>
+  </si>
+  <si>
+    <t>7.90</t>
+  </si>
+  <si>
+    <t>מלון ספרדי מתוק</t>
+  </si>
+  <si>
+    <t>6.90</t>
+  </si>
+  <si>
+    <t>מלון ספרדי</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>מנגו</t>
+  </si>
+  <si>
+    <t>27.90</t>
+  </si>
+  <si>
+    <t>מנגו ׳שלי׳</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">29.9</t>
+    </r>
+  </si>
+  <si>
+    <t>מנגו 'מאיה'</t>
+  </si>
+  <si>
+    <t>29.90</t>
+  </si>
+  <si>
+    <t>נקטרינה</t>
+  </si>
+  <si>
+    <t>ענבים אדומים</t>
+  </si>
+  <si>
+    <t>23.90</t>
+  </si>
+  <si>
+    <t>ענבים אדומים 'טלי'
+(מארז כ- 1.2 ק"ג)</t>
+  </si>
+  <si>
+    <t>ענבים ירוקים</t>
+  </si>
+  <si>
+    <t>ענבים ירוקים - ישראלי (כ-1.3 ק״ג)</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">34.9</t>
+    </r>
+  </si>
+  <si>
+    <t>ענבים ירוקים 'טלי- אוטום קריספ'
+(מארז כ - 1.2 ק"ג)
+</t>
+  </si>
+  <si>
+    <t>ענבים שחורים</t>
+  </si>
+  <si>
+    <t>33.90</t>
+  </si>
+  <si>
+    <t>ענבים שחורים 'סייבל- טלי'
+(מארז כ- 1.5 ק"ג)</t>
+  </si>
+  <si>
+    <t>35.90</t>
+  </si>
+  <si>
+    <t>קיווי צהוב</t>
+  </si>
+  <si>
+    <t>34.90</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">38.9</t>
+    </r>
+  </si>
+  <si>
+    <t>קלמנטינה</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>11.90</t>
+  </si>
+  <si>
+    <t>שזיף אדום</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>תפוז למיץ</t>
+  </si>
+  <si>
+    <t>8.90</t>
+  </si>
+  <si>
+    <t>תפוח חרמון</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">13.9</t>
+    </r>
+  </si>
+  <si>
+    <t>תפוח סמית</t>
+  </si>
+  <si>
+    <t>תפוח פינק ליידי</t>
+  </si>
+  <si>
+    <t>תפוח פינק</t>
+  </si>
+  <si>
+    <t>אבוקדו בשל (מארז 3 יחידות)</t>
+  </si>
+  <si>
+    <t>אבוקדו בשל</t>
+  </si>
+  <si>
+    <t>בטטה</t>
+  </si>
+  <si>
+    <t>15.50</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">ק"ג</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">17.9</t>
+    </r>
+  </si>
+  <si>
+    <t>בצל</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">5.9</t>
+    </r>
+  </si>
+  <si>
+    <t>בצל סגול</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">8.9</t>
+    </r>
+  </si>
+  <si>
+    <t>בצלצלי שאלוט (מארז)</t>
+  </si>
+  <si>
+    <t>בצלצלי שאלוט</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">מארז</t>
+    </r>
+  </si>
+  <si>
+    <t>גזר</t>
+  </si>
+  <si>
+    <t>גזר בתפזורת</t>
+  </si>
+  <si>
     <r>
       <rPr/>
       <t xml:space="preserve">6.9</t>
     </r>
   </si>
   <si>
-    <t>5.90</t>
-  </si>
-  <si>
-    <t>ליים</t>
-  </si>
-  <si>
-    <t>14.90</t>
-  </si>
-  <si>
-    <t>15.9</t>
-  </si>
-  <si>
-    <t>ליים אמיתי</t>
-  </si>
-  <si>
-    <t>15.90</t>
-  </si>
-  <si>
-    <t>מארז תמר מג'הול (בונבון) - 400 גרם</t>
-  </si>
-  <si>
-    <t>24.90</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>מארז תמר מג'הול סופר עסיסי
-'בונבון'
-400 גרם</t>
-  </si>
-  <si>
-    <t>מלון כתום</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">9.9</t>
-    </r>
-  </si>
-  <si>
-    <t>מלון כתום דבש</t>
-  </si>
-  <si>
-    <t>7.90</t>
-  </si>
-  <si>
-    <t>מלון ספרדי מתוק</t>
-  </si>
-  <si>
-    <t>6.90</t>
-  </si>
-  <si>
-    <t>מלון ספרדי</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>מנגו</t>
-  </si>
-  <si>
-    <t>27.90</t>
-  </si>
-  <si>
-    <t>מנגו ׳מאיה׳</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">29.9</t>
-    </r>
-  </si>
-  <si>
-    <t>מנגו 'מאיה'</t>
-  </si>
-  <si>
-    <t>29.90</t>
-  </si>
-  <si>
-    <t>נקטרינה</t>
-  </si>
-  <si>
-    <t>ענבים אדומים</t>
-  </si>
-  <si>
-    <t>23.90</t>
-  </si>
-  <si>
-    <t>ענבים אדומים 'טלי'
-(מארז כ- 1.2 ק"ג)</t>
-  </si>
-  <si>
-    <t>ענבים ירוקים</t>
-  </si>
-  <si>
-    <t>ענבים ירוקים - ישראלי (כ-1.3 ק״ג)</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">34.9</t>
-    </r>
-  </si>
-  <si>
-    <t>ענבים ירוקים 'טלי- אוטום קריספ'
-(מארז כ - 1.2 ק"ג)
-</t>
-  </si>
-  <si>
-    <t>ענבים שחורים</t>
-  </si>
-  <si>
-    <t>33.90</t>
-  </si>
-  <si>
-    <t>ענבים שחורים 'סייבל- טלי'
-(מארז כ- 1.5 ק"ג)</t>
-  </si>
-  <si>
-    <t>35.90</t>
-  </si>
-  <si>
-    <t>קיווי צהוב</t>
-  </si>
-  <si>
-    <t>34.90</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">38.9</t>
-    </r>
-  </si>
-  <si>
-    <t>קלמנטינה</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>11.90</t>
-  </si>
-  <si>
-    <t>שזיף אדום</t>
-  </si>
-  <si>
-    <t>19.9</t>
-  </si>
-  <si>
-    <t>תפוז למיץ</t>
-  </si>
-  <si>
-    <t>8.90</t>
-  </si>
-  <si>
-    <t>תפוח חרמון</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">13.9</t>
-    </r>
-  </si>
-  <si>
-    <t>תפוח סמית</t>
-  </si>
-  <si>
-    <t>תפוח פינק ליידי</t>
-  </si>
-  <si>
-    <t>תפוח פינק</t>
-  </si>
-  <si>
-    <t>אבוקדו בשל (מארז 3 יחידות)</t>
-  </si>
-  <si>
-    <t>אבוקדו בשל</t>
-  </si>
-  <si>
-    <t>בטטה</t>
-  </si>
-  <si>
-    <t>15.50</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">ק"ג</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">17.9</t>
-    </r>
-  </si>
-  <si>
-    <t>בצל</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">5.9</t>
-    </r>
-  </si>
-  <si>
-    <t>בצל סגול</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">8.9</t>
-    </r>
-  </si>
-  <si>
-    <t>בצלצלי שאלוט (מארז)</t>
-  </si>
-  <si>
-    <t>בצלצלי שאלוט</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">מארז</t>
-    </r>
-  </si>
-  <si>
-    <t>גזר</t>
-  </si>
-  <si>
-    <t>גזר בתפזורת</t>
-  </si>
-  <si>
     <t>דואט פטריות (מארז)</t>
   </si>
   <si>
@@ -425,13 +414,7 @@
     </r>
   </si>
   <si>
-    <t>סלק אדום</t>
-  </si>
-  <si>
     <t>סלק בוואקום (מארז)</t>
-  </si>
-  <si>
-    <t>עגבניה מגי (מארז)</t>
   </si>
   <si>
     <t>עגבניה מובחרת</t>
@@ -645,6 +628,12 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>סלק אדום</t>
+  </si>
+  <si>
+    <t>עגבניה מגי (מארז)</t>
   </si>
 </sst>
 </file>
@@ -706,6 +695,2781 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M69"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1">
+        <f>C2 - F2</f>
+      </c>
+      <c r="K2" s="1">
+        <f>C2 - I2</f>
+      </c>
+      <c r="L2" s="1">
+        <f>C2 / F2 * 100</f>
+      </c>
+      <c r="M2" s="1">
+        <f>C2 / I2 * 100</f>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1">
+        <f>C3 - F3</f>
+      </c>
+      <c r="K3" s="1">
+        <f>C3 - I3</f>
+      </c>
+      <c r="L3" s="1">
+        <f>C3 / F3 * 100</f>
+      </c>
+      <c r="M3" s="1">
+        <f>C3 / I3 * 100</f>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1">
+        <f>C4 - F4</f>
+      </c>
+      <c r="K4" s="1">
+        <f>C4 - I4</f>
+      </c>
+      <c r="L4" s="1">
+        <f>C4 / F4 * 100</f>
+      </c>
+      <c r="M4" s="1">
+        <f>C4 / I4 * 100</f>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1">
+        <f>C5 - F5</f>
+      </c>
+      <c r="K5" s="1">
+        <f>C5 - I5</f>
+      </c>
+      <c r="L5" s="1">
+        <f>C5 / F5 * 100</f>
+      </c>
+      <c r="M5" s="1">
+        <f>C5 / I5 * 100</f>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1">
+        <f>C6 - F6</f>
+      </c>
+      <c r="K6" s="1">
+        <f>C6 - I6</f>
+      </c>
+      <c r="L6" s="1">
+        <f>C6 / F6 * 100</f>
+      </c>
+      <c r="M6" s="1">
+        <f>C6 / I6 * 100</f>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1">
+        <f>C7 - F7</f>
+      </c>
+      <c r="K7" s="1">
+        <f>C7 - I7</f>
+      </c>
+      <c r="L7" s="1">
+        <f>C7 / F7 * 100</f>
+      </c>
+      <c r="M7" s="1">
+        <f>C7 / I7 * 100</f>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="1">
+        <f>C8 - F8</f>
+      </c>
+      <c r="K8" s="1">
+        <f>C8 - I8</f>
+      </c>
+      <c r="L8" s="1">
+        <f>C8 / F8 * 100</f>
+      </c>
+      <c r="M8" s="1">
+        <f>C8 / I8 * 100</f>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="1">
+        <f>C9 - F9</f>
+      </c>
+      <c r="K9" s="1">
+        <f>C9 - I9</f>
+      </c>
+      <c r="L9" s="1">
+        <f>C9 / F9 * 100</f>
+      </c>
+      <c r="M9" s="1">
+        <f>C9 / I9 * 100</f>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="1">
+        <f>C10 - F10</f>
+      </c>
+      <c r="K10" s="1">
+        <f>C10 - I10</f>
+      </c>
+      <c r="L10" s="1">
+        <f>C10 / F10 * 100</f>
+      </c>
+      <c r="M10" s="1">
+        <f>C10 / I10 * 100</f>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="1">
+        <f>C11 - F11</f>
+      </c>
+      <c r="K11" s="1">
+        <f>C11 - I11</f>
+      </c>
+      <c r="L11" s="1">
+        <f>C11 / F11 * 100</f>
+      </c>
+      <c r="M11" s="1">
+        <f>C11 / I11 * 100</f>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1">
+        <f>C12 - F12</f>
+      </c>
+      <c r="K12" s="1">
+        <f>C12 - I12</f>
+      </c>
+      <c r="L12" s="1">
+        <f>C12 / F12 * 100</f>
+      </c>
+      <c r="M12" s="1">
+        <f>C12 / I12 * 100</f>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="1">
+        <f>C13 - F13</f>
+      </c>
+      <c r="K13" s="1">
+        <f>C13 - I13</f>
+      </c>
+      <c r="L13" s="1">
+        <f>C13 / F13 * 100</f>
+      </c>
+      <c r="M13" s="1">
+        <f>C13 / I13 * 100</f>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="1">
+        <f>C14 - F14</f>
+      </c>
+      <c r="K14" s="1">
+        <f>C14 - I14</f>
+      </c>
+      <c r="L14" s="1">
+        <f>C14 / F14 * 100</f>
+      </c>
+      <c r="M14" s="1">
+        <f>C14 / I14 * 100</f>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="1">
+        <f>C15 - F15</f>
+      </c>
+      <c r="K15" s="1">
+        <f>C15 - I15</f>
+      </c>
+      <c r="L15" s="1">
+        <f>C15 / F15 * 100</f>
+      </c>
+      <c r="M15" s="1">
+        <f>C15 / I15 * 100</f>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1">
+        <f>C16 - F16</f>
+      </c>
+      <c r="K16" s="1">
+        <f>C16 - I16</f>
+      </c>
+      <c r="L16" s="1">
+        <f>C16 / F16 * 100</f>
+      </c>
+      <c r="M16" s="1">
+        <f>C16 / I16 * 100</f>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="1">
+        <f>C17 - F17</f>
+      </c>
+      <c r="K17" s="1">
+        <f>C17 - I17</f>
+      </c>
+      <c r="L17" s="1">
+        <f>C17 / F17 * 100</f>
+      </c>
+      <c r="M17" s="1">
+        <f>C17 / I17 * 100</f>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="1">
+        <f>C18 - F18</f>
+      </c>
+      <c r="K18" s="1">
+        <f>C18 - I18</f>
+      </c>
+      <c r="L18" s="1">
+        <f>C18 / F18 * 100</f>
+      </c>
+      <c r="M18" s="1">
+        <f>C18 / I18 * 100</f>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="1">
+        <f>C19 - F19</f>
+      </c>
+      <c r="K19" s="1">
+        <f>C19 - I19</f>
+      </c>
+      <c r="L19" s="1">
+        <f>C19 / F19 * 100</f>
+      </c>
+      <c r="M19" s="1">
+        <f>C19 / I19 * 100</f>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="1">
+        <f>C20 - F20</f>
+      </c>
+      <c r="K20" s="1">
+        <f>C20 - I20</f>
+      </c>
+      <c r="L20" s="1">
+        <f>C20 / F20 * 100</f>
+      </c>
+      <c r="M20" s="1">
+        <f>C20 / I20 * 100</f>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="1">
+        <f>C21 - F21</f>
+      </c>
+      <c r="K21" s="1">
+        <f>C21 - I21</f>
+      </c>
+      <c r="L21" s="1">
+        <f>C21 / F21 * 100</f>
+      </c>
+      <c r="M21" s="1">
+        <f>C21 / I21 * 100</f>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="1">
+        <f>C22 - F22</f>
+      </c>
+      <c r="K22" s="1">
+        <f>C22 - I22</f>
+      </c>
+      <c r="L22" s="1">
+        <f>C22 / F22 * 100</f>
+      </c>
+      <c r="M22" s="1">
+        <f>C22 / I22 * 100</f>
+      </c>
+    </row>
+    <row r="23" spans="10:13">
+      <c r="J23" s="1">
+        <f>C23 - F23</f>
+      </c>
+      <c r="K23" s="1">
+        <f>C23 - I23</f>
+      </c>
+      <c r="L23" s="1">
+        <f>C23 / F23 * 100</f>
+      </c>
+      <c r="M23" s="1">
+        <f>C23 / I23 * 100</f>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="1">
+        <f>C24 - F24</f>
+      </c>
+      <c r="K24" s="1">
+        <f>C24 - I24</f>
+      </c>
+      <c r="L24" s="1">
+        <f>C24 / F24 * 100</f>
+      </c>
+      <c r="M24" s="1">
+        <f>C24 / I24 * 100</f>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="1">
+        <f>C25 - F25</f>
+      </c>
+      <c r="K25" s="1">
+        <f>C25 - I25</f>
+      </c>
+      <c r="L25" s="1">
+        <f>C25 / F25 * 100</f>
+      </c>
+      <c r="M25" s="1">
+        <f>C25 / I25 * 100</f>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="1">
+        <f>C26 - F26</f>
+      </c>
+      <c r="K26" s="1">
+        <f>C26 - I26</f>
+      </c>
+      <c r="L26" s="1">
+        <f>C26 / F26 * 100</f>
+      </c>
+      <c r="M26" s="1">
+        <f>C26 / I26 * 100</f>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="1">
+        <f>C27 - F27</f>
+      </c>
+      <c r="K27" s="1">
+        <f>C27 - I27</f>
+      </c>
+      <c r="L27" s="1">
+        <f>C27 / F27 * 100</f>
+      </c>
+      <c r="M27" s="1">
+        <f>C27 / I27 * 100</f>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="1">
+        <f>C28 - F28</f>
+      </c>
+      <c r="K28" s="1">
+        <f>C28 - I28</f>
+      </c>
+      <c r="L28" s="1">
+        <f>C28 / F28 * 100</f>
+      </c>
+      <c r="M28" s="1">
+        <f>C28 / I28 * 100</f>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="1">
+        <f>C29 - F29</f>
+      </c>
+      <c r="K29" s="1">
+        <f>C29 - I29</f>
+      </c>
+      <c r="L29" s="1">
+        <f>C29 / F29 * 100</f>
+      </c>
+      <c r="M29" s="1">
+        <f>C29 / I29 * 100</f>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="1">
+        <f>C30 - F30</f>
+      </c>
+      <c r="K30" s="1">
+        <f>C30 - I30</f>
+      </c>
+      <c r="L30" s="1">
+        <f>C30 / F30 * 100</f>
+      </c>
+      <c r="M30" s="1">
+        <f>C30 / I30 * 100</f>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="1">
+        <f>C31 - F31</f>
+      </c>
+      <c r="K31" s="1">
+        <f>C31 - I31</f>
+      </c>
+      <c r="L31" s="1">
+        <f>C31 / F31 * 100</f>
+      </c>
+      <c r="M31" s="1">
+        <f>C31 / I31 * 100</f>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="1">
+        <f>C32 - F32</f>
+      </c>
+      <c r="K32" s="1">
+        <f>C32 - I32</f>
+      </c>
+      <c r="L32" s="1">
+        <f>C32 / F32 * 100</f>
+      </c>
+      <c r="M32" s="1">
+        <f>C32 / I32 * 100</f>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="1">
+        <f>C33 - F33</f>
+      </c>
+      <c r="K33" s="1">
+        <f>C33 - I33</f>
+      </c>
+      <c r="L33" s="1">
+        <f>C33 / F33 * 100</f>
+      </c>
+      <c r="M33" s="1">
+        <f>C33 / I33 * 100</f>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="1">
+        <f>C34 - F34</f>
+      </c>
+      <c r="K34" s="1">
+        <f>C34 - I34</f>
+      </c>
+      <c r="L34" s="1">
+        <f>C34 / F34 * 100</f>
+      </c>
+      <c r="M34" s="1">
+        <f>C34 / I34 * 100</f>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" s="1">
+        <f>C35 - F35</f>
+      </c>
+      <c r="K35" s="1">
+        <f>C35 - I35</f>
+      </c>
+      <c r="L35" s="1">
+        <f>C35 / F35 * 100</f>
+      </c>
+      <c r="M35" s="1">
+        <f>C35 / I35 * 100</f>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" s="1">
+        <f>C36 - F36</f>
+      </c>
+      <c r="K36" s="1">
+        <f>C36 - I36</f>
+      </c>
+      <c r="L36" s="1">
+        <f>C36 / F36 * 100</f>
+      </c>
+      <c r="M36" s="1">
+        <f>C36 / I36 * 100</f>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="1">
+        <f>C37 - F37</f>
+      </c>
+      <c r="K37" s="1">
+        <f>C37 - I37</f>
+      </c>
+      <c r="L37" s="1">
+        <f>C37 / F37 * 100</f>
+      </c>
+      <c r="M37" s="1">
+        <f>C37 / I37 * 100</f>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" s="1">
+        <f>C38 - F38</f>
+      </c>
+      <c r="K38" s="1">
+        <f>C38 - I38</f>
+      </c>
+      <c r="L38" s="1">
+        <f>C38 / F38 * 100</f>
+      </c>
+      <c r="M38" s="1">
+        <f>C38 / I38 * 100</f>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="1">
+        <f>C39 - F39</f>
+      </c>
+      <c r="K39" s="1">
+        <f>C39 - I39</f>
+      </c>
+      <c r="L39" s="1">
+        <f>C39 / F39 * 100</f>
+      </c>
+      <c r="M39" s="1">
+        <f>C39 / I39 * 100</f>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" s="1">
+        <f>C40 - F40</f>
+      </c>
+      <c r="K40" s="1">
+        <f>C40 - I40</f>
+      </c>
+      <c r="L40" s="1">
+        <f>C40 / F40 * 100</f>
+      </c>
+      <c r="M40" s="1">
+        <f>C40 / I40 * 100</f>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" s="1">
+        <f>C41 - F41</f>
+      </c>
+      <c r="K41" s="1">
+        <f>C41 - I41</f>
+      </c>
+      <c r="L41" s="1">
+        <f>C41 / F41 * 100</f>
+      </c>
+      <c r="M41" s="1">
+        <f>C41 / I41 * 100</f>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="1">
+        <f>C42 - F42</f>
+      </c>
+      <c r="K42" s="1">
+        <f>C42 - I42</f>
+      </c>
+      <c r="L42" s="1">
+        <f>C42 / F42 * 100</f>
+      </c>
+      <c r="M42" s="1">
+        <f>C42 / I42 * 100</f>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="1">
+        <f>C43 - F43</f>
+      </c>
+      <c r="K43" s="1">
+        <f>C43 - I43</f>
+      </c>
+      <c r="L43" s="1">
+        <f>C43 / F43 * 100</f>
+      </c>
+      <c r="M43" s="1">
+        <f>C43 / I43 * 100</f>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J44" s="1">
+        <f>C44 - F44</f>
+      </c>
+      <c r="K44" s="1">
+        <f>C44 - I44</f>
+      </c>
+      <c r="L44" s="1">
+        <f>C44 / F44 * 100</f>
+      </c>
+      <c r="M44" s="1">
+        <f>C44 / I44 * 100</f>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J45" s="1">
+        <f>C45 - F45</f>
+      </c>
+      <c r="K45" s="1">
+        <f>C45 - I45</f>
+      </c>
+      <c r="L45" s="1">
+        <f>C45 / F45 * 100</f>
+      </c>
+      <c r="M45" s="1">
+        <f>C45 / I45 * 100</f>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J46" s="1">
+        <f>C46 - F46</f>
+      </c>
+      <c r="K46" s="1">
+        <f>C46 - I46</f>
+      </c>
+      <c r="L46" s="1">
+        <f>C46 / F46 * 100</f>
+      </c>
+      <c r="M46" s="1">
+        <f>C46 / I46 * 100</f>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J47" s="1">
+        <f>C47 - F47</f>
+      </c>
+      <c r="K47" s="1">
+        <f>C47 - I47</f>
+      </c>
+      <c r="L47" s="1">
+        <f>C47 / F47 * 100</f>
+      </c>
+      <c r="M47" s="1">
+        <f>C47 / I47 * 100</f>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J48" s="1">
+        <f>C48 - F48</f>
+      </c>
+      <c r="K48" s="1">
+        <f>C48 - I48</f>
+      </c>
+      <c r="L48" s="1">
+        <f>C48 / F48 * 100</f>
+      </c>
+      <c r="M48" s="1">
+        <f>C48 / I48 * 100</f>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="1">
+        <f>C49 - F49</f>
+      </c>
+      <c r="K49" s="1">
+        <f>C49 - I49</f>
+      </c>
+      <c r="L49" s="1">
+        <f>C49 / F49 * 100</f>
+      </c>
+      <c r="M49" s="1">
+        <f>C49 / I49 * 100</f>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="1">
+        <f>C50 - F50</f>
+      </c>
+      <c r="K50" s="1">
+        <f>C50 - I50</f>
+      </c>
+      <c r="L50" s="1">
+        <f>C50 / F50 * 100</f>
+      </c>
+      <c r="M50" s="1">
+        <f>C50 / I50 * 100</f>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J51" s="1">
+        <f>C51 - F51</f>
+      </c>
+      <c r="K51" s="1">
+        <f>C51 - I51</f>
+      </c>
+      <c r="L51" s="1">
+        <f>C51 / F51 * 100</f>
+      </c>
+      <c r="M51" s="1">
+        <f>C51 / I51 * 100</f>
+      </c>
+    </row>
+    <row r="52" spans="10:13">
+      <c r="J52" s="1">
+        <f>C52 - F52</f>
+      </c>
+      <c r="K52" s="1">
+        <f>C52 - I52</f>
+      </c>
+      <c r="L52" s="1">
+        <f>C52 / F52 * 100</f>
+      </c>
+      <c r="M52" s="1">
+        <f>C52 / I52 * 100</f>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" s="1">
+        <f>C53 - F53</f>
+      </c>
+      <c r="K53" s="1">
+        <f>C53 - I53</f>
+      </c>
+      <c r="L53" s="1">
+        <f>C53 / F53 * 100</f>
+      </c>
+      <c r="M53" s="1">
+        <f>C53 / I53 * 100</f>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" s="1">
+        <f>C54 - F54</f>
+      </c>
+      <c r="K54" s="1">
+        <f>C54 - I54</f>
+      </c>
+      <c r="L54" s="1">
+        <f>C54 / F54 * 100</f>
+      </c>
+      <c r="M54" s="1">
+        <f>C54 / I54 * 100</f>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55" s="1">
+        <f>C55 - F55</f>
+      </c>
+      <c r="K55" s="1">
+        <f>C55 - I55</f>
+      </c>
+      <c r="L55" s="1">
+        <f>C55 / F55 * 100</f>
+      </c>
+      <c r="M55" s="1">
+        <f>C55 / I55 * 100</f>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J56" s="1">
+        <f>C56 - F56</f>
+      </c>
+      <c r="K56" s="1">
+        <f>C56 - I56</f>
+      </c>
+      <c r="L56" s="1">
+        <f>C56 / F56 * 100</f>
+      </c>
+      <c r="M56" s="1">
+        <f>C56 / I56 * 100</f>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" s="1">
+        <f>C57 - F57</f>
+      </c>
+      <c r="K57" s="1">
+        <f>C57 - I57</f>
+      </c>
+      <c r="L57" s="1">
+        <f>C57 / F57 * 100</f>
+      </c>
+      <c r="M57" s="1">
+        <f>C57 / I57 * 100</f>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" s="1">
+        <f>C58 - F58</f>
+      </c>
+      <c r="K58" s="1">
+        <f>C58 - I58</f>
+      </c>
+      <c r="L58" s="1">
+        <f>C58 / F58 * 100</f>
+      </c>
+      <c r="M58" s="1">
+        <f>C58 / I58 * 100</f>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J59" s="1">
+        <f>C59 - F59</f>
+      </c>
+      <c r="K59" s="1">
+        <f>C59 - I59</f>
+      </c>
+      <c r="L59" s="1">
+        <f>C59 / F59 * 100</f>
+      </c>
+      <c r="M59" s="1">
+        <f>C59 / I59 * 100</f>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" s="1">
+        <f>C60 - F60</f>
+      </c>
+      <c r="K60" s="1">
+        <f>C60 - I60</f>
+      </c>
+      <c r="L60" s="1">
+        <f>C60 / F60 * 100</f>
+      </c>
+      <c r="M60" s="1">
+        <f>C60 / I60 * 100</f>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" s="1">
+        <f>C61 - F61</f>
+      </c>
+      <c r="K61" s="1">
+        <f>C61 - I61</f>
+      </c>
+      <c r="L61" s="1">
+        <f>C61 / F61 * 100</f>
+      </c>
+      <c r="M61" s="1">
+        <f>C61 / I61 * 100</f>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J62" s="1">
+        <f>C62 - F62</f>
+      </c>
+      <c r="K62" s="1">
+        <f>C62 - I62</f>
+      </c>
+      <c r="L62" s="1">
+        <f>C62 / F62 * 100</f>
+      </c>
+      <c r="M62" s="1">
+        <f>C62 / I62 * 100</f>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J63" s="1">
+        <f>C63 - F63</f>
+      </c>
+      <c r="K63" s="1">
+        <f>C63 - I63</f>
+      </c>
+      <c r="L63" s="1">
+        <f>C63 / F63 * 100</f>
+      </c>
+      <c r="M63" s="1">
+        <f>C63 / I63 * 100</f>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J64" s="1">
+        <f>C64 - F64</f>
+      </c>
+      <c r="K64" s="1">
+        <f>C64 - I64</f>
+      </c>
+      <c r="L64" s="1">
+        <f>C64 / F64 * 100</f>
+      </c>
+      <c r="M64" s="1">
+        <f>C64 / I64 * 100</f>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J65" s="1">
+        <f>C65 - F65</f>
+      </c>
+      <c r="K65" s="1">
+        <f>C65 - I65</f>
+      </c>
+      <c r="L65" s="1">
+        <f>C65 / F65 * 100</f>
+      </c>
+      <c r="M65" s="1">
+        <f>C65 / I65 * 100</f>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66" s="1">
+        <f>C66 - F66</f>
+      </c>
+      <c r="K66" s="1">
+        <f>C66 - I66</f>
+      </c>
+      <c r="L66" s="1">
+        <f>C66 / F66 * 100</f>
+      </c>
+      <c r="M66" s="1">
+        <f>C66 / I66 * 100</f>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="1">
+        <f>C67 - F67</f>
+      </c>
+      <c r="K67" s="1">
+        <f>C67 - I67</f>
+      </c>
+      <c r="L67" s="1">
+        <f>C67 / F67 * 100</f>
+      </c>
+      <c r="M67" s="1">
+        <f>C67 / I67 * 100</f>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
@@ -819,19 +3583,19 @@
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1">
         <f>C3 - F3</f>
@@ -848,16 +3612,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -866,7 +3630,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
@@ -889,31 +3653,31 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="J5" s="1">
         <f>C5 - F5</f>
@@ -930,31 +3694,31 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="J6" s="1">
         <f>C6 - F6</f>
@@ -971,31 +3735,31 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="J7" s="1">
         <f>C7 - F7</f>
@@ -1012,31 +3776,31 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J8" s="1">
         <f>C8 - F8</f>
@@ -1053,31 +3817,31 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="J9" s="1">
         <f>C9 - F9</f>
@@ -1094,31 +3858,31 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1">
         <f>C10 - F10</f>
@@ -1135,31 +3899,31 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="J11" s="1">
         <f>C11 - F11</f>
@@ -1176,16 +3940,16 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -1194,7 +3958,7 @@
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>17</v>
@@ -1217,31 +3981,31 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J13" s="1">
         <f>C13 - F13</f>
@@ -1258,31 +4022,31 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1">
         <f>C14 - F14</f>
@@ -1299,31 +4063,31 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J15" s="1">
         <f>C15 - F15</f>
@@ -1340,31 +4104,31 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1">
         <f>C16 - F16</f>
@@ -1381,31 +4145,31 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J17" s="1">
         <f>C17 - F17</f>
@@ -1422,25 +4186,25 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>17</v>
@@ -1463,31 +4227,31 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J19" s="1">
         <f>C19 - F19</f>
@@ -1504,31 +4268,31 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1">
         <f>C20 - F20</f>
@@ -1545,31 +4309,31 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="J21" s="1">
         <f>C21 - F21</f>
@@ -1586,7 +4350,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -1595,7 +4359,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -1604,7 +4368,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>17</v>
@@ -1641,31 +4405,31 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="J24" s="1">
         <f>C24 - F24</f>
@@ -1682,31 +4446,31 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1">
         <f>C25 - F25</f>
@@ -1723,31 +4487,31 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J26" s="1">
         <f>C26 - F26</f>
@@ -1764,31 +4528,31 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="J27" s="1">
         <f>C27 - F27</f>
@@ -1805,31 +4569,31 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1">
         <f>C28 - F28</f>
@@ -1846,31 +4610,31 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J29" s="1">
         <f>C29 - F29</f>
@@ -1887,28 +4651,28 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>18</v>
@@ -1928,31 +4692,31 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J31" s="1">
         <f>C31 - F31</f>
@@ -1969,31 +4733,31 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J32" s="1">
         <f>C32 - F32</f>
@@ -2010,31 +4774,31 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J33" s="1">
         <f>C33 - F33</f>
@@ -2051,31 +4815,31 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J34" s="1">
         <f>C34 - F34</f>
@@ -2092,31 +4856,31 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J35" s="1">
         <f>C35 - F35</f>
@@ -2133,31 +4897,31 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J36" s="1">
         <f>C36 - F36</f>
@@ -2174,31 +4938,31 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="J37" s="1">
         <f>C37 - F37</f>
@@ -2215,31 +4979,31 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J38" s="1">
         <f>C38 - F38</f>
@@ -2256,31 +5020,31 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J39" s="1">
         <f>C39 - F39</f>
@@ -2297,31 +5061,31 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J40" s="1">
         <f>C40 - F40</f>
@@ -2338,31 +5102,31 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J41" s="1">
         <f>C41 - F41</f>
@@ -2379,31 +5143,31 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J42" s="1">
         <f>C42 - F42</f>
@@ -2420,31 +5184,31 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J43" s="1">
         <f>C43 - F43</f>
@@ -2461,31 +5225,31 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J44" s="1">
         <f>C44 - F44</f>
@@ -2502,31 +5266,31 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="J45" s="1">
         <f>C45 - F45</f>
@@ -2543,31 +5307,31 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J46" s="1">
         <f>C46 - F46</f>
@@ -2584,31 +5348,31 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J47" s="1">
         <f>C47 - F47</f>
@@ -2625,31 +5389,31 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J48" s="1">
         <f>C48 - F48</f>
@@ -2666,31 +5430,31 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J49" s="1">
         <f>C49 - F49</f>
@@ -2707,31 +5471,31 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J50" s="1">
         <f>C50 - F50</f>
@@ -2748,25 +5512,25 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>17</v>
@@ -2789,31 +5553,31 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J52" s="1">
         <f>C52 - F52</f>
@@ -2830,31 +5594,31 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J53" s="1">
         <f>C53 - F53</f>
@@ -2885,31 +5649,31 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J55" s="1">
         <f>C55 - F55</f>
@@ -2926,31 +5690,31 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J56" s="1">
         <f>C56 - F56</f>
@@ -2967,31 +5731,31 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J57" s="1">
         <f>C57 - F57</f>
@@ -3008,31 +5772,31 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J58" s="1">
         <f>C58 - F58</f>
@@ -3049,31 +5813,31 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J59" s="1">
         <f>C59 - F59</f>
@@ -3090,31 +5854,31 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J60" s="1">
         <f>C60 - F60</f>
@@ -3131,31 +5895,31 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J61" s="1">
         <f>C61 - F61</f>
@@ -3172,31 +5936,31 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J62" s="1">
         <f>C62 - F62</f>
@@ -3213,31 +5977,31 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J63" s="1">
         <f>C63 - F63</f>
@@ -3254,31 +6018,31 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J64" s="1">
         <f>C64 - F64</f>
@@ -3295,31 +6059,31 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J65" s="1">
         <f>C65 - F65</f>
@@ -3336,31 +6100,31 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J66" s="1">
         <f>C66 - F66</f>
@@ -3377,31 +6141,31 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J67" s="1">
         <f>C67 - F67</f>
@@ -3418,31 +6182,31 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J68" s="1">
         <f>C68 - F68</f>
@@ -3459,28 +6223,28 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>13</v>
@@ -3500,60 +6264,60 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t>כורכום טרי</t>
+  </si>
+  <si>
+    <t>18.6</t>
   </si>
   <si>
     <t>לבבות חסה</t>
@@ -2953,13 +2956,13 @@
         <v>41</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>147</v>
@@ -3582,13 +3585,13 @@
         <v>38</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>183</v>
@@ -3614,7 +3617,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>25</v>
@@ -3623,16 +3626,16 @@
         <v>111</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>103</v>
@@ -3655,7 +3658,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>25</v>
@@ -3664,7 +3667,7 @@
         <v>48</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>168</v>
@@ -3673,7 +3676,7 @@
         <v>165</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>26</v>
@@ -3696,7 +3699,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>25</v>
@@ -3705,7 +3708,7 @@
         <v>180</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>168</v>
@@ -3714,7 +3717,7 @@
         <v>181</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>26</v>
@@ -3737,7 +3740,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>25</v>
@@ -3746,7 +3749,7 @@
         <v>53</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>168</v>
@@ -3755,7 +3758,7 @@
         <v>55</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>26</v>
@@ -3778,7 +3781,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>25</v>
@@ -3796,7 +3799,7 @@
         <v>14</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>26</v>
@@ -3819,7 +3822,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>25</v>
@@ -3828,7 +3831,7 @@
         <v>48</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>168</v>
@@ -3837,7 +3840,7 @@
         <v>169</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>26</v>
@@ -3860,7 +3863,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>25</v>
@@ -3869,7 +3872,7 @@
         <v>180</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>168</v>
@@ -3878,7 +3881,7 @@
         <v>181</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>26</v>
@@ -3901,7 +3904,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>25</v>
@@ -3919,7 +3922,7 @@
         <v>14</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>26</v>
@@ -3942,7 +3945,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>25</v>
@@ -3951,16 +3954,16 @@
         <v>80</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>103</v>
@@ -3983,7 +3986,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>25</v>
@@ -3992,7 +3995,7 @@
         <v>48</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>168</v>
@@ -4001,7 +4004,7 @@
         <v>169</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>26</v>
@@ -4024,7 +4027,7 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>25</v>
@@ -4042,7 +4045,7 @@
         <v>14</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>26</v>
@@ -4065,7 +4068,7 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>177</v>
@@ -4083,7 +4086,7 @@
         <v>14</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>26</v>
@@ -4106,7 +4109,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>25</v>
@@ -4124,7 +4127,7 @@
         <v>14</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>26</v>
@@ -4135,7 +4138,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>25</v>
@@ -4144,16 +4147,16 @@
         <v>180</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>168</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>26</v>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -439,13 +439,7 @@
     <t>מלפפון מיני</t>
   </si>
   <si>
-    <t>סלק אדום</t>
-  </si>
-  <si>
     <t>סלק בוואקום (מארז)</t>
-  </si>
-  <si>
-    <t>עגבניה מגי (מארז)</t>
   </si>
   <si>
     <t>עגבניה מובחרת</t>
@@ -782,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -2335,19 +2329,19 @@
         <v>121</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>121</v>
@@ -2356,7 +2350,7 @@
         <v>15</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J39" s="1">
         <f>C39 - F39</f>
@@ -2376,19 +2370,19 @@
         <v>122</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>122</v>
@@ -2397,7 +2391,7 @@
         <v>15</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J40" s="1">
         <f>C40 - F40</f>
@@ -2417,19 +2411,19 @@
         <v>123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>123</v>
@@ -2438,7 +2432,7 @@
         <v>15</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J41" s="1">
         <f>C41 - F41</f>
@@ -2455,31 +2449,31 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="J42" s="1">
         <f>C42 - F42</f>
@@ -2496,22 +2490,22 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>125</v>
@@ -2520,7 +2514,7 @@
         <v>15</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J43" s="1">
         <f>C43 - F43</f>
@@ -2537,31 +2531,31 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="J44" s="1">
         <f>C44 - F44</f>
@@ -2578,31 +2572,31 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J45" s="1">
         <f>C45 - F45</f>
@@ -2619,31 +2613,31 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>103</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="J46" s="1">
         <f>C46 - F46</f>
@@ -2660,31 +2654,31 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J47" s="1">
         <f>C47 - F47</f>
@@ -2701,31 +2695,31 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="J48" s="1">
         <f>C48 - F48</f>
@@ -2742,31 +2736,31 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>136</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="J49" s="1">
         <f>C49 - F49</f>
@@ -2783,31 +2777,31 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="J50" s="1">
         <f>C50 - F50</f>
@@ -2824,31 +2818,31 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="J51" s="1">
         <f>C51 - F51</f>
@@ -2865,31 +2859,31 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="J52" s="1">
         <f>C52 - F52</f>
@@ -2906,31 +2900,31 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="J53" s="1">
         <f>C53 - F53</f>
@@ -2947,22 +2941,22 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>147</v>
@@ -2971,7 +2965,7 @@
         <v>15</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="J54" s="1">
         <f>C54 - F54</f>
@@ -2988,31 +2982,31 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="J55" s="1">
         <f>C55 - F55</f>
@@ -3029,31 +3023,31 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="J56" s="1">
         <f>C56 - F56</f>
@@ -3070,31 +3064,31 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I57" s="1" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="J57" s="1">
         <f>C57 - F57</f>
@@ -3109,34 +3103,7 @@
         <f>C57 / I57 * 100</f>
       </c>
     </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>36</v>
-      </c>
+    <row r="58" spans="10:13">
       <c r="J58" s="1">
         <f>C58 - F58</f>
       </c>
@@ -3152,31 +3119,31 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>157</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="J59" s="1">
         <f>C59 - F59</f>
@@ -3191,7 +3158,34 @@
         <f>C59 / I59 * 100</f>
       </c>
     </row>
-    <row r="60" spans="10:13">
+    <row r="60" spans="1:13">
+      <c r="A60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="J60" s="1">
         <f>C60 - F60</f>
       </c>
@@ -3207,13 +3201,13 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
@@ -3225,13 +3219,13 @@
         <v>14</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J61" s="1">
         <f>C61 - F61</f>
@@ -3248,31 +3242,31 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J62" s="1">
         <f>C62 - F62</f>
@@ -3289,31 +3283,31 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J63" s="1">
         <f>C63 - F63</f>
@@ -3330,31 +3324,31 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="J64" s="1">
         <f>C64 - F64</f>
@@ -3371,31 +3365,31 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J65" s="1">
         <f>C65 - F65</f>
@@ -3412,31 +3406,31 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J66" s="1">
         <f>C66 - F66</f>
@@ -3453,31 +3447,31 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="J67" s="1">
         <f>C67 - F67</f>
@@ -3494,31 +3488,31 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J68" s="1">
         <f>C68 - F68</f>
@@ -3535,31 +3529,31 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="J69" s="1">
         <f>C69 - F69</f>
@@ -3576,31 +3570,31 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J70" s="1">
         <f>C70 - F70</f>
@@ -3617,31 +3611,31 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="J71" s="1">
         <f>C71 - F71</f>
@@ -3664,25 +3658,25 @@
         <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J72" s="1">
         <f>C72 - F72</f>
@@ -3699,31 +3693,31 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="J73" s="1">
         <f>C73 - F73</f>
@@ -3740,22 +3734,22 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>191</v>
@@ -3764,7 +3758,7 @@
         <v>26</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J74" s="1">
         <f>C74 - F74</f>
@@ -3787,16 +3781,16 @@
         <v>25</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>192</v>
@@ -3805,7 +3799,7 @@
         <v>26</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="J75" s="1">
         <f>C75 - F75</f>
@@ -3831,16 +3825,16 @@
         <v>48</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>26</v>
@@ -3863,31 +3857,31 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="J77" s="1">
         <f>C77 - F77</f>
@@ -3904,7 +3898,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>25</v>
@@ -3913,16 +3907,16 @@
         <v>48</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>26</v>
@@ -3945,31 +3939,31 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>200</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J79" s="1">
         <f>C79 - F79</f>
@@ -3989,22 +3983,22 @@
         <v>201</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>26</v>
@@ -4025,9 +4019,9 @@
         <f>C80 / I80 * 100</f>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>25</v>
@@ -4045,45 +4039,33 @@
         <v>14</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J81" s="1">
-        <f>C81 - F81</f>
-      </c>
-      <c r="K81" s="1">
-        <f>C81 - I81</f>
-      </c>
-      <c r="L81" s="1">
-        <f>C81 / F81 * 100</f>
-      </c>
-      <c r="M81" s="1">
-        <f>C81 / I81 * 100</f>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>204</v>
@@ -4092,77 +4074,7 @@
         <v>26</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J82" s="1">
-        <f>C82 - F82</f>
-      </c>
-      <c r="K82" s="1">
-        <f>C82 - I82</f>
-      </c>
-      <c r="L82" s="1">
-        <f>C82 / F82 * 100</f>
-      </c>
-      <c r="M82" s="1">
-        <f>C82 / I82 * 100</f>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -439,7 +439,13 @@
     <t>מלפפון מיני</t>
   </si>
   <si>
+    <t>סלק אדום</t>
+  </si>
+  <si>
     <t>סלק בוואקום (מארז)</t>
+  </si>
+  <si>
+    <t>עגבניה מגי (מארז)</t>
   </si>
   <si>
     <t>עגבניה מובחרת</t>
@@ -512,9 +518,6 @@
     <t>שום קלוף (מארז) 1 ק"ג</t>
   </si>
   <si>
-    <t>22.90</t>
-  </si>
-  <si>
     <t>שומר</t>
   </si>
   <si>
@@ -651,9 +654,21 @@
     <t>11.9</t>
   </si>
   <si>
+    <t>לוף/כרישה</t>
+  </si>
+  <si>
+    <t>לוף/כרישה (מארז)</t>
+  </si>
+  <si>
+    <t>18.9</t>
+  </si>
+  <si>
     <t>מרווה</t>
   </si>
   <si>
+    <t>נבטים סיניים</t>
+  </si>
+  <si>
     <t>נענע</t>
   </si>
   <si>
@@ -666,10 +681,19 @@
     <t>סלק עלים / מנגולד (מארז</t>
   </si>
   <si>
+    <t>סלרי עלים</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
     <t>סלרי ראש</t>
   </si>
   <si>
     <t>עירית</t>
+  </si>
+  <si>
+    <t>עלי תרד</t>
   </si>
   <si>
     <t>פטרוזיליה</t>
@@ -776,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -2329,19 +2353,19 @@
         <v>121</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>121</v>
@@ -2350,7 +2374,7 @@
         <v>15</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J39" s="1">
         <f>C39 - F39</f>
@@ -2370,19 +2394,19 @@
         <v>122</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>122</v>
@@ -2391,7 +2415,7 @@
         <v>15</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J40" s="1">
         <f>C40 - F40</f>
@@ -2411,19 +2435,19 @@
         <v>123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>123</v>
@@ -2432,7 +2456,7 @@
         <v>15</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J41" s="1">
         <f>C41 - F41</f>
@@ -2449,31 +2473,31 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="J42" s="1">
         <f>C42 - F42</f>
@@ -2490,22 +2514,22 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>125</v>
@@ -2514,7 +2538,7 @@
         <v>15</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J43" s="1">
         <f>C43 - F43</f>
@@ -2531,31 +2555,31 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="J44" s="1">
         <f>C44 - F44</f>
@@ -2572,31 +2596,31 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J45" s="1">
         <f>C45 - F45</f>
@@ -2613,31 +2637,31 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>103</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="J46" s="1">
         <f>C46 - F46</f>
@@ -2654,31 +2678,31 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J47" s="1">
         <f>C47 - F47</f>
@@ -2695,31 +2719,31 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="J48" s="1">
         <f>C48 - F48</f>
@@ -2736,31 +2760,31 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>136</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="J49" s="1">
         <f>C49 - F49</f>
@@ -2777,31 +2801,31 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="J50" s="1">
         <f>C50 - F50</f>
@@ -2818,31 +2842,31 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="J51" s="1">
         <f>C51 - F51</f>
@@ -2859,31 +2883,31 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="J52" s="1">
         <f>C52 - F52</f>
@@ -2900,31 +2924,31 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J53" s="1">
         <f>C53 - F53</f>
@@ -2941,31 +2965,31 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="J54" s="1">
         <f>C54 - F54</f>
@@ -2982,31 +3006,31 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="J55" s="1">
         <f>C55 - F55</f>
@@ -3023,31 +3047,31 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="J56" s="1">
         <f>C56 - F56</f>
@@ -3064,31 +3088,31 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="J57" s="1">
         <f>C57 - F57</f>
@@ -3103,7 +3127,34 @@
         <f>C57 / I57 * 100</f>
       </c>
     </row>
-    <row r="58" spans="10:13">
+    <row r="58" spans="1:13">
+      <c r="A58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="J58" s="1">
         <f>C58 - F58</f>
       </c>
@@ -3119,31 +3170,31 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="J59" s="1">
         <f>C59 - F59</f>
@@ -3158,34 +3209,7 @@
         <f>C59 / I59 * 100</f>
       </c>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="60" spans="10:13">
       <c r="J60" s="1">
         <f>C60 - F60</f>
       </c>
@@ -3201,13 +3225,13 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
@@ -3219,13 +3243,13 @@
         <v>14</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J61" s="1">
         <f>C61 - F61</f>
@@ -3242,31 +3266,31 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I62" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="J62" s="1">
         <f>C62 - F62</f>
@@ -3283,31 +3307,31 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J63" s="1">
         <f>C63 - F63</f>
@@ -3324,31 +3348,31 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J64" s="1">
         <f>C64 - F64</f>
@@ -3365,31 +3389,31 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="J65" s="1">
         <f>C65 - F65</f>
@@ -3406,31 +3430,31 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J66" s="1">
         <f>C66 - F66</f>
@@ -3447,31 +3471,31 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="J67" s="1">
         <f>C67 - F67</f>
@@ -3488,31 +3512,31 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J68" s="1">
         <f>C68 - F68</f>
@@ -3529,31 +3553,31 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="J69" s="1">
         <f>C69 - F69</f>
@@ -3570,31 +3594,31 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J70" s="1">
         <f>C70 - F70</f>
@@ -3611,31 +3635,31 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="J71" s="1">
         <f>C71 - F71</f>
@@ -3652,31 +3676,31 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G72" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="J72" s="1">
         <f>C72 - F72</f>
@@ -3693,7 +3717,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>25</v>
@@ -3702,16 +3726,16 @@
         <v>48</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>26</v>
@@ -3734,31 +3758,31 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J74" s="1">
         <f>C74 - F74</f>
@@ -3775,31 +3799,31 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J75" s="1">
         <f>C75 - F75</f>
@@ -3816,22 +3840,22 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>194</v>
@@ -3840,7 +3864,7 @@
         <v>26</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J76" s="1">
         <f>C76 - F76</f>
@@ -3863,25 +3887,25 @@
         <v>25</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J77" s="1">
         <f>C77 - F77</f>
@@ -3898,7 +3922,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>25</v>
@@ -3907,16 +3931,16 @@
         <v>48</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>26</v>
@@ -3939,7 +3963,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>25</v>
@@ -3948,16 +3972,16 @@
         <v>48</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>26</v>
@@ -3980,13 +4004,13 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
@@ -3998,13 +4022,13 @@
         <v>14</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="J80" s="1">
         <f>C80 - F80</f>
@@ -4019,62 +4043,308 @@
         <f>C80 / I80 * 100</f>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J81" s="1">
+        <f>C81 - F81</f>
+      </c>
+      <c r="K81" s="1">
+        <f>C81 - I81</f>
+      </c>
+      <c r="L81" s="1">
+        <f>C81 / F81 * 100</f>
+      </c>
+      <c r="M81" s="1">
+        <f>C81 / I81 * 100</f>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>180</v>
+        <v>48</v>
+      </c>
+      <c r="J82" s="1">
+        <f>C82 - F82</f>
+      </c>
+      <c r="K82" s="1">
+        <f>C82 - I82</f>
+      </c>
+      <c r="L82" s="1">
+        <f>C82 / F82 * 100</f>
+      </c>
+      <c r="M82" s="1">
+        <f>C82 / I82 * 100</f>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J83" s="1">
+        <f>C83 - F83</f>
+      </c>
+      <c r="K83" s="1">
+        <f>C83 - I83</f>
+      </c>
+      <c r="L83" s="1">
+        <f>C83 / F83 * 100</f>
+      </c>
+      <c r="M83" s="1">
+        <f>C83 / I83 * 100</f>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J84" s="1">
+        <f>C84 - F84</f>
+      </c>
+      <c r="K84" s="1">
+        <f>C84 - I84</f>
+      </c>
+      <c r="L84" s="1">
+        <f>C84 / F84 * 100</f>
+      </c>
+      <c r="M84" s="1">
+        <f>C84 / I84 * 100</f>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J85" s="1">
+        <f>C85 - F85</f>
+      </c>
+      <c r="K85" s="1">
+        <f>C85 - I85</f>
+      </c>
+      <c r="L85" s="1">
+        <f>C85 / F85 * 100</f>
+      </c>
+      <c r="M85" s="1">
+        <f>C85 / I85 * 100</f>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J86" s="1">
+        <f>C86 - F86</f>
+      </c>
+      <c r="K86" s="1">
+        <f>C86 - I86</f>
+      </c>
+      <c r="L86" s="1">
+        <f>C86 / F86 * 100</f>
+      </c>
+      <c r="M86" s="1">
+        <f>C86 / I86 * 100</f>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -124,9 +124,6 @@
     </r>
   </si>
   <si>
-    <t>13.90</t>
-  </si>
-  <si>
     <t>חצי אבטיח</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
   </si>
   <si>
     <t>14.90</t>
-  </si>
-  <si>
-    <t>15.9</t>
   </si>
   <si>
     <t>ליים אמיתי</t>
@@ -174,7 +168,7 @@
     <t>מלון כתום</t>
   </si>
   <si>
-    <t>4.90</t>
+    <t>6.90</t>
   </si>
   <si>
     <r>
@@ -192,13 +186,7 @@
     <t>מלון ספרדי מתוק</t>
   </si>
   <si>
-    <t>6.90</t>
-  </si>
-  <si>
     <t>מלון ספרדי</t>
-  </si>
-  <si>
-    <t>8.9</t>
   </si>
   <si>
     <t>מנגו</t>
@@ -258,7 +246,7 @@
     </r>
   </si>
   <si>
-    <t>ענבים שחורים 'סייבל- טלי'
+    <t>ענבים שחורים 'אדורה - טלי'
 (מארז כ- 1.5 ק"ג)</t>
   </si>
   <si>
@@ -292,16 +280,16 @@
     <t>שזיף אדום</t>
   </si>
   <si>
-    <t>19.9</t>
-  </si>
-  <si>
-    <t>תפוז למיץ</t>
-  </si>
-  <si>
-    <t>8.90</t>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">24.9</t>
+    </r>
   </si>
   <si>
     <t>תפוח חרמון</t>
+  </si>
+  <si>
+    <t>13.90</t>
   </si>
   <si>
     <r>
@@ -339,7 +327,7 @@
   <si>
     <r>
       <rPr/>
-      <t xml:space="preserve">17.9</t>
+      <t xml:space="preserve">16.9</t>
     </r>
   </si>
   <si>
@@ -364,6 +352,9 @@
     </r>
   </si>
   <si>
+    <t>8.90</t>
+  </si>
+  <si>
     <t>בצלצלי שאלוט (מארז)</t>
   </si>
   <si>
@@ -388,6 +379,9 @@
     </r>
   </si>
   <si>
+    <t>4.90</t>
+  </si>
+  <si>
     <t>דואט פטריות (מארז)</t>
   </si>
   <si>
@@ -403,9 +397,6 @@
     </r>
   </si>
   <si>
-    <t>9.90</t>
-  </si>
-  <si>
     <t>כרוב לבן</t>
   </si>
   <si>
@@ -427,6 +418,9 @@
     <t>מלפפון מובחר</t>
   </si>
   <si>
+    <t>9.90</t>
+  </si>
+  <si>
     <r>
       <rPr/>
       <t xml:space="preserve">12.9</t>
@@ -500,9 +494,6 @@
     <t>קישוא</t>
   </si>
   <si>
-    <t>10.90</t>
-  </si>
-  <si>
     <t>ראש שום</t>
   </si>
   <si>
@@ -518,25 +509,22 @@
     <t>שום קלוף (מארז) 1 ק"ג</t>
   </si>
   <si>
+    <t>22.90</t>
+  </si>
+  <si>
     <t>שומר</t>
-  </si>
-  <si>
-    <t>שומר (נקבה)</t>
-  </si>
-  <si>
-    <t>שמפניון (מארז)</t>
-  </si>
-  <si>
-    <t>שעועית ירוקה</t>
   </si>
   <si>
     <r>
       <rPr/>
-      <t xml:space="preserve">24.9</t>
+      <t xml:space="preserve">17.9</t>
     </r>
   </si>
   <si>
-    <t>25.90</t>
+    <t>שומר (נקבה)</t>
+  </si>
+  <si>
+    <t>שמפניון (מארז)</t>
   </si>
   <si>
     <t>תירס (מארז)</t>
@@ -600,6 +588,9 @@
     <t>6.9</t>
   </si>
   <si>
+    <t>ברוקולי</t>
+  </si>
+  <si>
     <t>ג'ינג'ר</t>
   </si>
   <si>
@@ -628,6 +619,9 @@
   </si>
   <si>
     <t>חסה עגולה אייסברג</t>
+  </si>
+  <si>
+    <t>8.9</t>
   </si>
   <si>
     <t>כוסברה</t>
@@ -800,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1048,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1">
         <f>C6 - F6</f>
@@ -1065,14 +1059,14 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,13 +1077,13 @@
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="1">
         <f>C7 - F7</f>
@@ -1106,31 +1100,31 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J8" s="1">
         <f>C8 - F8</f>
@@ -1147,31 +1141,31 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1">
         <f>C9 - F9</f>
@@ -1188,31 +1182,31 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1">
         <f>C10 - F10</f>
@@ -1229,31 +1223,31 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1">
         <f>C11 - F11</f>
@@ -1270,31 +1264,31 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J12" s="1">
         <f>C12 - F12</f>
@@ -1311,7 +1305,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1320,7 +1314,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -1329,7 +1323,7 @@
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>15</v>
@@ -1352,13 +1346,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
@@ -1370,13 +1364,13 @@
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J14" s="1">
         <f>C14 - F14</f>
@@ -1393,7 +1387,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
@@ -1402,16 +1396,16 @@
         <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>15</v>
@@ -1434,31 +1428,31 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J16" s="1">
         <f>C16 - F16</f>
@@ -1475,31 +1469,31 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J17" s="1">
         <f>C17 - F17</f>
@@ -1516,22 +1510,22 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>14</v>
@@ -1557,13 +1551,13 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
@@ -1575,13 +1569,13 @@
         <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J19" s="1">
         <f>C19 - F19</f>
@@ -1598,7 +1592,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
@@ -1607,16 +1601,16 @@
         <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>15</v>
@@ -1639,31 +1633,31 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1">
         <f>C21 - F21</f>
@@ -1680,31 +1674,31 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="J22" s="1">
         <f>C22 - F22</f>
@@ -1721,31 +1715,31 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1">
         <f>C23 - F23</f>
@@ -1760,34 +1754,7 @@
         <f>C23 / I23 * 100</f>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="24" spans="10:13">
       <c r="J24" s="1">
         <f>C24 - F24</f>
       </c>
@@ -1801,7 +1768,34 @@
         <f>C24 / I24 * 100</f>
       </c>
     </row>
-    <row r="25" spans="10:13">
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="J25" s="1">
         <f>C25 - F25</f>
       </c>
@@ -1817,31 +1811,31 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J26" s="1">
         <f>C26 - F26</f>
@@ -1858,31 +1852,31 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J27" s="1">
         <f>C27 - F27</f>
@@ -1899,31 +1893,31 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="J28" s="1">
         <f>C28 - F28</f>
@@ -1940,31 +1934,31 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="J29" s="1">
         <f>C29 - F29</f>
@@ -1981,31 +1975,31 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="J30" s="1">
         <f>C30 - F30</f>
@@ -2025,28 +2019,28 @@
         <v>104</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J31" s="1">
         <f>C31 - F31</f>
@@ -2063,31 +2057,31 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="J32" s="1">
         <f>C32 - F32</f>
@@ -2104,31 +2098,31 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J33" s="1">
         <f>C33 - F33</f>
@@ -2145,31 +2139,31 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J34" s="1">
         <f>C34 - F34</f>
@@ -2186,31 +2180,31 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="J35" s="1">
         <f>C35 - F35</f>
@@ -2227,31 +2221,31 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="J36" s="1">
         <f>C36 - F36</f>
@@ -2268,31 +2262,31 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>117</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J37" s="1">
         <f>C37 - F37</f>
@@ -2309,31 +2303,31 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="J38" s="1">
         <f>C38 - F38</f>
@@ -2350,31 +2344,31 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="J39" s="1">
         <f>C39 - F39</f>
@@ -2391,13 +2385,13 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
@@ -2409,13 +2403,13 @@
         <v>14</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J40" s="1">
         <f>C40 - F40</f>
@@ -2432,31 +2426,31 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="J41" s="1">
         <f>C41 - F41</f>
@@ -2473,31 +2467,31 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J42" s="1">
         <f>C42 - F42</f>
@@ -2514,31 +2508,31 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>126</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J43" s="1">
         <f>C43 - F43</f>
@@ -2555,31 +2549,31 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J44" s="1">
         <f>C44 - F44</f>
@@ -2596,31 +2590,31 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="J45" s="1">
         <f>C45 - F45</f>
@@ -2637,31 +2631,31 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J46" s="1">
         <f>C46 - F46</f>
@@ -2678,31 +2672,31 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="J47" s="1">
         <f>C47 - F47</f>
@@ -2719,31 +2713,31 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="J48" s="1">
         <f>C48 - F48</f>
@@ -2760,31 +2754,31 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J49" s="1">
         <f>C49 - F49</f>
@@ -2801,31 +2795,31 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="J50" s="1">
         <f>C50 - F50</f>
@@ -2842,31 +2836,31 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="J51" s="1">
         <f>C51 - F51</f>
@@ -2883,13 +2877,13 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
@@ -2904,10 +2898,10 @@
         <v>140</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J52" s="1">
         <f>C52 - F52</f>
@@ -2924,31 +2918,31 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>144</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="J53" s="1">
         <f>C53 - F53</f>
@@ -2968,28 +2962,28 @@
         <v>145</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="J54" s="1">
         <f>C54 - F54</f>
@@ -3006,31 +3000,31 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>147</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="J55" s="1">
         <f>C55 - F55</f>
@@ -3053,16 +3047,16 @@
         <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>148</v>
@@ -3071,7 +3065,7 @@
         <v>15</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="J56" s="1">
         <f>C56 - F56</f>
@@ -3088,31 +3082,31 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="J57" s="1">
         <f>C57 - F57</f>
@@ -3127,34 +3121,7 @@
         <f>C57 / I57 * 100</f>
       </c>
     </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>36</v>
-      </c>
+    <row r="58" spans="10:13">
       <c r="J58" s="1">
         <f>C58 - F58</f>
       </c>
@@ -3170,31 +3137,31 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="J59" s="1">
         <f>C59 - F59</f>
@@ -3209,7 +3176,34 @@
         <f>C59 / I59 * 100</f>
       </c>
     </row>
-    <row r="60" spans="10:13">
+    <row r="60" spans="1:13">
+      <c r="A60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="J60" s="1">
         <f>C60 - F60</f>
       </c>
@@ -3225,13 +3219,13 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
@@ -3243,13 +3237,13 @@
         <v>14</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J61" s="1">
         <f>C61 - F61</f>
@@ -3266,31 +3260,31 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>160</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="J62" s="1">
         <f>C62 - F62</f>
@@ -3313,25 +3307,25 @@
         <v>25</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="J63" s="1">
         <f>C63 - F63</f>
@@ -3348,31 +3342,31 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J64" s="1">
         <f>C64 - F64</f>
@@ -3389,31 +3383,31 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J65" s="1">
         <f>C65 - F65</f>
@@ -3430,31 +3424,31 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="H66" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="J66" s="1">
         <f>C66 - F66</f>
@@ -3474,28 +3468,28 @@
         <v>171</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="H67" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J67" s="1">
         <f>C67 - F67</f>
@@ -3515,19 +3509,19 @@
         <v>175</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>175</v>
@@ -3536,7 +3530,7 @@
         <v>26</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="J68" s="1">
         <f>C68 - F68</f>
@@ -3553,31 +3547,31 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="E69" s="1" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>180</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="J69" s="1">
         <f>C69 - F69</f>
@@ -3594,31 +3588,31 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="G70" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="J70" s="1">
         <f>C70 - F70</f>
@@ -3635,31 +3629,31 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>184</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>185</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="J71" s="1">
         <f>C71 - F71</f>
@@ -3682,25 +3676,25 @@
         <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>186</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="J72" s="1">
         <f>C72 - F72</f>
@@ -3717,31 +3711,31 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J73" s="1">
         <f>C73 - F73</f>
@@ -3758,31 +3752,31 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="J74" s="1">
         <f>C74 - F74</f>
@@ -3799,22 +3793,22 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>191</v>
@@ -3823,7 +3817,7 @@
         <v>26</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="J75" s="1">
         <f>C75 - F75</f>
@@ -3846,25 +3840,25 @@
         <v>25</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G76" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="J76" s="1">
         <f>C76 - F76</f>
@@ -3881,31 +3875,31 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="J77" s="1">
         <f>C77 - F77</f>
@@ -3922,31 +3916,31 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="J78" s="1">
         <f>C78 - F78</f>
@@ -3963,31 +3957,31 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="J79" s="1">
         <f>C79 - F79</f>
@@ -4004,31 +3998,31 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="J80" s="1">
         <f>C80 - F80</f>
@@ -4045,31 +4039,31 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="J81" s="1">
         <f>C81 - F81</f>
@@ -4086,31 +4080,31 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J82" s="1">
         <f>C82 - F82</f>
@@ -4127,31 +4121,31 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="H83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="J83" s="1">
         <f>C83 - F83</f>
@@ -4168,31 +4162,31 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="J84" s="1">
         <f>C84 - F84</f>
@@ -4209,13 +4203,13 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
@@ -4227,13 +4221,13 @@
         <v>14</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="J85" s="1">
         <f>C85 - F85</f>
@@ -4248,15 +4242,15 @@
         <f>C85 / I85 * 100</f>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
@@ -4268,83 +4262,42 @@
         <v>14</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J86" s="1">
-        <f>C86 - F86</f>
-      </c>
-      <c r="K86" s="1">
-        <f>C86 - I86</f>
-      </c>
-      <c r="L86" s="1">
-        <f>C86 / F86 * 100</f>
-      </c>
-      <c r="M86" s="1">
-        <f>C86 / I86 * 100</f>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -124,6 +124,12 @@
     </r>
   </si>
   <si>
+    <t>דובדבן (מארז 250 גרם)</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>חצי אבטיח</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>29.90</t>
   </si>
   <si>
+    <t>משמש בלדי</t>
+  </si>
+  <si>
     <t>נקטרינה</t>
   </si>
   <si>
@@ -271,10 +280,10 @@
     <t>קלמנטינה</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>11.90</t>
+  </si>
+  <si>
+    <t>רבע אבטיח</t>
   </si>
   <si>
     <t>שזיף אדום</t>
@@ -286,10 +295,19 @@
     </r>
   </si>
   <si>
+    <t>שסק</t>
+  </si>
+  <si>
+    <t>תות</t>
+  </si>
+  <si>
+    <t>תפוז ענק</t>
+  </si>
+  <si>
+    <t>13.90</t>
+  </si>
+  <si>
     <t>תפוח חרמון</t>
-  </si>
-  <si>
-    <t>13.90</t>
   </si>
   <si>
     <r>
@@ -409,6 +427,9 @@
     </r>
   </si>
   <si>
+    <t>לימון</t>
+  </si>
+  <si>
     <t>מיקס פטריות (מארז)</t>
   </si>
   <si>
@@ -445,6 +466,12 @@
     <t>עגבניה מובחרת</t>
   </si>
   <si>
+    <t>עגבניות מיובשות</t>
+  </si>
+  <si>
+    <t>פטריות פורטובלו (מארז)</t>
+  </si>
+  <si>
     <t>פלפל אדום</t>
   </si>
   <si>
@@ -503,6 +530,9 @@
     <t>2.475</t>
   </si>
   <si>
+    <t>שום ארוז</t>
+  </si>
+  <si>
     <t>שום קלוף (מארז)</t>
   </si>
   <si>
@@ -527,10 +557,28 @@
     <t>שמפניון (מארז)</t>
   </si>
   <si>
+    <t>שרי אדום (מארז)</t>
+  </si>
+  <si>
+    <t>שרי טריפל (מארז)</t>
+  </si>
+  <si>
+    <t>שרי צהוב (מארז)</t>
+  </si>
+  <si>
+    <t>10.90</t>
+  </si>
+  <si>
+    <t>שרי שוקו (מארז)</t>
+  </si>
+  <si>
     <t>תירס (מארז)</t>
   </si>
   <si>
     <t>תירס (מארז) "סיוון"</t>
+  </si>
+  <si>
+    <t>תפו"א למיקרוגל (מארז)</t>
   </si>
   <si>
     <t>תפוח אדמה אדום</t>
@@ -685,6 +733,9 @@
   </si>
   <si>
     <t>עירית</t>
+  </si>
+  <si>
+    <t>עלי בייבי</t>
   </si>
   <si>
     <t>עלי תרד</t>
@@ -794,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1077,13 +1128,13 @@
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1">
         <f>C7 - F7</f>
@@ -1100,31 +1151,31 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1">
         <f>C8 - F8</f>
@@ -1141,28 +1192,28 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>41</v>
@@ -1182,31 +1233,31 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J10" s="1">
         <f>C10 - F10</f>
@@ -1223,31 +1274,31 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J11" s="1">
         <f>C11 - F11</f>
@@ -1270,25 +1321,25 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1">
         <f>C12 - F12</f>
@@ -1305,22 +1356,22 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>57</v>
@@ -1329,7 +1380,7 @@
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="J13" s="1">
         <f>C13 - F13</f>
@@ -1346,13 +1397,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
@@ -1364,13 +1415,13 @@
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1">
         <f>C14 - F14</f>
@@ -1387,31 +1438,31 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1">
         <f>C15 - F15</f>
@@ -1428,31 +1479,31 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1">
         <f>C16 - F16</f>
@@ -1469,31 +1520,31 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="J17" s="1">
         <f>C17 - F17</f>
@@ -1510,31 +1561,31 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="J18" s="1">
         <f>C18 - F18</f>
@@ -1551,31 +1602,31 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J19" s="1">
         <f>C19 - F19</f>
@@ -1592,31 +1643,31 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1">
         <f>C20 - F20</f>
@@ -1633,31 +1684,31 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="J21" s="1">
         <f>C21 - F21</f>
@@ -1674,31 +1725,31 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1">
         <f>C22 - F22</f>
@@ -1715,25 +1766,25 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>15</v>
@@ -1754,7 +1805,34 @@
         <f>C23 / I23 * 100</f>
       </c>
     </row>
-    <row r="24" spans="10:13">
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="J24" s="1">
         <f>C24 - F24</f>
       </c>
@@ -1770,13 +1848,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -1788,13 +1866,13 @@
         <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1">
         <f>C25 - F25</f>
@@ -1811,31 +1889,31 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1">
         <f>C26 - F26</f>
@@ -1852,31 +1930,31 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1">
         <f>C27 - F27</f>
@@ -1893,31 +1971,31 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="J28" s="1">
         <f>C28 - F28</f>
@@ -1934,31 +2012,31 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J29" s="1">
         <f>C29 - F29</f>
@@ -1973,34 +2051,7 @@
         <f>C29 / I29 * 100</f>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>103</v>
-      </c>
+    <row r="30" spans="10:13">
       <c r="J30" s="1">
         <f>C30 - F30</f>
       </c>
@@ -2016,13 +2067,13 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
@@ -2034,13 +2085,13 @@
         <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J31" s="1">
         <f>C31 - F31</f>
@@ -2057,31 +2108,31 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="J32" s="1">
         <f>C32 - F32</f>
@@ -2098,31 +2149,31 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="J33" s="1">
         <f>C33 - F33</f>
@@ -2139,31 +2190,31 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="J34" s="1">
         <f>C34 - F34</f>
@@ -2180,31 +2231,31 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="J35" s="1">
         <f>C35 - F35</f>
@@ -2221,31 +2272,31 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="J36" s="1">
         <f>C36 - F36</f>
@@ -2262,13 +2313,13 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
@@ -2280,13 +2331,13 @@
         <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J37" s="1">
         <f>C37 - F37</f>
@@ -2303,31 +2354,31 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="J38" s="1">
         <f>C38 - F38</f>
@@ -2344,31 +2395,31 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J39" s="1">
         <f>C39 - F39</f>
@@ -2385,31 +2436,31 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="J40" s="1">
         <f>C40 - F40</f>
@@ -2426,31 +2477,31 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="J41" s="1">
         <f>C41 - F41</f>
@@ -2467,31 +2518,31 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="J42" s="1">
         <f>C42 - F42</f>
@@ -2508,31 +2559,31 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J43" s="1">
         <f>C43 - F43</f>
@@ -2549,31 +2600,31 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>124</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J44" s="1">
         <f>C44 - F44</f>
@@ -2590,31 +2641,31 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J45" s="1">
         <f>C45 - F45</f>
@@ -2631,31 +2682,31 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="J46" s="1">
         <f>C46 - F46</f>
@@ -2672,13 +2723,13 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
@@ -2690,13 +2741,13 @@
         <v>14</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="J47" s="1">
         <f>C47 - F47</f>
@@ -2713,31 +2764,31 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="J48" s="1">
         <f>C48 - F48</f>
@@ -2754,31 +2805,31 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="J49" s="1">
         <f>C49 - F49</f>
@@ -2795,31 +2846,31 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="J50" s="1">
         <f>C50 - F50</f>
@@ -2836,31 +2887,31 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="J51" s="1">
         <f>C51 - F51</f>
@@ -2877,31 +2928,31 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="J52" s="1">
         <f>C52 - F52</f>
@@ -2918,31 +2969,31 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="J53" s="1">
         <f>C53 - F53</f>
@@ -2959,31 +3010,31 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J54" s="1">
         <f>C54 - F54</f>
@@ -3000,31 +3051,31 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="J55" s="1">
         <f>C55 - F55</f>
@@ -3041,31 +3092,31 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="J56" s="1">
         <f>C56 - F56</f>
@@ -3082,31 +3133,31 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="J57" s="1">
         <f>C57 - F57</f>
@@ -3121,7 +3172,34 @@
         <f>C57 / I57 * 100</f>
       </c>
     </row>
-    <row r="58" spans="10:13">
+    <row r="58" spans="1:13">
+      <c r="A58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="J58" s="1">
         <f>C58 - F58</f>
       </c>
@@ -3137,31 +3215,31 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="J59" s="1">
         <f>C59 - F59</f>
@@ -3178,13 +3256,13 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
@@ -3196,13 +3274,13 @@
         <v>14</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="J60" s="1">
         <f>C60 - F60</f>
@@ -3219,13 +3297,13 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
@@ -3237,13 +3315,13 @@
         <v>14</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="J61" s="1">
         <f>C61 - F61</f>
@@ -3260,31 +3338,31 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="J62" s="1">
         <f>C62 - F62</f>
@@ -3301,31 +3379,31 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J63" s="1">
         <f>C63 - F63</f>
@@ -3342,31 +3420,31 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J64" s="1">
         <f>C64 - F64</f>
@@ -3383,31 +3461,31 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="J65" s="1">
         <f>C65 - F65</f>
@@ -3424,31 +3502,31 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="J66" s="1">
         <f>C66 - F66</f>
@@ -3465,31 +3543,31 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J67" s="1">
         <f>C67 - F67</f>
@@ -3506,31 +3584,31 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="J68" s="1">
         <f>C68 - F68</f>
@@ -3547,31 +3625,31 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J69" s="1">
         <f>C69 - F69</f>
@@ -3588,31 +3666,31 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="J70" s="1">
         <f>C70 - F70</f>
@@ -3629,31 +3707,31 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J71" s="1">
         <f>C71 - F71</f>
@@ -3670,31 +3748,31 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="J72" s="1">
         <f>C72 - F72</f>
@@ -3709,34 +3787,7 @@
         <f>C72 / I72 * 100</f>
       </c>
     </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="73" spans="10:13">
       <c r="J73" s="1">
         <f>C73 - F73</f>
       </c>
@@ -3752,31 +3803,31 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="J74" s="1">
         <f>C74 - F74</f>
@@ -3793,31 +3844,31 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J75" s="1">
         <f>C75 - F75</f>
@@ -3834,31 +3885,31 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J76" s="1">
         <f>C76 - F76</f>
@@ -3875,31 +3926,31 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="J77" s="1">
         <f>C77 - F77</f>
@@ -3916,31 +3967,31 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J78" s="1">
         <f>C78 - F78</f>
@@ -3957,13 +4008,13 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>14</v>
@@ -3975,13 +4026,13 @@
         <v>14</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="J79" s="1">
         <f>C79 - F79</f>
@@ -3998,31 +4049,31 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="J80" s="1">
         <f>C80 - F80</f>
@@ -4039,31 +4090,31 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="J81" s="1">
         <f>C81 - F81</f>
@@ -4080,31 +4131,31 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J82" s="1">
         <f>C82 - F82</f>
@@ -4121,31 +4172,31 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="J83" s="1">
         <f>C83 - F83</f>
@@ -4162,31 +4213,31 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="J84" s="1">
         <f>C84 - F84</f>
@@ -4203,31 +4254,31 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="J85" s="1">
         <f>C85 - F85</f>
@@ -4242,62 +4293,718 @@
         <f>C85 / I85 * 100</f>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J86" s="1">
+        <f>C86 - F86</f>
+      </c>
+      <c r="K86" s="1">
+        <f>C86 - I86</f>
+      </c>
+      <c r="L86" s="1">
+        <f>C86 / F86 * 100</f>
+      </c>
+      <c r="M86" s="1">
+        <f>C86 / I86 * 100</f>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I87" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J87" s="1">
+        <f>C87 - F87</f>
+      </c>
+      <c r="K87" s="1">
+        <f>C87 - I87</f>
+      </c>
+      <c r="L87" s="1">
+        <f>C87 / F87 * 100</f>
+      </c>
+      <c r="M87" s="1">
+        <f>C87 / I87 * 100</f>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J88" s="1">
+        <f>C88 - F88</f>
+      </c>
+      <c r="K88" s="1">
+        <f>C88 - I88</f>
+      </c>
+      <c r="L88" s="1">
+        <f>C88 / F88 * 100</f>
+      </c>
+      <c r="M88" s="1">
+        <f>C88 / I88 * 100</f>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>178</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J89" s="1">
+        <f>C89 - F89</f>
+      </c>
+      <c r="K89" s="1">
+        <f>C89 - I89</f>
+      </c>
+      <c r="L89" s="1">
+        <f>C89 / F89 * 100</f>
+      </c>
+      <c r="M89" s="1">
+        <f>C89 / I89 * 100</f>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J90" s="1">
+        <f>C90 - F90</f>
+      </c>
+      <c r="K90" s="1">
+        <f>C90 - I90</f>
+      </c>
+      <c r="L90" s="1">
+        <f>C90 / F90 * 100</f>
+      </c>
+      <c r="M90" s="1">
+        <f>C90 / I90 * 100</f>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J91" s="1">
+        <f>C91 - F91</f>
+      </c>
+      <c r="K91" s="1">
+        <f>C91 - I91</f>
+      </c>
+      <c r="L91" s="1">
+        <f>C91 / F91 * 100</f>
+      </c>
+      <c r="M91" s="1">
+        <f>C91 / I91 * 100</f>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J92" s="1">
+        <f>C92 - F92</f>
+      </c>
+      <c r="K92" s="1">
+        <f>C92 - I92</f>
+      </c>
+      <c r="L92" s="1">
+        <f>C92 / F92 * 100</f>
+      </c>
+      <c r="M92" s="1">
+        <f>C92 / I92 * 100</f>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J93" s="1">
+        <f>C93 - F93</f>
+      </c>
+      <c r="K93" s="1">
+        <f>C93 - I93</f>
+      </c>
+      <c r="L93" s="1">
+        <f>C93 / F93 * 100</f>
+      </c>
+      <c r="M93" s="1">
+        <f>C93 / I93 * 100</f>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" s="1">
+        <f>C94 - F94</f>
+      </c>
+      <c r="K94" s="1">
+        <f>C94 - I94</f>
+      </c>
+      <c r="L94" s="1">
+        <f>C94 / F94 * 100</f>
+      </c>
+      <c r="M94" s="1">
+        <f>C94 / I94 * 100</f>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J95" s="1">
+        <f>C95 - F95</f>
+      </c>
+      <c r="K95" s="1">
+        <f>C95 - I95</f>
+      </c>
+      <c r="L95" s="1">
+        <f>C95 / F95 * 100</f>
+      </c>
+      <c r="M95" s="1">
+        <f>C95 / I95 * 100</f>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J96" s="1">
+        <f>C96 - F96</f>
+      </c>
+      <c r="K96" s="1">
+        <f>C96 - I96</f>
+      </c>
+      <c r="L96" s="1">
+        <f>C96 / F96 * 100</f>
+      </c>
+      <c r="M96" s="1">
+        <f>C96 / I96 * 100</f>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J97" s="1">
+        <f>C97 - F97</f>
+      </c>
+      <c r="K97" s="1">
+        <f>C97 - I97</f>
+      </c>
+      <c r="L97" s="1">
+        <f>C97 / F97 * 100</f>
+      </c>
+      <c r="M97" s="1">
+        <f>C97 / I97 * 100</f>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J98" s="1">
+        <f>C98 - F98</f>
+      </c>
+      <c r="K98" s="1">
+        <f>C98 - I98</f>
+      </c>
+      <c r="L98" s="1">
+        <f>C98 / F98 * 100</f>
+      </c>
+      <c r="M98" s="1">
+        <f>C98 / I98 * 100</f>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J99" s="1">
+        <f>C99 - F99</f>
+      </c>
+      <c r="K99" s="1">
+        <f>C99 - I99</f>
+      </c>
+      <c r="L99" s="1">
+        <f>C99 / F99 * 100</f>
+      </c>
+      <c r="M99" s="1">
+        <f>C99 / I99 * 100</f>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J100" s="1">
+        <f>C100 - F100</f>
+      </c>
+      <c r="K100" s="1">
+        <f>C100 - I100</f>
+      </c>
+      <c r="L100" s="1">
+        <f>C100 / F100 * 100</f>
+      </c>
+      <c r="M100" s="1">
+        <f>C100 / I100 * 100</f>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J101" s="1">
+        <f>C101 - F101</f>
+      </c>
+      <c r="K101" s="1">
+        <f>C101 - I101</f>
+      </c>
+      <c r="L101" s="1">
+        <f>C101 / F101 * 100</f>
+      </c>
+      <c r="M101" s="1">
+        <f>C101 / I101 * 100</f>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -1948,13 +1948,13 @@
         <v>87</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="J27" s="1">
         <f>C27 - F27</f>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -85,16 +85,37 @@
     <t>19.90</t>
   </si>
   <si>
+    <t>אוכמניות (מארז)</t>
+  </si>
+  <si>
+    <t>23.90</t>
+  </si>
+  <si>
+    <t>מארז</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">29.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">מארז</t>
+    </r>
+  </si>
+  <si>
+    <t>24.90</t>
+  </si>
+  <si>
     <t>אננס</t>
   </si>
   <si>
-    <t>37.90</t>
-  </si>
-  <si>
-    <t>אננס טבעי- 200 ג׳</t>
-  </si>
-  <si>
-    <t>מארז</t>
+    <t>35.90</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <r>
@@ -127,43 +148,52 @@
     <t>דובדבן (מארז 250 גרם)</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>חצי אבטיח</t>
   </si>
   <si>
     <t>5.50</t>
-  </si>
-  <si>
-    <t>5.90</t>
-  </si>
-  <si>
-    <t>ליים</t>
-  </si>
-  <si>
-    <t>14.90</t>
-  </si>
-  <si>
-    <t>ליים אמיתי</t>
-  </si>
-  <si>
-    <t>15.90</t>
-  </si>
-  <si>
-    <t>מארז תמר מג'הול (בונבון) - 400 גרם</t>
-  </si>
-  <si>
-    <t>24.90</t>
-  </si>
-  <si>
-    <t>מארז תמר מג'הול 500 גרם</t>
   </si>
   <si>
     <r>
       <rPr/>
-      <t xml:space="preserve">29.9</t>
+      <t xml:space="preserve">6.9</t>
     </r>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>ליים</t>
+  </si>
+  <si>
+    <t>15.90</t>
+  </si>
+  <si>
+    <t>ליים אמיתי</t>
+  </si>
+  <si>
+    <t>לימון</t>
+  </si>
+  <si>
+    <t>14.90</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">16.9</t>
+    </r>
+  </si>
+  <si>
+    <t>לימון צהוב</t>
+  </si>
+  <si>
+    <t>16.90</t>
+  </si>
+  <si>
+    <t>מארז תמר מג'הול (בונבון) - 400 גרם</t>
+  </si>
+  <si>
+    <t>מארז תמר מג'הול 500 גרם</t>
   </si>
   <si>
     <t>מארז תמר מג'הול סופר עסיסי
@@ -198,18 +228,12 @@
     <t>מנגו</t>
   </si>
   <si>
-    <t>27.90</t>
-  </si>
-  <si>
     <t>מנגו ׳שלי׳</t>
   </si>
   <si>
     <t>מנגו 'מאיה'</t>
   </si>
   <si>
-    <t>29.90</t>
-  </si>
-  <si>
     <t>משמש בלדי</t>
   </si>
   <si>
@@ -217,19 +241,19 @@
   </si>
   <si>
     <t>ענבים אדומים</t>
-  </si>
-  <si>
-    <t>23.90</t>
   </si>
   <si>
     <t>ענבים אדומים 'טלי'
 (מארז כ- 1.2 ק"ג)</t>
   </si>
   <si>
+    <t>29.90</t>
+  </si>
+  <si>
     <t>ענבים ירוקים</t>
   </si>
   <si>
-    <t>ענבים ירוקים - ישראלי (כ-1.3 ק״ג)</t>
+    <t>ענבים ירוקים (1.3 ק"ג)</t>
   </si>
   <si>
     <r>
@@ -249,6 +273,9 @@
     <t>33.90</t>
   </si>
   <si>
+    <t>ענבים שחורים (1.2 ק"ג)</t>
+  </si>
+  <si>
     <r>
       <rPr/>
       <t xml:space="preserve">39.9</t>
@@ -259,7 +286,13 @@
 (מארז כ- 1.5 ק"ג)</t>
   </si>
   <si>
-    <t>35.90</t>
+    <t>פומלית</t>
+  </si>
+  <si>
+    <t>11.90</t>
+  </si>
+  <si>
+    <t>פסיפלורה (מארז כ - 500 גרם)</t>
   </si>
   <si>
     <t>קיווי ירוק</t>
@@ -280,10 +313,19 @@
     <t>קלמנטינה</t>
   </si>
   <si>
-    <t>11.90</t>
-  </si>
-  <si>
     <t>רבע אבטיח</t>
+  </si>
+  <si>
+    <t>רימון</t>
+  </si>
+  <si>
+    <t>9.90</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">17.9</t>
+    </r>
   </si>
   <si>
     <t>שזיף אדום</t>
@@ -307,6 +349,9 @@
     <t>13.90</t>
   </si>
   <si>
+    <t>תפוח גאלה</t>
+  </si>
+  <si>
     <t>תפוח חרמון</t>
   </si>
   <si>
@@ -343,12 +388,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">16.9</t>
-    </r>
-  </si>
-  <si>
     <t>בצל</t>
   </si>
   <si>
@@ -370,40 +409,22 @@
     </r>
   </si>
   <si>
-    <t>8.90</t>
-  </si>
-  <si>
     <t>בצלצלי שאלוט (מארז)</t>
   </si>
   <si>
     <t>בצלצלי שאלוט</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">מארז</t>
-    </r>
-  </si>
-  <si>
     <t>גזר</t>
   </si>
   <si>
     <t>גזר בתפזורת</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">6.9</t>
-    </r>
-  </si>
-  <si>
     <t>4.90</t>
   </si>
   <si>
     <t>דואט פטריות (מארז)</t>
-  </si>
-  <si>
-    <t>16.90</t>
   </si>
   <si>
     <t>חציל</t>
@@ -415,6 +436,9 @@
     </r>
   </si>
   <si>
+    <t>8.90</t>
+  </si>
+  <si>
     <t>כרוב לבן</t>
   </si>
   <si>
@@ -427,7 +451,16 @@
     </r>
   </si>
   <si>
-    <t>לימון</t>
+    <t>כרובית</t>
+  </si>
+  <si>
+    <t>כרובית ראש</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">יחידה</t>
+    </r>
   </si>
   <si>
     <t>מיקס פטריות (מארז)</t>
@@ -437,9 +470,6 @@
   </si>
   <si>
     <t>מלפפון מובחר</t>
-  </si>
-  <si>
-    <t>9.90</t>
   </si>
   <si>
     <r>
@@ -545,12 +575,6 @@
     <t>שומר</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">17.9</t>
-    </r>
-  </si>
-  <si>
     <t>שומר (נקבה)</t>
   </si>
   <si>
@@ -560,13 +584,19 @@
     <t>שרי אדום (מארז)</t>
   </si>
   <si>
+    <t>10.90</t>
+  </si>
+  <si>
+    <t>9.96</t>
+  </si>
+  <si>
     <t>שרי טריפל (מארז)</t>
   </si>
   <si>
     <t>שרי צהוב (מארז)</t>
   </si>
   <si>
-    <t>10.90</t>
+    <t>שרי צהוב</t>
   </si>
   <si>
     <t>שרי שוקו (מארז)</t>
@@ -595,9 +625,6 @@
 3 ק"ג</t>
   </si>
   <si>
-    <t>21.90</t>
-  </si>
-  <si>
     <t>אורגנו</t>
   </si>
   <si>
@@ -610,12 +637,10 @@
     <t>אספרגוס</t>
   </si>
   <si>
-    <t>אספרגוס לבן
-(מארז)
-400 גרם</t>
-  </si>
-  <si>
     <t>בזיליקום</t>
+  </si>
+  <si>
+    <t>3.90</t>
   </si>
   <si>
     <t>7.9</t>
@@ -639,6 +664,9 @@
     <t>ברוקולי</t>
   </si>
   <si>
+    <t>25.90</t>
+  </si>
+  <si>
     <t>ג'ינג'ר</t>
   </si>
   <si>
@@ -648,12 +676,6 @@
     <t>חסה סלנובה</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">יחידה</t>
-    </r>
-  </si>
-  <si>
     <t>13.9</t>
   </si>
   <si>
@@ -675,21 +697,12 @@
     <t>כוסברה</t>
   </si>
   <si>
-    <t>3.90</t>
-  </si>
-  <si>
     <t>4.9</t>
   </si>
   <si>
     <t>2.90</t>
   </si>
   <si>
-    <t>כורכום טרי</t>
-  </si>
-  <si>
-    <t>18.6</t>
-  </si>
-  <si>
     <t>לבבות חסה</t>
   </si>
   <si>
@@ -697,6 +710,9 @@
   </si>
   <si>
     <t>לוף/כרישה</t>
+  </si>
+  <si>
+    <t>6.50</t>
   </si>
   <si>
     <t>לוף/כרישה (מארז)</t>
@@ -819,12 +835,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -833,10 +864,10 @@
     <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="0" applyFill="1" fillId="3" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="3" applyBorder="1" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -845,9 +876,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="true" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -996,13 +1027,13 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
@@ -1040,19 +1071,19 @@
         <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1">
         <f>C5 - F5</f>
@@ -1069,31 +1100,31 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1">
         <f>C6 - F6</f>
@@ -1110,31 +1141,31 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J7" s="1">
         <f>C7 - F7</f>
@@ -1151,13 +1182,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -1169,13 +1200,13 @@
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1">
         <f>C8 - F8</f>
@@ -1192,31 +1223,31 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1">
         <f>C9 - F9</f>
@@ -1233,31 +1264,31 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="J10" s="1">
         <f>C10 - F10</f>
@@ -1274,31 +1305,31 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1">
         <f>C11 - F11</f>
@@ -1315,31 +1346,31 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J12" s="1">
         <f>C12 - F12</f>
@@ -1365,13 +1396,13 @@
         <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>57</v>
@@ -1403,25 +1434,25 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="J14" s="1">
         <f>C14 - F14</f>
@@ -1438,31 +1469,31 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J15" s="1">
         <f>C15 - F15</f>
@@ -1479,13 +1510,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
@@ -1497,13 +1528,13 @@
         <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1">
         <f>C16 - F16</f>
@@ -1520,13 +1551,13 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>65</v>
@@ -1535,16 +1566,16 @@
         <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1">
         <f>C17 - F17</f>
@@ -1561,31 +1592,31 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J18" s="1">
         <f>C18 - F18</f>
@@ -1602,31 +1633,31 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1">
         <f>C19 - F19</f>
@@ -1643,13 +1674,13 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>75</v>
@@ -1658,16 +1689,16 @@
         <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J20" s="1">
         <f>C20 - F20</f>
@@ -1684,13 +1715,13 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -1702,13 +1733,13 @@
         <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1">
         <f>C21 - F21</f>
@@ -1725,13 +1756,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
@@ -1766,7 +1797,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
@@ -1775,22 +1806,22 @@
         <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J23" s="1">
         <f>C23 - F23</f>
@@ -1807,22 +1838,22 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>14</v>
@@ -1848,13 +1879,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -1866,13 +1897,13 @@
         <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="J25" s="1">
         <f>C25 - F25</f>
@@ -1889,13 +1920,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
@@ -1930,31 +1961,31 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J27" s="1">
         <f>C27 - F27</f>
@@ -1971,31 +2002,31 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1">
         <f>C28 - F28</f>
@@ -2012,31 +2043,31 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J29" s="1">
         <f>C29 - F29</f>
@@ -2051,7 +2082,34 @@
         <f>C29 / I29 * 100</f>
       </c>
     </row>
-    <row r="30" spans="10:13">
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="J30" s="1">
         <f>C30 - F30</f>
       </c>
@@ -2067,13 +2125,13 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
@@ -2085,13 +2143,13 @@
         <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="J31" s="1">
         <f>C31 - F31</f>
@@ -2108,31 +2166,31 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="J32" s="1">
         <f>C32 - F32</f>
@@ -2155,16 +2213,16 @@
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>97</v>
@@ -2173,7 +2231,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="J33" s="1">
         <f>C33 - F33</f>
@@ -2190,31 +2248,31 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J34" s="1">
         <f>C34 - F34</f>
@@ -2231,31 +2289,31 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J35" s="1">
         <f>C35 - F35</f>
@@ -2270,34 +2328,7 @@
         <f>C35 / I35 * 100</f>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>109</v>
-      </c>
+    <row r="36" spans="10:13">
       <c r="J36" s="1">
         <f>C36 - F36</f>
       </c>
@@ -2313,13 +2344,13 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
@@ -2331,13 +2362,13 @@
         <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J37" s="1">
         <f>C37 - F37</f>
@@ -2354,31 +2385,31 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="J38" s="1">
         <f>C38 - F38</f>
@@ -2395,31 +2426,31 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="J39" s="1">
         <f>C39 - F39</f>
@@ -2436,31 +2467,31 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J40" s="1">
         <f>C40 - F40</f>
@@ -2477,22 +2508,22 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>14</v>
@@ -2518,31 +2549,31 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J42" s="1">
         <f>C42 - F42</f>
@@ -2559,31 +2590,31 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="J43" s="1">
         <f>C43 - F43</f>
@@ -2600,31 +2631,31 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="J44" s="1">
         <f>C44 - F44</f>
@@ -2641,31 +2672,31 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="J45" s="1">
         <f>C45 - F45</f>
@@ -2682,31 +2713,31 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="J46" s="1">
         <f>C46 - F46</f>
@@ -2723,31 +2754,31 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J47" s="1">
         <f>C47 - F47</f>
@@ -2764,31 +2795,31 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="J48" s="1">
         <f>C48 - F48</f>
@@ -2811,25 +2842,25 @@
         <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="J49" s="1">
         <f>C49 - F49</f>
@@ -2846,13 +2877,13 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
@@ -2864,13 +2895,13 @@
         <v>14</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="J50" s="1">
         <f>C50 - F50</f>
@@ -2887,31 +2918,31 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J51" s="1">
         <f>C51 - F51</f>
@@ -2928,31 +2959,31 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="H52" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J52" s="1">
         <f>C52 - F52</f>
@@ -2969,31 +3000,31 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="J53" s="1">
         <f>C53 - F53</f>
@@ -3013,28 +3044,28 @@
         <v>136</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>136</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="J54" s="1">
         <f>C54 - F54</f>
@@ -3051,31 +3082,31 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="J55" s="1">
         <f>C55 - F55</f>
@@ -3092,13 +3123,13 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
@@ -3110,13 +3141,13 @@
         <v>14</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="J56" s="1">
         <f>C56 - F56</f>
@@ -3133,31 +3164,31 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J57" s="1">
         <f>C57 - F57</f>
@@ -3174,31 +3205,31 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="G58" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="J58" s="1">
         <f>C58 - F58</f>
@@ -3215,31 +3246,31 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="J59" s="1">
         <f>C59 - F59</f>
@@ -3256,31 +3287,31 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="J60" s="1">
         <f>C60 - F60</f>
@@ -3297,31 +3328,31 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="J61" s="1">
         <f>C61 - F61</f>
@@ -3338,13 +3369,13 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
@@ -3356,13 +3387,13 @@
         <v>14</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="J62" s="1">
         <f>C62 - F62</f>
@@ -3379,31 +3410,31 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="J63" s="1">
         <f>C63 - F63</f>
@@ -3420,31 +3451,31 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J64" s="1">
         <f>C64 - F64</f>
@@ -3461,31 +3492,31 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="J65" s="1">
         <f>C65 - F65</f>
@@ -3502,13 +3533,13 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
@@ -3520,13 +3551,13 @@
         <v>14</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="J66" s="1">
         <f>C66 - F66</f>
@@ -3543,13 +3574,13 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
@@ -3584,13 +3615,13 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
@@ -3602,13 +3633,13 @@
         <v>14</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="J68" s="1">
         <f>C68 - F68</f>
@@ -3625,31 +3656,31 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="J69" s="1">
         <f>C69 - F69</f>
@@ -3666,31 +3697,31 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="J70" s="1">
         <f>C70 - F70</f>
@@ -3707,31 +3738,31 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="J71" s="1">
         <f>C71 - F71</f>
@@ -3751,28 +3782,28 @@
         <v>166</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="J72" s="1">
         <f>C72 - F72</f>
@@ -3787,7 +3818,34 @@
         <f>C72 / I72 * 100</f>
       </c>
     </row>
-    <row r="73" spans="10:13">
+    <row r="73" spans="1:13">
+      <c r="A73" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="J73" s="1">
         <f>C73 - F73</f>
       </c>
@@ -3806,10 +3864,10 @@
         <v>169</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
@@ -3821,13 +3879,13 @@
         <v>14</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="J74" s="1">
         <f>C74 - F74</f>
@@ -3847,25 +3905,25 @@
         <v>170</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>171</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>21</v>
@@ -3888,10 +3946,10 @@
         <v>172</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
@@ -3903,13 +3961,13 @@
         <v>14</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="J76" s="1">
         <f>C76 - F76</f>
@@ -3926,31 +3984,31 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>174</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J77" s="1">
         <f>C77 - F77</f>
@@ -3967,31 +4025,31 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="J78" s="1">
         <f>C78 - F78</f>
@@ -4006,34 +4064,7 @@
         <f>C78 / I78 * 100</f>
       </c>
     </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="79" spans="10:13">
       <c r="J79" s="1">
         <f>C79 - F79</f>
       </c>
@@ -4049,31 +4080,31 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="J80" s="1">
         <f>C80 - F80</f>
@@ -4090,31 +4121,31 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="J81" s="1">
         <f>C81 - F81</f>
@@ -4131,31 +4162,31 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J82" s="1">
         <f>C82 - F82</f>
@@ -4172,31 +4203,31 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="J83" s="1">
         <f>C83 - F83</f>
@@ -4213,31 +4244,31 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="J84" s="1">
         <f>C84 - F84</f>
@@ -4254,31 +4285,31 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="J85" s="1">
         <f>C85 - F85</f>
@@ -4295,31 +4326,31 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J86" s="1">
         <f>C86 - F86</f>
@@ -4336,31 +4367,31 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="J87" s="1">
         <f>C87 - F87</f>
@@ -4377,31 +4408,31 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J88" s="1">
         <f>C88 - F88</f>
@@ -4418,31 +4449,31 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J89" s="1">
         <f>C89 - F89</f>
@@ -4459,31 +4490,31 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J90" s="1">
         <f>C90 - F90</f>
@@ -4500,31 +4531,31 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J91" s="1">
         <f>C91 - F91</f>
@@ -4541,31 +4572,31 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J92" s="1">
         <f>C92 - F92</f>
@@ -4582,31 +4613,31 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="J93" s="1">
         <f>C93 - F93</f>
@@ -4623,31 +4654,31 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="J94" s="1">
         <f>C94 - F94</f>
@@ -4664,31 +4695,31 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>213</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="J95" s="1">
         <f>C95 - F95</f>
@@ -4708,28 +4739,28 @@
         <v>214</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>214</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>214</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="J96" s="1">
         <f>C96 - F96</f>
@@ -4746,13 +4777,13 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
@@ -4767,10 +4798,10 @@
         <v>216</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J97" s="1">
         <f>C97 - F97</f>
@@ -4790,28 +4821,28 @@
         <v>217</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="J98" s="1">
         <f>C98 - F98</f>
@@ -4828,31 +4859,31 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="J99" s="1">
         <f>C99 - F99</f>
@@ -4869,13 +4900,13 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
@@ -4887,13 +4918,13 @@
         <v>14</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="J100" s="1">
         <f>C100 - F100</f>
@@ -4910,31 +4941,31 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="J101" s="1">
         <f>C101 - F101</f>
@@ -4949,53 +4980,65 @@
         <f>C101 / I101 * 100</f>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J102" s="1">
+        <f>C102 - F102</f>
+      </c>
+      <c r="K102" s="1">
+        <f>C102 - I102</f>
+      </c>
+      <c r="L102" s="1">
+        <f>C102 / F102 * 100</f>
+      </c>
+      <c r="M102" s="1">
+        <f>C102 / I102 * 100</f>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>226</v>
@@ -5004,7 +5047,200 @@
         <v>26</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="J103" s="1">
+        <f>C103 - F103</f>
+      </c>
+      <c r="K103" s="1">
+        <f>C103 - I103</f>
+      </c>
+      <c r="L103" s="1">
+        <f>C103 / F103 * 100</f>
+      </c>
+      <c r="M103" s="1">
+        <f>C103 / I103 * 100</f>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J104" s="1">
+        <f>C104 - F104</f>
+      </c>
+      <c r="K104" s="1">
+        <f>C104 - I104</f>
+      </c>
+      <c r="L104" s="1">
+        <f>C104 / F104 * 100</f>
+      </c>
+      <c r="M104" s="1">
+        <f>C104 / I104 * 100</f>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J105" s="1">
+        <f>C105 - F105</f>
+      </c>
+      <c r="K105" s="1">
+        <f>C105 - I105</f>
+      </c>
+      <c r="L105" s="1">
+        <f>C105 / F105 * 100</f>
+      </c>
+      <c r="M105" s="1">
+        <f>C105 / I105 * 100</f>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J106" s="1">
+        <f>C106 - F106</f>
+      </c>
+      <c r="K106" s="1">
+        <f>C106 - I106</f>
+      </c>
+      <c r="L106" s="1">
+        <f>C106 / F106 * 100</f>
+      </c>
+      <c r="M106" s="1">
+        <f>C106 / I106 * 100</f>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -46,16 +46,19 @@
     <t>אחוז מכרמלה</t>
   </si>
   <si>
+    <t>אבטיח שלם (כ- 8 ק"ג)</t>
+  </si>
+  <si>
+    <t>ק"ג</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>אבטיח שלם</t>
-  </si>
-  <si>
-    <t>ק"ג</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <r>
@@ -85,13 +88,124 @@
     <t>19.90</t>
   </si>
   <si>
-    <t>אוכמניות (מארז)</t>
+    <t>אוכמניות (מארז כ- 125 גרם)</t>
   </si>
   <si>
     <t>23.90</t>
   </si>
   <si>
+    <t>אננס</t>
+  </si>
+  <si>
+    <t>35.90</t>
+  </si>
+  <si>
     <t>מארז</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">יח׳</t>
+    </r>
+  </si>
+  <si>
+    <t>39.90</t>
+  </si>
+  <si>
+    <t>אפרסק</t>
+  </si>
+  <si>
+    <t>18.90</t>
+  </si>
+  <si>
+    <t>בננה</t>
+  </si>
+  <si>
+    <t>12.90</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">14.9</t>
+    </r>
+  </si>
+  <si>
+    <t>דובדבן (מארז 250 גרם)</t>
+  </si>
+  <si>
+    <t>חצי אבטיח (כ - 4 ק"ג)</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>חצי אבטיח</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">6.9</t>
+    </r>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>ליים</t>
+  </si>
+  <si>
+    <t>15.90</t>
+  </si>
+  <si>
+    <t>ליים אמיתי</t>
+  </si>
+  <si>
+    <t>לימון</t>
+  </si>
+  <si>
+    <t>14.90</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">16.9</t>
+    </r>
+  </si>
+  <si>
+    <t>לימון צהוב</t>
+  </si>
+  <si>
+    <t>מלון כתום (כ- 2 ק"ג)</t>
+  </si>
+  <si>
+    <t>6.90</t>
+  </si>
+  <si>
+    <t>מלון כתום</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">9.9</t>
+    </r>
+  </si>
+  <si>
+    <t>מלון ספרדי מתוק (כ - 2 ק"ג)</t>
+  </si>
+  <si>
+    <t>מלון ספרדי</t>
+  </si>
+  <si>
+    <t>7.90</t>
+  </si>
+  <si>
+    <t>מנגו</t>
+  </si>
+  <si>
+    <t>מנגו ׳שלי׳</t>
   </si>
   <si>
     <r>
@@ -100,331 +214,212 @@
     </r>
   </si>
   <si>
+    <t>מנגו 'מאיה'</t>
+  </si>
+  <si>
+    <t>24.90</t>
+  </si>
+  <si>
+    <t>משמש בלדי</t>
+  </si>
+  <si>
+    <t>נקטרינה</t>
+  </si>
+  <si>
+    <t>ענבים אדומים</t>
+  </si>
+  <si>
+    <t>ענבים אדומים 'טלי'
+(מארז כ- 1.2 ק"ג)</t>
+  </si>
+  <si>
+    <t>29.90</t>
+  </si>
+  <si>
+    <t>ענבים ירוקים</t>
+  </si>
+  <si>
+    <t>ענבים ירוקים (1.3 ק"ג)</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">34.9</t>
+    </r>
+  </si>
+  <si>
+    <t>ענבים ירוקים 'טלי- אוטום קריספ'
+(מארז כ - 1.2 ק"ג)
+</t>
+  </si>
+  <si>
+    <t>ענבים שחורים</t>
+  </si>
+  <si>
+    <t>33.90</t>
+  </si>
+  <si>
+    <t>ענבים שחורים (1.2 ק"ג)</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">39.9</t>
+    </r>
+  </si>
+  <si>
+    <t>ענבים שחורים 'אדורה - טלי'
+(מארז כ- 1.5 ק"ג)</t>
+  </si>
+  <si>
+    <t>פומלית</t>
+  </si>
+  <si>
+    <t>11.90</t>
+  </si>
+  <si>
+    <t>פסיפלורה (מארז כ- 500 גרם)</t>
+  </si>
+  <si>
+    <t>קיווי ירוק</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">38.9</t>
+    </r>
+  </si>
+  <si>
+    <t>קיווי צהוב</t>
+  </si>
+  <si>
+    <t>34.90</t>
+  </si>
+  <si>
+    <t>קלמנטינה</t>
+  </si>
+  <si>
+    <t>רבע אבטיח (כ- 2 ק"ג)</t>
+  </si>
+  <si>
+    <t>רימון</t>
+  </si>
+  <si>
+    <t>9.90</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">17.9</t>
+    </r>
+  </si>
+  <si>
+    <t>שזיף אדום</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">24.9</t>
+    </r>
+  </si>
+  <si>
+    <t>שסק</t>
+  </si>
+  <si>
+    <t>תות</t>
+  </si>
+  <si>
+    <t>תמר מג'הול - בונבון (מארז כ- 400 גרם)</t>
+  </si>
+  <si>
+    <t>תפוז ענק</t>
+  </si>
+  <si>
+    <t>13.90</t>
+  </si>
+  <si>
+    <t>תפוז</t>
+  </si>
+  <si>
+    <t>תפוח גאלה</t>
+  </si>
+  <si>
+    <t>תפוח חרמון</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">13.9</t>
+    </r>
+  </si>
+  <si>
+    <t>תפוח סמית</t>
+  </si>
+  <si>
+    <t>תפוח פינק ליידי</t>
+  </si>
+  <si>
+    <t>תפוח פינק</t>
+  </si>
+  <si>
+    <t>אבוקדו בשל (מארז 3 יחידות)</t>
+  </si>
+  <si>
+    <t>אבוקדו</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">ק"ג</t>
+    </r>
+  </si>
+  <si>
+    <t>אבוקדו בשל</t>
+  </si>
+  <si>
+    <t>בטטה</t>
+  </si>
+  <si>
+    <t>15.50</t>
+  </si>
+  <si>
+    <t>בצל</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">5.9</t>
+    </r>
+  </si>
+  <si>
+    <t>בצל סגול</t>
+  </si>
+  <si>
+    <t>בצלצלי שאלוט (מארז כ- 280 גרם)</t>
+  </si>
+  <si>
+    <t>בצלצלי שאלוט</t>
+  </si>
+  <si>
     <r>
       <rPr/>
       <t xml:space="preserve">מארז</t>
     </r>
   </si>
   <si>
-    <t>24.90</t>
-  </si>
-  <si>
-    <t>אננס</t>
-  </si>
-  <si>
-    <t>35.90</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">יח׳</t>
-    </r>
-  </si>
-  <si>
-    <t>39.90</t>
-  </si>
-  <si>
-    <t>אפרסק</t>
-  </si>
-  <si>
-    <t>18.90</t>
-  </si>
-  <si>
-    <t>בננה</t>
-  </si>
-  <si>
-    <t>12.90</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">14.9</t>
-    </r>
-  </si>
-  <si>
-    <t>דובדבן (מארז 250 גרם)</t>
-  </si>
-  <si>
-    <t>חצי אבטיח</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">6.9</t>
-    </r>
-  </si>
-  <si>
-    <t>5.90</t>
-  </si>
-  <si>
-    <t>ליים</t>
-  </si>
-  <si>
-    <t>15.90</t>
-  </si>
-  <si>
-    <t>ליים אמיתי</t>
-  </si>
-  <si>
-    <t>לימון</t>
-  </si>
-  <si>
-    <t>14.90</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">16.9</t>
-    </r>
-  </si>
-  <si>
-    <t>לימון צהוב</t>
+    <t>גזר</t>
+  </si>
+  <si>
+    <t>גזר בתפזורת</t>
+  </si>
+  <si>
+    <t>דואט פטריות (מארז)</t>
   </si>
   <si>
     <t>16.90</t>
-  </si>
-  <si>
-    <t>מארז תמר מג'הול (בונבון) - 400 גרם</t>
-  </si>
-  <si>
-    <t>מארז תמר מג'הול 500 גרם</t>
-  </si>
-  <si>
-    <t>מארז תמר מג'הול סופר עסיסי
-'בונבון'
-400 גרם</t>
-  </si>
-  <si>
-    <t>מלון כתום</t>
-  </si>
-  <si>
-    <t>6.90</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">9.9</t>
-    </r>
-  </si>
-  <si>
-    <t>מלון כתום דבש</t>
-  </si>
-  <si>
-    <t>7.90</t>
-  </si>
-  <si>
-    <t>מלון ספרדי מתוק</t>
-  </si>
-  <si>
-    <t>מלון ספרדי</t>
-  </si>
-  <si>
-    <t>מנגו</t>
-  </si>
-  <si>
-    <t>מנגו ׳שלי׳</t>
-  </si>
-  <si>
-    <t>מנגו 'מאיה'</t>
-  </si>
-  <si>
-    <t>משמש בלדי</t>
-  </si>
-  <si>
-    <t>נקטרינה</t>
-  </si>
-  <si>
-    <t>ענבים אדומים</t>
-  </si>
-  <si>
-    <t>ענבים אדומים 'טלי'
-(מארז כ- 1.2 ק"ג)</t>
-  </si>
-  <si>
-    <t>29.90</t>
-  </si>
-  <si>
-    <t>ענבים ירוקים</t>
-  </si>
-  <si>
-    <t>ענבים ירוקים (1.3 ק"ג)</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">34.9</t>
-    </r>
-  </si>
-  <si>
-    <t>ענבים ירוקים 'טלי- אוטום קריספ'
-(מארז כ - 1.2 ק"ג)
-</t>
-  </si>
-  <si>
-    <t>ענבים שחורים</t>
-  </si>
-  <si>
-    <t>33.90</t>
-  </si>
-  <si>
-    <t>ענבים שחורים (1.2 ק"ג)</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">39.9</t>
-    </r>
-  </si>
-  <si>
-    <t>ענבים שחורים 'אדורה - טלי'
-(מארז כ- 1.5 ק"ג)</t>
-  </si>
-  <si>
-    <t>פומלית</t>
-  </si>
-  <si>
-    <t>11.90</t>
-  </si>
-  <si>
-    <t>פסיפלורה (מארז כ - 500 גרם)</t>
-  </si>
-  <si>
-    <t>קיווי ירוק</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">38.9</t>
-    </r>
-  </si>
-  <si>
-    <t>קיווי צהוב</t>
-  </si>
-  <si>
-    <t>34.90</t>
-  </si>
-  <si>
-    <t>קלמנטינה</t>
-  </si>
-  <si>
-    <t>רבע אבטיח</t>
-  </si>
-  <si>
-    <t>רימון</t>
-  </si>
-  <si>
-    <t>9.90</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">17.9</t>
-    </r>
-  </si>
-  <si>
-    <t>שזיף אדום</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">24.9</t>
-    </r>
-  </si>
-  <si>
-    <t>שסק</t>
-  </si>
-  <si>
-    <t>תות</t>
-  </si>
-  <si>
-    <t>תפוז ענק</t>
-  </si>
-  <si>
-    <t>13.90</t>
-  </si>
-  <si>
-    <t>תפוח גאלה</t>
-  </si>
-  <si>
-    <t>תפוח חרמון</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">13.9</t>
-    </r>
-  </si>
-  <si>
-    <t>תפוח סמית</t>
-  </si>
-  <si>
-    <t>תפוח פינק ליידי</t>
-  </si>
-  <si>
-    <t>תפוח פינק</t>
-  </si>
-  <si>
-    <t>אבוקדו בשל (מארז 3 יחידות)</t>
-  </si>
-  <si>
-    <t>אבוקדו בשל</t>
-  </si>
-  <si>
-    <t>בטטה</t>
-  </si>
-  <si>
-    <t>15.50</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">ק"ג</t>
-    </r>
-  </si>
-  <si>
-    <t>בצל</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">5.9</t>
-    </r>
-  </si>
-  <si>
-    <t>בצל סגול</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">8.9</t>
-    </r>
-  </si>
-  <si>
-    <t>בצלצלי שאלוט (מארז)</t>
-  </si>
-  <si>
-    <t>בצלצלי שאלוט</t>
-  </si>
-  <si>
-    <t>גזר</t>
-  </si>
-  <si>
-    <t>גזר בתפזורת</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <t>דואט פטריות (מארז)</t>
   </si>
   <si>
     <t>חציל</t>
@@ -557,19 +552,10 @@
     <t>2.50</t>
   </si>
   <si>
-    <t>2.475</t>
-  </si>
-  <si>
     <t>שום ארוז</t>
   </si>
   <si>
-    <t>שום קלוף (מארז)</t>
-  </si>
-  <si>
-    <t>שום קלוף (מארז) 1 ק"ג</t>
-  </si>
-  <si>
-    <t>22.90</t>
+    <t>שום קלוף (מארז כ- 170 גרם)</t>
   </si>
   <si>
     <t>שומר</t>
@@ -623,6 +609,9 @@
     <t>תפוח אדמה לבן דוד משה
 (מארז)
 3 ק"ג</t>
+  </si>
+  <si>
+    <t>22.90</t>
   </si>
   <si>
     <t>אורגנו</t>
@@ -788,9 +777,6 @@
   </si>
   <si>
     <t>שורש</t>
-  </si>
-  <si>
-    <t>שורש פטרוזיליה</t>
   </si>
   <si>
     <t>שיבה</t>
@@ -954,13 +940,13 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1">
         <f>C2 - F2</f>
@@ -977,31 +963,31 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1">
         <f>C3 - F3</f>
@@ -1018,31 +1004,31 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1">
         <f>C4 - F4</f>
@@ -1059,31 +1045,31 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="J5" s="1">
         <f>C5 - F5</f>
@@ -1100,31 +1086,31 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1">
         <f>C6 - F6</f>
@@ -1141,31 +1127,31 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1">
         <f>C7 - F7</f>
@@ -1182,13 +1168,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -1223,13 +1209,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>39</v>
@@ -1238,16 +1224,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1">
         <f>C9 - F9</f>
@@ -1264,31 +1250,31 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="J10" s="1">
         <f>C10 - F10</f>
@@ -1305,31 +1291,31 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J11" s="1">
         <f>C11 - F11</f>
@@ -1346,31 +1332,31 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1">
         <f>C12 - F12</f>
@@ -1387,13 +1373,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>54</v>
@@ -1402,16 +1388,16 @@
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J13" s="1">
         <f>C13 - F13</f>
@@ -1428,31 +1414,31 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="J14" s="1">
         <f>C14 - F14</f>
@@ -1475,25 +1461,25 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1">
         <f>C15 - F15</f>
@@ -1510,31 +1496,31 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1">
         <f>C16 - F16</f>
@@ -1551,31 +1537,31 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="J17" s="1">
         <f>C17 - F17</f>
@@ -1598,25 +1584,25 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="J18" s="1">
         <f>C18 - F18</f>
@@ -1633,31 +1619,31 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1">
         <f>C19 - F19</f>
@@ -1674,31 +1660,31 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1">
         <f>C20 - F20</f>
@@ -1715,13 +1701,13 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
@@ -1756,31 +1742,31 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J22" s="1">
         <f>C22 - F22</f>
@@ -1797,31 +1783,31 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1">
         <f>C23 - F23</f>
@@ -1838,31 +1824,31 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="J24" s="1">
         <f>C24 - F24</f>
@@ -1879,13 +1865,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -1897,13 +1883,13 @@
         <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1">
         <f>C25 - F25</f>
@@ -1920,31 +1906,31 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="J26" s="1">
         <f>C26 - F26</f>
@@ -1967,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>87</v>
@@ -1976,16 +1962,16 @@
         <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="J27" s="1">
         <f>C27 - F27</f>
@@ -2002,31 +1988,31 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J28" s="1">
         <f>C28 - F28</f>
@@ -2043,13 +2029,13 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>14</v>
@@ -2084,13 +2070,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
@@ -2125,22 +2111,22 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>14</v>
@@ -2166,13 +2152,13 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
@@ -2184,13 +2170,13 @@
         <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J32" s="1">
         <f>C32 - F32</f>
@@ -2207,31 +2193,31 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J33" s="1">
         <f>C33 - F33</f>
@@ -2248,31 +2234,31 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J34" s="1">
         <f>C34 - F34</f>
@@ -2289,31 +2275,31 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J35" s="1">
         <f>C35 - F35</f>
@@ -2344,31 +2330,31 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="J37" s="1">
         <f>C37 - F37</f>
@@ -2385,31 +2371,31 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J38" s="1">
         <f>C38 - F38</f>
@@ -2438,7 +2424,7 @@
         <v>107</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>109</v>
@@ -2447,10 +2433,10 @@
         <v>107</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J39" s="1">
         <f>C39 - F39</f>
@@ -2473,25 +2459,25 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>110</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J40" s="1">
         <f>C40 - F40</f>
@@ -2508,22 +2494,22 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>14</v>
@@ -2561,19 +2547,19 @@
         <v>115</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="J42" s="1">
         <f>C42 - F42</f>
@@ -2590,14 +2576,14 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
       </c>
@@ -2608,13 +2594,13 @@
         <v>14</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J43" s="1">
         <f>C43 - F43</f>
@@ -2637,13 +2623,13 @@
         <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>119</v>
@@ -2652,7 +2638,7 @@
         <v>118</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>120</v>
@@ -2678,13 +2664,13 @@
         <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>109</v>
@@ -2693,10 +2679,10 @@
         <v>121</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="J45" s="1">
         <f>C45 - F45</f>
@@ -2719,13 +2705,13 @@
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>123</v>
@@ -2734,10 +2720,10 @@
         <v>122</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J46" s="1">
         <f>C46 - F46</f>
@@ -2760,7 +2746,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>125</v>
@@ -2769,7 +2755,7 @@
         <v>126</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>14</v>
@@ -2798,10 +2784,10 @@
         <v>127</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
@@ -2816,7 +2802,7 @@
         <v>127</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>128</v>
@@ -2842,13 +2828,13 @@
         <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>130</v>
@@ -2857,10 +2843,10 @@
         <v>129</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="J49" s="1">
         <f>C49 - F49</f>
@@ -2880,10 +2866,10 @@
         <v>131</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
@@ -2898,10 +2884,10 @@
         <v>132</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J50" s="1">
         <f>C50 - F50</f>
@@ -2924,25 +2910,25 @@
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>133</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J51" s="1">
         <f>C51 - F51</f>
@@ -2962,10 +2948,10 @@
         <v>134</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
@@ -2980,10 +2966,10 @@
         <v>134</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J52" s="1">
         <f>C52 - F52</f>
@@ -3003,10 +2989,10 @@
         <v>135</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>14</v>
@@ -3021,10 +3007,10 @@
         <v>135</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J53" s="1">
         <f>C53 - F53</f>
@@ -3047,25 +3033,25 @@
         <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>136</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J54" s="1">
         <f>C54 - F54</f>
@@ -3088,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -3126,7 +3112,7 @@
         <v>138</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>120</v>
@@ -3170,13 +3156,13 @@
         <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>140</v>
@@ -3185,10 +3171,10 @@
         <v>139</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J57" s="1">
         <f>C57 - F57</f>
@@ -3211,13 +3197,13 @@
         <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>143</v>
@@ -3226,10 +3212,10 @@
         <v>141</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J58" s="1">
         <f>C58 - F58</f>
@@ -3258,7 +3244,7 @@
         <v>142</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>143</v>
@@ -3267,10 +3253,10 @@
         <v>141</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J59" s="1">
         <f>C59 - F59</f>
@@ -3290,28 +3276,28 @@
         <v>144</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>144</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J60" s="1">
         <f>C60 - F60</f>
@@ -3334,13 +3320,13 @@
         <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>140</v>
@@ -3349,10 +3335,10 @@
         <v>146</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J61" s="1">
         <f>C61 - F61</f>
@@ -3372,10 +3358,10 @@
         <v>147</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
@@ -3390,10 +3376,10 @@
         <v>148</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J62" s="1">
         <f>C62 - F62</f>
@@ -3416,13 +3402,13 @@
         <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>123</v>
@@ -3431,10 +3417,10 @@
         <v>150</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J63" s="1">
         <f>C63 - F63</f>
@@ -3457,13 +3443,13 @@
         <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>140</v>
@@ -3472,10 +3458,10 @@
         <v>151</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J64" s="1">
         <f>C64 - F64</f>
@@ -3504,7 +3490,7 @@
         <v>152</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>130</v>
@@ -3513,10 +3499,10 @@
         <v>152</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J65" s="1">
         <f>C65 - F65</f>
@@ -3551,13 +3537,13 @@
         <v>14</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="J66" s="1">
         <f>C66 - F66</f>
@@ -3574,7 +3560,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>12</v>
@@ -3592,13 +3578,13 @@
         <v>14</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="J67" s="1">
         <f>C67 - F67</f>
@@ -3615,13 +3601,13 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
@@ -3633,13 +3619,13 @@
         <v>14</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="J68" s="1">
         <f>C68 - F68</f>
@@ -3656,13 +3642,13 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
@@ -3674,13 +3660,13 @@
         <v>14</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="J69" s="1">
         <f>C69 - F69</f>
@@ -3697,31 +3683,31 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>130</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J70" s="1">
         <f>C70 - F70</f>
@@ -3738,31 +3724,31 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J71" s="1">
         <f>C71 - F71</f>
@@ -3779,13 +3765,13 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
@@ -3820,31 +3806,31 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J73" s="1">
         <f>C73 - F73</f>
@@ -3861,13 +3847,13 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
@@ -3902,31 +3888,31 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J75" s="1">
         <f>C75 - F75</f>
@@ -3943,10 +3929,10 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>120</v>
@@ -3984,31 +3970,31 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J77" s="1">
         <f>C77 - F77</f>
@@ -4025,31 +4011,31 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J78" s="1">
         <f>C78 - F78</f>
@@ -4080,10 +4066,10 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>108</v>
@@ -4098,13 +4084,13 @@
         <v>14</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="J80" s="1">
         <f>C80 - F80</f>
@@ -4121,13 +4107,13 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
@@ -4139,13 +4125,13 @@
         <v>14</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J81" s="1">
         <f>C81 - F81</f>
@@ -4162,13 +4148,13 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
@@ -4203,31 +4189,31 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="H83" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J83" s="1">
         <f>C83 - F83</f>
@@ -4244,31 +4230,31 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="G84" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="J84" s="1">
         <f>C84 - F84</f>
@@ -4285,10 +4271,10 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>120</v>
@@ -4303,13 +4289,13 @@
         <v>14</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J85" s="1">
         <f>C85 - F85</f>
@@ -4326,31 +4312,31 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J86" s="1">
         <f>C86 - F86</f>
@@ -4367,31 +4353,31 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J87" s="1">
         <f>C87 - F87</f>
@@ -4408,31 +4394,31 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J88" s="1">
         <f>C88 - F88</f>
@@ -4449,31 +4435,31 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="J89" s="1">
         <f>C89 - F89</f>
@@ -4490,31 +4476,31 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J90" s="1">
         <f>C90 - F90</f>
@@ -4531,31 +4517,31 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="E91" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="G91" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J91" s="1">
         <f>C91 - F91</f>
@@ -4572,31 +4558,31 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="J92" s="1">
         <f>C92 - F92</f>
@@ -4613,13 +4599,13 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>14</v>
@@ -4631,13 +4617,13 @@
         <v>14</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J93" s="1">
         <f>C93 - F93</f>
@@ -4654,31 +4640,31 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J94" s="1">
         <f>C94 - F94</f>
@@ -4695,31 +4681,31 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="H95" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J95" s="1">
         <f>C95 - F95</f>
@@ -4736,31 +4722,31 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J96" s="1">
         <f>C96 - F96</f>
@@ -4777,13 +4763,13 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
@@ -4795,13 +4781,13 @@
         <v>14</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="J97" s="1">
         <f>C97 - F97</f>
@@ -4818,31 +4804,31 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="J98" s="1">
         <f>C98 - F98</f>
@@ -4859,10 +4845,10 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>120</v>
@@ -4900,10 +4886,10 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>120</v>
@@ -4918,13 +4904,13 @@
         <v>14</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J100" s="1">
         <f>C100 - F100</f>
@@ -4941,31 +4927,31 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J101" s="1">
         <f>C101 - F101</f>
@@ -4982,13 +4968,13 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
@@ -5000,13 +4986,13 @@
         <v>14</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="J102" s="1">
         <f>C102 - F102</f>
@@ -5023,31 +5009,31 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E103" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="H103" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J103" s="1">
         <f>C103 - F103</f>
@@ -5064,31 +5050,31 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="J104" s="1">
         <f>C104 - F104</f>
@@ -5105,13 +5091,13 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
@@ -5123,13 +5109,13 @@
         <v>14</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="J105" s="1">
         <f>C105 - F105</f>
@@ -5146,13 +5132,13 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
@@ -5164,13 +5150,13 @@
         <v>14</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="J106" s="1">
         <f>C106 - F106</f>
@@ -5187,13 +5173,13 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
@@ -5205,42 +5191,42 @@
         <v>14</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t>מוצר ריפרש</t>
   </si>
@@ -416,7 +416,7 @@
     <t>גזר בתפזורת</t>
   </si>
   <si>
-    <t>דואט פטריות (מארז)</t>
+    <t>דואט פטריות(מארז כ- 500 גרם)</t>
   </si>
   <si>
     <t>16.90</t>
@@ -458,10 +458,7 @@
     </r>
   </si>
   <si>
-    <t>מיקס פטריות (מארז)</t>
-  </si>
-  <si>
-    <t>19.95</t>
+    <t>מיקס פטריות (מארז כ- 430 גרם)</t>
   </si>
   <si>
     <t>מלפפון מובחר</t>
@@ -473,28 +470,31 @@
     </r>
   </si>
   <si>
-    <t>מלפפון מיני (מארז)</t>
+    <t>מלפפון מיני (מארז כ- 360 גרם)</t>
   </si>
   <si>
     <t>מלפפון מיני</t>
   </si>
   <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">11.9</t>
+    </r>
+  </si>
+  <si>
     <t>סלק אדום</t>
   </si>
   <si>
     <t>סלק בוואקום (מארז)</t>
   </si>
   <si>
-    <t>עגבניה מגי (מארז)</t>
-  </si>
-  <si>
     <t>עגבניה מובחרת</t>
   </si>
   <si>
     <t>עגבניות מיובשות</t>
   </si>
   <si>
-    <t>פטריות פורטובלו (מארז)</t>
+    <t>פטריות פורטובלו (מארז כ- 250 גרם)</t>
   </si>
   <si>
     <t>פלפל אדום</t>
@@ -512,13 +512,7 @@
     <t>פלפל ירוק חריף</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">11.9</t>
-    </r>
-  </si>
-  <si>
-    <t>פלפל צ'ילי (מארז)</t>
+    <t>פלפל צ'ילי (מארז כ- 100 גרם)</t>
   </si>
   <si>
     <t>פלפל צ'ילי</t>
@@ -527,10 +521,10 @@
     <t>פלפל צהוב</t>
   </si>
   <si>
-    <t>פלפלונים מתוקים - טינקרבל (מארז)</t>
-  </si>
-  <si>
-    <t>פלפלונים מתוקים - טינקרבל </t>
+    <t>פלפלונים מתוקים (מארז כ- 250 גרם)</t>
+  </si>
+  <si>
+    <t>פלפלונים מתוקים</t>
   </si>
   <si>
     <t>צנונית</t>
@@ -564,37 +558,40 @@
     <t>שומר (נקבה)</t>
   </si>
   <si>
-    <t>שמפניון (מארז)</t>
-  </si>
-  <si>
-    <t>שרי אדום (מארז)</t>
+    <t>שמפניון (מארז כ- 250 גרם)</t>
+  </si>
+  <si>
+    <t>שמפניון</t>
+  </si>
+  <si>
+    <t>שרי אדום (מארז כ- 430 גרם)</t>
   </si>
   <si>
     <t>10.90</t>
   </si>
   <si>
+    <t>שרי אדום</t>
+  </si>
+  <si>
     <t>9.96</t>
   </si>
   <si>
-    <t>שרי טריפל (מארז)</t>
-  </si>
-  <si>
-    <t>שרי צהוב (מארז)</t>
+    <t>שרי טריפל (מארז כ- 430 גרם)</t>
+  </si>
+  <si>
+    <t>שרי צהוב (מארז כ- 430 גרם)</t>
   </si>
   <si>
     <t>שרי צהוב</t>
   </si>
   <si>
-    <t>שרי שוקו (מארז)</t>
-  </si>
-  <si>
-    <t>תירס (מארז)</t>
-  </si>
-  <si>
-    <t>תירס (מארז) "סיוון"</t>
-  </si>
-  <si>
-    <t>תפו"א למיקרוגל (מארז)</t>
+    <t>שרי שוקו (מארז כ- 430 גרם)</t>
+  </si>
+  <si>
+    <t>תירס (מארז 5 יחידות)</t>
+  </si>
+  <si>
+    <t>תירס</t>
   </si>
   <si>
     <t>תפוח אדמה אדום</t>
@@ -862,7 +859,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="true" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -2579,7 +2576,7 @@
         <v>116</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>117</v>
@@ -2594,13 +2591,13 @@
         <v>14</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J43" s="1">
         <f>C43 - F43</f>
@@ -2758,13 +2755,13 @@
         <v>86</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="J47" s="1">
         <f>C47 - F47</f>
@@ -2784,7 +2781,7 @@
         <v>127</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2799,13 +2796,13 @@
         <v>14</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="J48" s="1">
         <f>C48 - F48</f>
@@ -2822,7 +2819,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
@@ -2831,16 +2828,16 @@
         <v>85</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>16</v>
@@ -2863,25 +2860,25 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>113</v>
@@ -2989,19 +2986,19 @@
         <v>135</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>135</v>
@@ -3010,7 +3007,7 @@
         <v>16</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="J53" s="1">
         <f>C53 - F53</f>
@@ -3033,25 +3030,25 @@
         <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="J54" s="1">
         <f>C54 - F54</f>
@@ -3074,7 +3071,7 @@
         <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -3112,28 +3109,28 @@
         <v>138</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="J56" s="1">
         <f>C56 - F56</f>
@@ -3150,31 +3147,31 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="J57" s="1">
         <f>C57 - F57</f>
@@ -3197,19 +3194,19 @@
         <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>16</v>
@@ -3238,25 +3235,25 @@
         <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="J59" s="1">
         <f>C59 - F59</f>
@@ -3276,28 +3273,28 @@
         <v>144</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>144</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J60" s="1">
         <f>C60 - F60</f>
@@ -3314,31 +3311,31 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="J61" s="1">
         <f>C61 - F61</f>
@@ -3358,19 +3355,19 @@
         <v>147</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>148</v>
@@ -3379,7 +3376,7 @@
         <v>113</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="J62" s="1">
         <f>C62 - F62</f>
@@ -3402,25 +3399,25 @@
         <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J63" s="1">
         <f>C63 - F63</f>
@@ -3437,31 +3434,31 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="J64" s="1">
         <f>C64 - F64</f>
@@ -3478,31 +3475,31 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="J65" s="1">
         <f>C65 - F65</f>
@@ -3525,7 +3522,7 @@
         <v>12</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
@@ -3537,13 +3534,13 @@
         <v>14</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="J66" s="1">
         <f>C66 - F66</f>
@@ -3560,13 +3557,13 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
@@ -3578,13 +3575,13 @@
         <v>14</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="J67" s="1">
         <f>C67 - F67</f>
@@ -3601,31 +3598,31 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H68" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="J68" s="1">
         <f>C68 - F68</f>
@@ -3648,25 +3645,25 @@
         <v>12</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="J69" s="1">
         <f>C69 - F69</f>
@@ -3686,28 +3683,28 @@
         <v>159</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="J70" s="1">
         <f>C70 - F70</f>
@@ -3724,31 +3721,31 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="J71" s="1">
         <f>C71 - F71</f>
@@ -3765,31 +3762,31 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="J72" s="1">
         <f>C72 - F72</f>
@@ -3806,31 +3803,31 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="J73" s="1">
         <f>C73 - F73</f>
@@ -3847,22 +3844,22 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>14</v>
@@ -3888,31 +3885,31 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J75" s="1">
         <f>C75 - F75</f>
@@ -3929,31 +3926,31 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="J76" s="1">
         <f>C76 - F76</f>
@@ -3968,34 +3965,7 @@
         <f>C76 / I76 * 100</f>
       </c>
     </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="77" spans="10:13">
       <c r="J77" s="1">
         <f>C77 - F77</f>
       </c>
@@ -4011,31 +3981,31 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="J78" s="1">
         <f>C78 - F78</f>
@@ -4050,7 +4020,34 @@
         <f>C78 / I78 * 100</f>
       </c>
     </row>
-    <row r="79" spans="10:13">
+    <row r="79" spans="1:13">
+      <c r="A79" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J79" s="1">
         <f>C79 - F79</f>
       </c>
@@ -4066,13 +4063,13 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
@@ -4084,13 +4081,13 @@
         <v>14</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J80" s="1">
         <f>C80 - F80</f>
@@ -4107,31 +4104,31 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J81" s="1">
         <f>C81 - F81</f>
@@ -4148,31 +4145,31 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J82" s="1">
         <f>C82 - F82</f>
@@ -4189,31 +4186,31 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="J83" s="1">
         <f>C83 - F83</f>
@@ -4230,31 +4227,31 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="J84" s="1">
         <f>C84 - F84</f>
@@ -4271,31 +4268,31 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="J85" s="1">
         <f>C85 - F85</f>
@@ -4312,31 +4309,31 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="J86" s="1">
         <f>C86 - F86</f>
@@ -4353,31 +4350,31 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="J87" s="1">
         <f>C87 - F87</f>
@@ -4394,31 +4391,31 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="J88" s="1">
         <f>C88 - F88</f>
@@ -4435,31 +4432,31 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="J89" s="1">
         <f>C89 - F89</f>
@@ -4476,31 +4473,31 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="J90" s="1">
         <f>C90 - F90</f>
@@ -4517,31 +4514,31 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="J91" s="1">
         <f>C91 - F91</f>
@@ -4558,31 +4555,31 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="J92" s="1">
         <f>C92 - F92</f>
@@ -4599,31 +4596,31 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J93" s="1">
         <f>C93 - F93</f>
@@ -4640,31 +4637,31 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="J94" s="1">
         <f>C94 - F94</f>
@@ -4681,31 +4678,31 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="J95" s="1">
         <f>C95 - F95</f>
@@ -4722,7 +4719,7 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>27</v>
@@ -4731,22 +4728,22 @@
         <v>13</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="G96" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J96" s="1">
         <f>C96 - F96</f>
@@ -4763,13 +4760,13 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
@@ -4781,13 +4778,13 @@
         <v>14</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J97" s="1">
         <f>C97 - F97</f>
@@ -4804,31 +4801,31 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J98" s="1">
         <f>C98 - F98</f>
@@ -4845,31 +4842,31 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="J99" s="1">
         <f>C99 - F99</f>
@@ -4886,13 +4883,13 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
@@ -4904,13 +4901,13 @@
         <v>14</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="J100" s="1">
         <f>C100 - F100</f>
@@ -4927,31 +4924,31 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="J101" s="1">
         <f>C101 - F101</f>
@@ -4968,7 +4965,7 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>27</v>
@@ -4977,16 +4974,16 @@
         <v>13</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>29</v>
@@ -5009,31 +5006,31 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J103" s="1">
         <f>C103 - F103</f>
@@ -5050,31 +5047,31 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J104" s="1">
         <f>C104 - F104</f>
@@ -5089,9 +5086,9 @@
         <f>C104 / I104 * 100</f>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>27</v>
@@ -5109,124 +5106,42 @@
         <v>14</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J105" s="1">
-        <f>C105 - F105</f>
-      </c>
-      <c r="K105" s="1">
-        <f>C105 - I105</f>
-      </c>
-      <c r="L105" s="1">
-        <f>C105 / F105 * 100</f>
-      </c>
-      <c r="M105" s="1">
-        <f>C105 / I105 * 100</f>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J106" s="1">
-        <f>C106 - F106</f>
-      </c>
-      <c r="K106" s="1">
-        <f>C106 - I106</f>
-      </c>
-      <c r="L106" s="1">
-        <f>C106 / F106 * 100</f>
-      </c>
-      <c r="M106" s="1">
-        <f>C106 / I106 * 100</f>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
